--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
     <sheet name="hero|玩家角色" sheetId="27" r:id="rId2"/>
     <sheet name="skill|技能" sheetId="29" r:id="rId3"/>
     <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId5"/>
+    <sheet name="设计" sheetId="35" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="423">
   <si>
     <t>ID</t>
   </si>
@@ -581,6 +582,96 @@
   </si>
   <si>
     <t>召唤另一个骷髅怪加入战斗</t>
+  </si>
+  <si>
+    <t>流程：</t>
+  </si>
+  <si>
+    <t>剑士技能：</t>
+  </si>
+  <si>
+    <t>随机任务：</t>
+  </si>
+  <si>
+    <t>准备阶段（获取能量、学习技能、技能进阶、建造房屋）</t>
+  </si>
+  <si>
+    <t>递增LV</t>
+  </si>
+  <si>
+    <t>每连续击杀一个目标额外+分</t>
+  </si>
+  <si>
+    <t>攻击阶段（移动、技能）</t>
+  </si>
+  <si>
+    <t>升级增加分数</t>
+  </si>
+  <si>
+    <t>击杀刚出生的史莱姆+分</t>
+  </si>
+  <si>
+    <t>绿色1分、黄色2分、红色3分</t>
+  </si>
+  <si>
+    <t>技能打满分数翻倍</t>
+  </si>
+  <si>
+    <t>击杀将要成长的+分</t>
+  </si>
+  <si>
+    <t>红色成长扣分</t>
+  </si>
+  <si>
+    <t>技能越难达成倍率越高</t>
+  </si>
+  <si>
+    <t>一个技能击杀4个绿色+10</t>
+  </si>
+  <si>
+    <t>挥砍、突刺、旋风斩</t>
+  </si>
+  <si>
+    <t>一个技能击杀4个黄色+20</t>
+  </si>
+  <si>
+    <t>一个技能击杀4个红色+30</t>
+  </si>
+  <si>
+    <t>一回合击杀10个+40</t>
+  </si>
+  <si>
+    <t>增加一个史莱姆出生和巢穴</t>
+  </si>
+  <si>
+    <t>每回合增加一个史莱姆进化</t>
+  </si>
+  <si>
+    <t>概率直接出生黄色</t>
+  </si>
+  <si>
+    <t>概率直接出生红色</t>
+  </si>
+  <si>
+    <t>概率直接进化红色</t>
+  </si>
+  <si>
+    <t>红色进化不会扣分</t>
+  </si>
+  <si>
+    <t>扣分翻倍加分翻倍</t>
+  </si>
+  <si>
+    <t>累计击杀20个+分</t>
+  </si>
+  <si>
+    <t>累计击杀10个绿色+分</t>
+  </si>
+  <si>
+    <t>累计击杀10个黄色+分</t>
+  </si>
+  <si>
+    <t>累计击杀10个红色+分</t>
   </si>
   <si>
     <t>MAX_HP</t>
@@ -3197,7 +3288,7 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4171,6 +4262,156 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5">
+      <c r="E12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5">
+      <c r="E16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4187,67 +4428,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -4259,82 +4500,82 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -4425,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -4481,16 +4722,16 @@
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
       <c r="X4" s="64" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -4498,7 +4739,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -4554,16 +4795,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4571,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -4627,16 +4868,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4644,7 +4885,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -4700,16 +4941,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4717,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -4773,16 +5014,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -4790,7 +5031,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -4846,16 +5087,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -4863,7 +5104,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -4919,16 +5160,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -4936,7 +5177,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -4992,16 +5233,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5009,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5065,16 +5306,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5082,7 +5323,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -5138,16 +5379,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5155,7 +5396,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -5211,16 +5452,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -5228,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -5284,16 +5525,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -5301,7 +5542,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -5357,16 +5598,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -5374,7 +5615,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -5430,16 +5671,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -5447,7 +5688,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -5503,16 +5744,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -5520,7 +5761,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -5576,16 +5817,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -5593,7 +5834,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -5649,16 +5890,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5666,7 +5907,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -5722,16 +5963,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5739,7 +5980,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -5795,16 +6036,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -5812,7 +6053,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -5868,16 +6109,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -5885,7 +6126,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -5941,16 +6182,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -5958,7 +6199,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6014,16 +6255,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6031,7 +6272,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6087,16 +6328,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6104,7 +6345,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -6160,16 +6401,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6177,7 +6418,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -6233,16 +6474,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -6250,7 +6491,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -6306,16 +6547,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -6323,7 +6564,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -6379,16 +6620,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -6396,7 +6637,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -6452,16 +6693,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -6469,7 +6710,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -6525,16 +6766,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -6542,7 +6783,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -6598,16 +6839,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6615,7 +6856,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -6671,16 +6912,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6688,7 +6929,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -6744,16 +6985,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -6761,7 +7002,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -6817,16 +7058,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -6834,7 +7075,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -6890,16 +7131,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -6907,7 +7148,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -6963,16 +7204,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -6980,7 +7221,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7036,16 +7277,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7053,7 +7294,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7109,16 +7350,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7126,7 +7367,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7182,16 +7423,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="character|角色" sheetId="32" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="skill|技能" sheetId="29" r:id="rId3"/>
     <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId4"/>
     <sheet name="设计" sheetId="35" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId6"/>
+    <sheet name="csv" sheetId="36" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="433">
   <si>
     <t>ID</t>
   </si>
@@ -672,6 +673,36 @@
   </si>
   <si>
     <t>累计击杀10个红色+分</t>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+  </si>
+  <si>
+    <t>卡牌图片</t>
+  </si>
+  <si>
+    <t>卡牌描述</t>
+  </si>
+  <si>
+    <t>card_type</t>
+  </si>
+  <si>
+    <t>card_textrue</t>
+  </si>
+  <si>
+    <t>card_description</t>
+  </si>
+  <si>
+    <t>[color=white]card_one[/color]</t>
+  </si>
+  <si>
+    <t>res://images/card/card_one.png</t>
+  </si>
+  <si>
+    <t>基础分数增加1点</t>
+  </si>
+  <si>
+    <t>[color=white]card_two[/color]</t>
   </si>
   <si>
     <t>MAX_HP</t>
@@ -2983,7 +3014,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3289,7 +3320,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4264,8 +4295,8 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4412,6 +4443,76 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A22:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4428,67 +4529,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -4500,82 +4601,82 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
@@ -4666,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -4722,16 +4823,16 @@
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
       <c r="X4" s="64" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -4739,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -4795,16 +4896,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4812,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -4868,16 +4969,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4885,7 +4986,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -4941,16 +5042,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -4958,7 +5059,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5014,16 +5115,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5031,7 +5132,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5087,16 +5188,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5104,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5160,16 +5261,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5177,7 +5278,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5233,16 +5334,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5250,7 +5351,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5306,16 +5407,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5323,7 +5424,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -5379,16 +5480,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5396,7 +5497,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -5452,16 +5553,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -5469,7 +5570,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -5525,16 +5626,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -5542,7 +5643,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -5598,16 +5699,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -5615,7 +5716,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -5671,16 +5772,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -5688,7 +5789,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -5744,16 +5845,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -5761,7 +5862,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -5817,16 +5918,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -5834,7 +5935,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -5890,16 +5991,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -5907,7 +6008,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -5963,16 +6064,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -5980,7 +6081,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6036,16 +6137,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6053,7 +6154,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6109,16 +6210,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6126,7 +6227,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6182,16 +6283,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6199,7 +6300,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6255,16 +6356,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6272,7 +6373,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6328,16 +6429,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6345,7 +6446,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -6401,16 +6502,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6418,7 +6519,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -6474,16 +6575,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -6491,7 +6592,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -6547,16 +6648,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -6564,7 +6665,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -6620,16 +6721,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -6637,7 +6738,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -6693,16 +6794,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -6710,7 +6811,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -6766,16 +6867,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -6783,7 +6884,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -6839,16 +6940,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6856,7 +6957,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -6912,16 +7013,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -6929,7 +7030,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -6985,16 +7086,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7002,7 +7103,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7058,16 +7159,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7075,7 +7176,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7131,16 +7232,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7148,7 +7249,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7204,16 +7305,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7221,7 +7322,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7277,16 +7378,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7294,7 +7395,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7350,16 +7451,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7367,7 +7468,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7423,16 +7524,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="character|角色" sheetId="32" r:id="rId1"/>
-    <sheet name="hero|玩家角色" sheetId="27" r:id="rId2"/>
-    <sheet name="skill|技能" sheetId="29" r:id="rId3"/>
-    <sheet name="ability_effect|技能效果" sheetId="34" r:id="rId4"/>
-    <sheet name="设计" sheetId="35" r:id="rId5"/>
-    <sheet name="csv" sheetId="36" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="设计" sheetId="35" r:id="rId1"/>
+    <sheet name="card_level_up" sheetId="36" r:id="rId2"/>
+    <sheet name="card_hash" sheetId="37" r:id="rId3"/>
+    <sheet name="stage_info" sheetId="38" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,619 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="426">
+  <si>
+    <t>流程：</t>
+  </si>
+  <si>
+    <t>剑士技能：</t>
+  </si>
+  <si>
+    <t>随机任务：</t>
+  </si>
+  <si>
+    <t>准备阶段（获取能量、学习技能、技能进阶、建造房屋）</t>
+  </si>
+  <si>
+    <t>递增LV</t>
+  </si>
+  <si>
+    <t>每连续击杀一个目标额外+分</t>
+  </si>
+  <si>
+    <t>攻击阶段（移动、技能）</t>
+  </si>
+  <si>
+    <t>升级增加分数</t>
+  </si>
+  <si>
+    <t>击杀刚出生的史莱姆+分</t>
+  </si>
+  <si>
+    <t>绿色1分、黄色2分、红色3分</t>
+  </si>
+  <si>
+    <t>技能打满分数翻倍</t>
+  </si>
+  <si>
+    <t>击杀将要成长的+分</t>
+  </si>
+  <si>
+    <t>红色成长扣分</t>
+  </si>
+  <si>
+    <t>技能越难达成倍率越高</t>
+  </si>
+  <si>
+    <t>一个技能击杀4个绿色+10</t>
+  </si>
+  <si>
+    <t>挥砍、突刺、旋风斩</t>
+  </si>
+  <si>
+    <t>一个技能击杀4个黄色+20</t>
+  </si>
+  <si>
+    <t>一个技能击杀4个红色+30</t>
+  </si>
+  <si>
+    <t>一回合击杀10个+40</t>
+  </si>
+  <si>
+    <t>增加一个史莱姆出生和巢穴</t>
+  </si>
+  <si>
+    <t>每回合增加一个史莱姆进化</t>
+  </si>
+  <si>
+    <t>概率直接出生黄色</t>
+  </si>
+  <si>
+    <t>概率直接出生红色</t>
+  </si>
+  <si>
+    <t>概率直接进化红色</t>
+  </si>
+  <si>
+    <t>红色进化不会扣分</t>
+  </si>
+  <si>
+    <t>扣分翻倍加分翻倍</t>
+  </si>
+  <si>
+    <t>累计击杀20个+分</t>
+  </si>
+  <si>
+    <t>累计击杀10个绿色+分</t>
+  </si>
+  <si>
+    <t>累计击杀10个黄色+分</t>
+  </si>
+  <si>
+    <t>累计击杀10个红色+分</t>
+  </si>
+  <si>
+    <t>卡牌ID</t>
+  </si>
+  <si>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>卡牌图片</t>
+  </si>
+  <si>
+    <t>卡牌描述</t>
+  </si>
+  <si>
+    <t>卡牌效果操作</t>
+  </si>
+  <si>
+    <t>卡牌效果数值</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>card_id</t>
+  </si>
+  <si>
+    <t>card_name</t>
+  </si>
+  <si>
+    <t>card_textrue</t>
+  </si>
+  <si>
+    <t>card_description</t>
+  </si>
+  <si>
+    <t>card_operate</t>
+  </si>
+  <si>
+    <t>card_value</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>card_one</t>
+  </si>
+  <si>
+    <t>一点</t>
+  </si>
+  <si>
+    <t>res://images/card/card_one.png</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]1[/color]</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>card_two</t>
+  </si>
+  <si>
+    <t>二点</t>
+  </si>
+  <si>
+    <t>res://images/card/card_two.png</t>
+  </si>
+  <si>
+    <t>card_three</t>
+  </si>
+  <si>
+    <t>三点</t>
+  </si>
+  <si>
+    <t>res://images/card/card_three.png</t>
+  </si>
+  <si>
+    <t>card_four</t>
+  </si>
+  <si>
+    <t>四点</t>
+  </si>
+  <si>
+    <t>res://images/card/card_four.png</t>
+  </si>
+  <si>
+    <t>card_five</t>
+  </si>
+  <si>
+    <t>五点</t>
+  </si>
+  <si>
+    <t>res://images/card/card_five.png</t>
+  </si>
+  <si>
+    <t>card_six</t>
+  </si>
+  <si>
+    <t>六点</t>
+  </si>
+  <si>
+    <t>res://images/card/card_six.png</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]5%[/color]</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>card_none</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>res://images/card/card_none.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]10%[/color]</t>
+  </si>
+  <si>
+    <t>card_duizi</t>
+  </si>
+  <si>
+    <t>对子</t>
+  </si>
+  <si>
+    <t>res://images/card/card_duizi.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]15%[/color]</t>
+  </si>
+  <si>
+    <t>card_shunzi</t>
+  </si>
+  <si>
+    <t>顺子</t>
+  </si>
+  <si>
+    <t>res://images/card/card_shunzi.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]16%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongse</t>
+  </si>
+  <si>
+    <t>同色</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongse.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]14%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongdui</t>
+  </si>
+  <si>
+    <t>同对</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongdui.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]30%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongshun</t>
+  </si>
+  <si>
+    <t>同顺</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongshun.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]20%[/color]</t>
+  </si>
+  <si>
+    <t>card_one_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_one_blue.png</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]2[/color]</t>
+  </si>
+  <si>
+    <t>card_two_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_two_blue.png</t>
+  </si>
+  <si>
+    <t>card_three_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_three_blue.png</t>
+  </si>
+  <si>
+    <t>card_four_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_four_blue.png</t>
+  </si>
+  <si>
+    <t>card_five_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_five_blue.png</t>
+  </si>
+  <si>
+    <t>card_six_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_six_blue.png</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]10%[/color]</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]20%[/color]</t>
+  </si>
+  <si>
+    <t>card_none_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_none_blue.png</t>
+  </si>
+  <si>
+    <t>card_duizi_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_duizi_blue.png</t>
+  </si>
+  <si>
+    <t>card_shunzi_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_shunzi_blue.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]32%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongse_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongse_blue.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]28%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongdui_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongdui_blue.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]60%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongshun_blue</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongshun_blue.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]40%[/color]</t>
+  </si>
+  <si>
+    <t>card_one_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_one_purple.png</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]3[/color]</t>
+  </si>
+  <si>
+    <t>card_two_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_two_purple.png</t>
+  </si>
+  <si>
+    <t>card_three_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_three_purple.png</t>
+  </si>
+  <si>
+    <t>card_four_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_four_purple.png</t>
+  </si>
+  <si>
+    <t>card_five_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_five_purple.png</t>
+  </si>
+  <si>
+    <t>card_six_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_six_purple.png</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]15%[/color]</t>
+  </si>
+  <si>
+    <t>card_none_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_none_purple.png</t>
+  </si>
+  <si>
+    <t>card_duizi_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_duizi_purple.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]45%[/color]</t>
+  </si>
+  <si>
+    <t>card_shunzi_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_shunzi_purple.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]48%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongse_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongse_purple.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]42%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongdui_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongdui_purple.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]90%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongshun_purple</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongshun_purple.png</t>
+  </si>
+  <si>
+    <t>card_one_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_one_orange.png</t>
+  </si>
+  <si>
+    <t>基础分数增加[color=green]4[/color]</t>
+  </si>
+  <si>
+    <t>card_two_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_two_orange.png</t>
+  </si>
+  <si>
+    <t>card_three_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_three_orange.png</t>
+  </si>
+  <si>
+    <t>card_four_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_four_orange.png</t>
+  </si>
+  <si>
+    <t>card_five_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_five_orange.png</t>
+  </si>
+  <si>
+    <t>card_six_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_six_orange.png</t>
+  </si>
+  <si>
+    <t>card_none_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_none_orange.png</t>
+  </si>
+  <si>
+    <t>card_duizi_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_duizi_orange.png</t>
+  </si>
+  <si>
+    <t>card_shunzi_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_shunzi_orange.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]64%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongse_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongse_orange.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]56%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongdui_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongdui_orange.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]120%[/color]</t>
+  </si>
+  <si>
+    <t>card_tongshun_orange</t>
+  </si>
+  <si>
+    <t>res://images/card/card_tongshun_orange.png</t>
+  </si>
+  <si>
+    <t>倍率增加[color=green]80%[/color]</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>Current.one_score</t>
+  </si>
+  <si>
+    <t>Current.two_score</t>
+  </si>
+  <si>
+    <t>Current.three_score</t>
+  </si>
+  <si>
+    <t>Current.four_score</t>
+  </si>
+  <si>
+    <t>Current.five_score</t>
+  </si>
+  <si>
+    <t>Current.six_score</t>
+  </si>
+  <si>
+    <t>Current.none_percent</t>
+  </si>
+  <si>
+    <t>Current.duizi_percent</t>
+  </si>
+  <si>
+    <t>Current.shunzi_percent</t>
+  </si>
+  <si>
+    <t>Current.tongse_percent</t>
+  </si>
+  <si>
+    <t>Current.tongdui_percent</t>
+  </si>
+  <si>
+    <t>Current.tongshun_percent</t>
+  </si>
+  <si>
+    <t>关卡序号</t>
+  </si>
+  <si>
+    <t>目标分数</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>stage_num</t>
+  </si>
+  <si>
+    <t>target_score</t>
+  </si>
+  <si>
+    <t>stage_type</t>
+  </si>
   <si>
     <t>ID</t>
   </si>
@@ -41,803 +651,151 @@
     <t>name</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>scene</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>MAX_HP</t>
+  </si>
+  <si>
+    <t>HP_REGENERATION</t>
+  </si>
+  <si>
+    <t>LIFE_STEAL</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>MELEE_DAMAGE</t>
+  </si>
+  <si>
+    <t>RANGED_DAMAGE</t>
+  </si>
+  <si>
+    <t>ELEMENTAL_DAMAGE</t>
+  </si>
+  <si>
+    <t>ATTACK_SPEED</t>
+  </si>
+  <si>
+    <t>CRIT_CHANCE</t>
+  </si>
+  <si>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>ATTACK_RANGE</t>
+  </si>
+  <si>
+    <t>ARMOR</t>
+  </si>
+  <si>
+    <t>DODGE</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>LUCK</t>
+  </si>
+  <si>
+    <t>HARVESTING</t>
+  </si>
+  <si>
+    <t>CONSTITUTION</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
+    <t>INTELLIGENCE</t>
+  </si>
+  <si>
+    <t>LUCKY</t>
   </si>
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>描述</t>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>生命恢复</t>
+  </si>
+  <si>
+    <t>生命窃取</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>近战伤害</t>
+  </si>
+  <si>
+    <t>远程伤害</t>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>暴击几率</t>
+  </si>
+  <si>
+    <t>工程</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>装甲</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>收获</t>
+  </si>
+  <si>
+    <t>体质</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>解锁者</t>
+  </si>
+  <si>
+    <t>解开</t>
+  </si>
+  <si>
+    <t>项目标签</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>slime</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>一种黏滑的生物，2回合后进化成兽人。</t>
-  </si>
-  <si>
-    <t>orc</t>
-  </si>
-  <si>
-    <t>兽人</t>
-  </si>
-  <si>
-    <t>凶残的兽人，2回合后进化成兽人战士。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orc_soldier
-</t>
-  </si>
-  <si>
-    <t>兽人战士</t>
-  </si>
-  <si>
-    <t>凶残的兽人战士。</t>
-  </si>
-  <si>
-    <t>soldier</t>
-  </si>
-  <si>
-    <t>剑士</t>
-  </si>
-  <si>
-    <t>擅长使用各种剑术御敌。</t>
-  </si>
-  <si>
-    <t>archer</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>擅长使用各种箭术、陷阱等。</t>
-  </si>
-  <si>
-    <t>mage</t>
-  </si>
-  <si>
-    <t>魔法师</t>
-  </si>
-  <si>
-    <t>擅长使用各种魔法御敌。</t>
-  </si>
-  <si>
-    <t>hero_name</t>
-  </si>
-  <si>
-    <t>initial_deck</t>
-  </si>
-  <si>
-    <t>英雄的名字</t>
-  </si>
-  <si>
-    <t>天赋技能</t>
-  </si>
-  <si>
-    <t>被动天赋</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>挥砍#刺击</t>
-  </si>
-  <si>
-    <t>每击杀10个怪物增加1点攻击力</t>
-  </si>
-  <si>
-    <t>skill_name</t>
-  </si>
-  <si>
-    <t>skill_type</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>skill_description</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>target_type</t>
-  </si>
-  <si>
-    <t>play_animation</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>buff_des</t>
-  </si>
-  <si>
-    <t>技能名</t>
-  </si>
-  <si>
-    <t>技能类型
-1攻击
-2技能</t>
-  </si>
-  <si>
-    <t>成本</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
-    <t>技能图标</t>
-  </si>
-  <si>
-    <t>目标类型
-1、自身
-2、对方单体
-3、对方全体</t>
-  </si>
-  <si>
-    <t>施法者动作</t>
-  </si>
-  <si>
-    <t>效果ID列表</t>
-  </si>
-  <si>
-    <t>BUFF描述</t>
-  </si>
-  <si>
-    <t>texture</t>
-  </si>
-  <si>
-    <t>strike</t>
-  </si>
-  <si>
-    <t>打击</t>
-  </si>
-  <si>
-    <t>造成6点伤害</t>
-  </si>
-  <si>
-    <t>res://assets/textures/cards/card_icons/card_strike.png</t>
-  </si>
-  <si>
-    <t>defense</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>获得5点[color=yellow]格挡[/color]</t>
-  </si>
-  <si>
-    <t>res://assets/textures/cards/card_icons/card_defense.png</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>shielded_5</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>trounce</t>
-  </si>
-  <si>
-    <t>痛击</t>
-  </si>
-  <si>
-    <t>造成8点伤害，给与2层[color=yellow]易伤[/color]</t>
-  </si>
-  <si>
-    <t>res://assets/textures/cards/card_icons/card_trounce.png</t>
-  </si>
-  <si>
-    <t>trounce_01*trounce_02</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>effect_name</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>effect_type</t>
-  </si>
-  <si>
-    <t>effect_parameters</t>
-  </si>
-  <si>
-    <t>技能效果名</t>
-  </si>
-  <si>
-    <t>目标类型
-0、继承主人
-1、自身
-2、对方单体
-3、对方全体</t>
-  </si>
-  <si>
-    <t>持续回合
-0及时
--1永久</t>
-  </si>
-  <si>
-    <t>效果类型
-1、造成伤害
-2、获得护盾
-3、给予BUFF
-4、易伤</t>
-  </si>
-  <si>
-    <t>效果参数，根据类型。*号分割
-1、伤害值
-2、护盾值
-3、BUFFID</t>
-  </si>
-  <si>
-    <t>技能效果描述</t>
-  </si>
-  <si>
-    <t>护盾*5</t>
-  </si>
-  <si>
-    <t>获得5点护盾</t>
-  </si>
-  <si>
-    <t>trounce_01</t>
-  </si>
-  <si>
-    <t>造成8点伤害</t>
-  </si>
-  <si>
-    <t>trounce_02</t>
-  </si>
-  <si>
-    <t>给予易伤</t>
-  </si>
-  <si>
-    <t>vulnerable*2</t>
-  </si>
-  <si>
-    <t>给与2层易伤</t>
-  </si>
-  <si>
-    <t>attack_5</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>造成5点伤害</t>
-  </si>
-  <si>
-    <t>split</t>
-  </si>
-  <si>
-    <t>防护</t>
-  </si>
-  <si>
-    <t>自身获得5点护盾</t>
-  </si>
-  <si>
-    <t>attack_8</t>
-  </si>
-  <si>
-    <t>toxin_spray</t>
-  </si>
-  <si>
-    <t>毒素喷雾</t>
-  </si>
-  <si>
-    <t>造成2回合易伤BUFF</t>
-  </si>
-  <si>
-    <t>VULNERABLE</t>
-  </si>
-  <si>
-    <t>易伤（Vulnerable）</t>
-  </si>
-  <si>
-    <t>易伤</t>
-  </si>
-  <si>
-    <t>目标受到的伤害增加50%。</t>
-  </si>
-  <si>
-    <t>WEAK</t>
-  </si>
-  <si>
-    <t>弱化（Weak）</t>
-  </si>
-  <si>
-    <t>弱化</t>
-  </si>
-  <si>
-    <t>目标造成的伤害减少25%。</t>
-  </si>
-  <si>
-    <t>POISONED</t>
-  </si>
-  <si>
-    <t>中毒（Poisoned）</t>
-  </si>
-  <si>
-    <t>中毒</t>
-  </si>
-  <si>
-    <t>在目标的回合开始时，中毒将造成等同于其堆叠数的伤害，并减少1点堆叠数。</t>
-  </si>
-  <si>
-    <t>BURNING</t>
-  </si>
-  <si>
-    <t>燃烧（Burning）</t>
-  </si>
-  <si>
-    <t>燃烧</t>
-  </si>
-  <si>
-    <t>每回合结束时，目标受到等同于燃烧堆叠数的伤害，然后燃烧堆叠数减半。</t>
-  </si>
-  <si>
-    <t>STRENGTHENED</t>
-  </si>
-  <si>
-    <t>强化（Strengthened）</t>
-  </si>
-  <si>
-    <t>强化</t>
-  </si>
-  <si>
-    <t>目标的攻击力增加。</t>
-  </si>
-  <si>
-    <t>REGENERATING</t>
-  </si>
-  <si>
-    <t>再生（Regenerating）</t>
-  </si>
-  <si>
-    <t>再生</t>
-  </si>
-  <si>
-    <t>目标每回合恢复5生命值。</t>
-  </si>
-  <si>
-    <t>BLEEDING</t>
-  </si>
-  <si>
-    <t>流血（Bleeding）</t>
-  </si>
-  <si>
-    <t>流血</t>
-  </si>
-  <si>
-    <t>每回合结束时，目标受到等同于流血堆叠数的伤害。</t>
-  </si>
-  <si>
-    <t>ENERGIZED</t>
-  </si>
-  <si>
-    <t>充能（Energized）</t>
-  </si>
-  <si>
-    <t>充能</t>
-  </si>
-  <si>
-    <t>目标在下一回合获得额外的能量点数。</t>
-  </si>
-  <si>
-    <t>FROZEN</t>
-  </si>
-  <si>
-    <t>冻结（Frozen）</t>
-  </si>
-  <si>
-    <t>冻结</t>
-  </si>
-  <si>
-    <t>目标在下一回合无法行动。</t>
-  </si>
-  <si>
-    <t>healing_spore</t>
-  </si>
-  <si>
-    <t>治疗孢子</t>
-  </si>
-  <si>
-    <t>所有人恢复10点生命值。</t>
-  </si>
-  <si>
-    <t>恢复</t>
-  </si>
-  <si>
-    <t>hallucinogenic_spore</t>
-  </si>
-  <si>
-    <t>迷幻孢子</t>
-  </si>
-  <si>
-    <t>玩家获得“混乱”卡牌。</t>
-  </si>
-  <si>
-    <t>给与卡牌</t>
-  </si>
-  <si>
-    <t>destruction_ray</t>
-  </si>
-  <si>
-    <t>破坏射线</t>
-  </si>
-  <si>
-    <t>对玩家造成10点伤害</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>curse_gaze</t>
-  </si>
-  <si>
-    <t>诅咒凝视</t>
-  </si>
-  <si>
-    <t>magic_shield</t>
-  </si>
-  <si>
-    <t>魔法护盾</t>
-  </si>
-  <si>
-    <t>为自己添加一层护盾，抵挡一定量的伤害。</t>
-  </si>
-  <si>
-    <t>获得护盾</t>
-  </si>
-  <si>
-    <t>sprint_stab</t>
-  </si>
-  <si>
-    <t>疾跑刺击</t>
-  </si>
-  <si>
-    <t>对玩家造成12点伤害</t>
-  </si>
-  <si>
-    <t>set_trap</t>
-  </si>
-  <si>
-    <t>布置陷阱</t>
-  </si>
-  <si>
-    <t>蓄力一回合，下一回合对玩家造成双倍伤害</t>
-  </si>
-  <si>
-    <t>蓄力</t>
-  </si>
-  <si>
-    <t>sneak_attack</t>
-  </si>
-  <si>
-    <t>偷袭</t>
-  </si>
-  <si>
-    <t>如果玩家生命值低，造成额外伤害。</t>
-  </si>
-  <si>
-    <t>heavy_strike</t>
-  </si>
-  <si>
-    <t>重击</t>
-  </si>
-  <si>
-    <t>造成15点伤害</t>
-  </si>
-  <si>
-    <t>bone_shield</t>
-  </si>
-  <si>
-    <t>骨盾</t>
-  </si>
-  <si>
-    <t>summon_assistance</t>
-  </si>
-  <si>
-    <t>召唤援助</t>
-  </si>
-  <si>
-    <t>召唤另一个骷髅怪加入战斗</t>
-  </si>
-  <si>
-    <t>流程：</t>
-  </si>
-  <si>
-    <t>剑士技能：</t>
-  </si>
-  <si>
-    <t>随机任务：</t>
-  </si>
-  <si>
-    <t>准备阶段（获取能量、学习技能、技能进阶、建造房屋）</t>
-  </si>
-  <si>
-    <t>递增LV</t>
-  </si>
-  <si>
-    <t>每连续击杀一个目标额外+分</t>
-  </si>
-  <si>
-    <t>攻击阶段（移动、技能）</t>
-  </si>
-  <si>
-    <t>升级增加分数</t>
-  </si>
-  <si>
-    <t>击杀刚出生的史莱姆+分</t>
-  </si>
-  <si>
-    <t>绿色1分、黄色2分、红色3分</t>
-  </si>
-  <si>
-    <t>技能打满分数翻倍</t>
-  </si>
-  <si>
-    <t>击杀将要成长的+分</t>
-  </si>
-  <si>
-    <t>红色成长扣分</t>
-  </si>
-  <si>
-    <t>技能越难达成倍率越高</t>
-  </si>
-  <si>
-    <t>一个技能击杀4个绿色+10</t>
-  </si>
-  <si>
-    <t>挥砍、突刺、旋风斩</t>
-  </si>
-  <si>
-    <t>一个技能击杀4个黄色+20</t>
-  </si>
-  <si>
-    <t>一个技能击杀4个红色+30</t>
-  </si>
-  <si>
-    <t>一回合击杀10个+40</t>
-  </si>
-  <si>
-    <t>增加一个史莱姆出生和巢穴</t>
-  </si>
-  <si>
-    <t>每回合增加一个史莱姆进化</t>
-  </si>
-  <si>
-    <t>概率直接出生黄色</t>
-  </si>
-  <si>
-    <t>概率直接出生红色</t>
-  </si>
-  <si>
-    <t>概率直接进化红色</t>
-  </si>
-  <si>
-    <t>红色进化不会扣分</t>
-  </si>
-  <si>
-    <t>扣分翻倍加分翻倍</t>
-  </si>
-  <si>
-    <t>累计击杀20个+分</t>
-  </si>
-  <si>
-    <t>累计击杀10个绿色+分</t>
-  </si>
-  <si>
-    <t>累计击杀10个黄色+分</t>
-  </si>
-  <si>
-    <t>累计击杀10个红色+分</t>
-  </si>
-  <si>
-    <t>卡牌类型</t>
-  </si>
-  <si>
-    <t>卡牌图片</t>
-  </si>
-  <si>
-    <t>卡牌描述</t>
-  </si>
-  <si>
-    <t>card_type</t>
-  </si>
-  <si>
-    <t>card_textrue</t>
-  </si>
-  <si>
-    <t>card_description</t>
-  </si>
-  <si>
-    <t>[color=white]card_one[/color]</t>
-  </si>
-  <si>
-    <t>res://images/card/card_one.png</t>
-  </si>
-  <si>
-    <t>基础分数增加1点</t>
-  </si>
-  <si>
-    <t>[color=white]card_two[/color]</t>
-  </si>
-  <si>
-    <t>MAX_HP</t>
-  </si>
-  <si>
-    <t>HP_REGENERATION</t>
-  </si>
-  <si>
-    <t>LIFE_STEAL</t>
-  </si>
-  <si>
-    <t>DAMAGE</t>
-  </si>
-  <si>
-    <t>MELEE_DAMAGE</t>
-  </si>
-  <si>
-    <t>RANGED_DAMAGE</t>
-  </si>
-  <si>
-    <t>ELEMENTAL_DAMAGE</t>
-  </si>
-  <si>
-    <t>ATTACK_SPEED</t>
-  </si>
-  <si>
-    <t>CRIT_CHANCE</t>
-  </si>
-  <si>
-    <t>ENGINEERING</t>
-  </si>
-  <si>
-    <t>ATTACK_RANGE</t>
-  </si>
-  <si>
-    <t>ARMOR</t>
-  </si>
-  <si>
-    <t>DODGE</t>
-  </si>
-  <si>
-    <t>SPEED</t>
-  </si>
-  <si>
-    <t>LUCK</t>
-  </si>
-  <si>
-    <t>HARVESTING</t>
-  </si>
-  <si>
-    <t>CONSTITUTION</t>
-  </si>
-  <si>
-    <t>POWER</t>
-  </si>
-  <si>
-    <t>AGILE</t>
-  </si>
-  <si>
-    <t>INTELLIGENCE</t>
-  </si>
-  <si>
-    <t>LUCKY</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>最大生命值</t>
-  </si>
-  <si>
-    <t>生命恢复</t>
-  </si>
-  <si>
-    <t>生命窃取</t>
-  </si>
-  <si>
-    <t>近战伤害</t>
-  </si>
-  <si>
-    <t>远程伤害</t>
-  </si>
-  <si>
-    <t>魔法伤害</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
-    <t>暴击几率</t>
-  </si>
-  <si>
-    <t>工程</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>装甲</t>
-  </si>
-  <si>
-    <t>闪避</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>收获</t>
-  </si>
-  <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-  </si>
-  <si>
-    <t>智力</t>
-  </si>
-  <si>
-    <t>统计</t>
-  </si>
-  <si>
-    <t>解锁者</t>
-  </si>
-  <si>
-    <t>解开</t>
-  </si>
-  <si>
-    <t>项目标签</t>
   </si>
   <si>
     <t>全面</t>
@@ -1469,7 +1427,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,21 +1439,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1645,12 +1588,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1660,25 +1609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,7 +1806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -2211,15 +2148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2337,137 +2265,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2573,91 +2501,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
@@ -3011,1288 +2864,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="79.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="61">
-        <v>1</v>
-      </c>
-      <c r="D4" s="62">
-        <v>1</v>
-      </c>
-      <c r="E4" s="63" t="str">
-        <f>"enemy_"&amp;A4</f>
-        <v>enemy_slime</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="61">
-        <v>2</v>
-      </c>
-      <c r="D5" s="62">
-        <v>2</v>
-      </c>
-      <c r="E5" s="63" t="str">
-        <f>"enemy_"&amp;A5</f>
-        <v>enemy_orc</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="61">
-        <v>3</v>
-      </c>
-      <c r="D6" s="62">
-        <v>3</v>
-      </c>
-      <c r="E6" s="63" t="str">
-        <f>"enemy_"&amp;A6</f>
-        <v>enemy_orc_soldier
-</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="10">
-        <v>10</v>
-      </c>
-      <c r="D7" s="41">
-        <v>2</v>
-      </c>
-      <c r="E7" s="40" t="str">
-        <f>"hero_"&amp;A7</f>
-        <v>hero_soldier</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10">
-        <v>9</v>
-      </c>
-      <c r="D8" s="41">
-        <v>1</v>
-      </c>
-      <c r="E8" s="40" t="str">
-        <f>"hero_"&amp;A8</f>
-        <v>hero_archer</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="40" t="str">
-        <f>"hero_"&amp;A9</f>
-        <v>hero_mage</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86666666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="8.33333333333333" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.8666666666667" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="34.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" s="58" customFormat="1" spans="1:4">
-      <c r="A2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="2" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="5.86666666666667" customWidth="1"/>
-    <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="62.625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="25.4" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" ht="54" spans="1:10">
-      <c r="A2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="10">
-        <v>2</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="71.2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="81" spans="1:8">
-      <c r="A2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>6</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="40">
-        <v>5</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" s="35" customFormat="1" spans="1:8">
-      <c r="A6" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="41">
-        <v>0</v>
-      </c>
-      <c r="E6" s="41">
-        <v>0</v>
-      </c>
-      <c r="F6" s="41">
-        <v>1</v>
-      </c>
-      <c r="G6" s="41">
-        <v>8</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" s="35" customFormat="1" spans="1:8">
-      <c r="A7" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="41">
-        <v>0</v>
-      </c>
-      <c r="E7" s="41">
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
-        <v>3</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="43">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0</v>
-      </c>
-      <c r="F8" s="43">
-        <v>1</v>
-      </c>
-      <c r="G8" s="42">
-        <v>5</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9" s="43">
-        <v>0</v>
-      </c>
-      <c r="F9" s="43">
-        <v>2</v>
-      </c>
-      <c r="G9" s="43">
-        <v>5</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" s="36" customFormat="1" spans="1:8">
-      <c r="A10" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="47">
-        <v>0</v>
-      </c>
-      <c r="E10" s="47">
-        <v>0</v>
-      </c>
-      <c r="F10" s="47">
-        <v>1</v>
-      </c>
-      <c r="G10" s="46">
-        <v>8</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" s="36" customFormat="1" spans="1:8">
-      <c r="A11" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="47">
-        <v>0</v>
-      </c>
-      <c r="E11" s="47">
-        <v>0</v>
-      </c>
-      <c r="F11" s="47">
-        <v>3</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10">
-        <v>4</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
-        <v>4</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <v>6</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10">
-        <v>7</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
-        <v>8</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
-        <v>9</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" s="37" customFormat="1" spans="1:9">
-      <c r="A21" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D21" s="51">
-        <v>0</v>
-      </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" s="37" customFormat="1" spans="1:9">
-      <c r="A22" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="I26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="55" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4308,130 +2879,130 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>194</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4440,68 +3011,1726 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A22:C26"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
+    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>216</v>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="35">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="G9" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="G10" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="G11" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="G12" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="G13" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="35">
+        <v>1.05</v>
+      </c>
+      <c r="G14" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="35">
+        <v>10</v>
+      </c>
+      <c r="G15" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="35">
+        <v>15</v>
+      </c>
+      <c r="G16" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="35">
+        <v>16</v>
+      </c>
+      <c r="G17" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="35">
+        <v>14</v>
+      </c>
+      <c r="G18" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="35">
+        <v>30</v>
+      </c>
+      <c r="G19" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="35">
+        <v>20</v>
+      </c>
+      <c r="G20" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="35">
+        <v>2</v>
+      </c>
+      <c r="G21" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="35">
+        <v>2</v>
+      </c>
+      <c r="G22" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2</v>
+      </c>
+      <c r="G23" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="35">
+        <v>2</v>
+      </c>
+      <c r="G24" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="35">
+        <v>2</v>
+      </c>
+      <c r="G25" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="35">
+        <v>2</v>
+      </c>
+      <c r="G26" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="G27" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="G28" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="G29" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="G30" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="G31" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="G32" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="35">
+        <v>20</v>
+      </c>
+      <c r="G33" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="35">
+        <v>30</v>
+      </c>
+      <c r="G34" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="35">
+        <v>32</v>
+      </c>
+      <c r="G35" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="35">
+        <v>28</v>
+      </c>
+      <c r="G36" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="35">
+        <v>60</v>
+      </c>
+      <c r="G37" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="35">
+        <v>40</v>
+      </c>
+      <c r="G38" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="35">
+        <v>3</v>
+      </c>
+      <c r="G39" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="35">
+        <v>3</v>
+      </c>
+      <c r="G40" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="35">
+        <v>3</v>
+      </c>
+      <c r="G41" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="35">
+        <v>3</v>
+      </c>
+      <c r="G42" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="35">
+        <v>3</v>
+      </c>
+      <c r="G43" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="35">
+        <v>3</v>
+      </c>
+      <c r="G44" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="35">
+        <v>1.15</v>
+      </c>
+      <c r="G45" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="35">
+        <v>1.15</v>
+      </c>
+      <c r="G46" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="35">
+        <v>1.15</v>
+      </c>
+      <c r="G47" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="35">
+        <v>1.15</v>
+      </c>
+      <c r="G48" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="35">
+        <v>1.15</v>
+      </c>
+      <c r="G49" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="35">
+        <v>1.15</v>
+      </c>
+      <c r="G50" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="35">
+        <v>30</v>
+      </c>
+      <c r="G51" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="35">
+        <v>45</v>
+      </c>
+      <c r="G52" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="35">
+        <v>48</v>
+      </c>
+      <c r="G53" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="35">
+        <v>42</v>
+      </c>
+      <c r="G54" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="35">
+        <v>90</v>
+      </c>
+      <c r="G55" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="35">
+        <v>60</v>
+      </c>
+      <c r="G56" s="37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="35">
+        <v>4</v>
+      </c>
+      <c r="G57" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="35">
+        <v>4</v>
+      </c>
+      <c r="G58" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="35">
+        <v>4</v>
+      </c>
+      <c r="G59" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="35">
+        <v>4</v>
+      </c>
+      <c r="G60" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="35">
+        <v>4</v>
+      </c>
+      <c r="G61" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="35">
+        <v>4</v>
+      </c>
+      <c r="G62" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="G63" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="G64" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="G65" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="G66" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="G67" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="G68" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="35">
+        <v>40</v>
+      </c>
+      <c r="G69" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="35">
+        <v>60</v>
+      </c>
+      <c r="G70" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="35">
+        <v>64</v>
+      </c>
+      <c r="G71" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="35">
+        <v>56</v>
+      </c>
+      <c r="G72" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="35">
+        <v>120</v>
+      </c>
+      <c r="G73" s="38">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="35">
+        <v>80</v>
+      </c>
+      <c r="G74" s="38">
+        <v>-35</v>
       </c>
     </row>
   </sheetData>
@@ -4510,7 +4739,325 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="23.75" customWidth="1"/>
+    <col min="9" max="10" width="24.875" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>600</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>700</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>900</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1100</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA41"/>
@@ -4523,73 +5070,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="R1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="W1" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -4598,168 +5145,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="R2" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="W2" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Y2" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Z2" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AA2" s="33" t="s">
         <v>252</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -4767,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -4822,17 +5369,17 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="64" t="s">
-        <v>263</v>
+      <c r="X4" s="39" t="s">
+        <v>256</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -4840,7 +5387,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -4896,16 +5443,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -4913,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -4969,16 +5516,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -4986,7 +5533,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -5042,16 +5589,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5059,7 +5606,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5115,16 +5662,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5132,7 +5679,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5188,16 +5735,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5205,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5261,16 +5808,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5278,7 +5825,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5334,16 +5881,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5351,7 +5898,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5407,16 +5954,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5424,7 +5971,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -5480,16 +6027,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5497,7 +6044,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -5553,16 +6100,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -5570,7 +6117,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -5626,16 +6173,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -5643,7 +6190,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -5699,16 +6246,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -5716,7 +6263,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -5772,16 +6319,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -5789,7 +6336,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -5845,16 +6392,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -5862,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -5918,16 +6465,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -5935,7 +6482,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -5991,16 +6538,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6008,7 +6555,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -6064,16 +6611,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6081,7 +6628,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6137,16 +6684,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6154,7 +6701,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6210,16 +6757,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6227,7 +6774,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6283,16 +6830,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6300,7 +6847,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6356,16 +6903,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6373,7 +6920,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6429,16 +6976,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6446,7 +6993,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -6502,16 +7049,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6519,7 +7066,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -6575,16 +7122,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -6592,7 +7139,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -6648,16 +7195,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -6665,7 +7212,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -6721,16 +7268,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -6738,7 +7285,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -6794,16 +7341,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -6811,7 +7358,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -6867,16 +7414,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -6884,7 +7431,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -6940,16 +7487,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -6957,7 +7504,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -7013,16 +7560,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7030,7 +7577,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -7086,16 +7633,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7103,7 +7650,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7159,16 +7706,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7176,7 +7723,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7232,16 +7779,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7249,7 +7796,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7305,16 +7852,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7322,7 +7869,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7378,16 +7925,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7395,7 +7942,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7451,16 +7998,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7468,7 +8015,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7524,16 +8071,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="390">
   <si>
     <t>流程：</t>
   </si>
@@ -225,7 +225,7 @@
     <t>res://images/card/card_six.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]5%[/color]</t>
+    <t>基础分数增加[color=green]10%[/color]</t>
   </si>
   <si>
     <t>mul</t>
@@ -303,268 +303,160 @@
     <t>倍率增加[color=green]20%[/color]</t>
   </si>
   <si>
-    <t>card_one_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_one_blue.png</t>
   </si>
   <si>
     <t>基础分数增加[color=green]2[/color]</t>
   </si>
   <si>
-    <t>card_two_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_two_blue.png</t>
   </si>
   <si>
-    <t>card_three_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_three_blue.png</t>
   </si>
   <si>
-    <t>card_four_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_four_blue.png</t>
   </si>
   <si>
-    <t>card_five_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_five_blue.png</t>
   </si>
   <si>
-    <t>card_six_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_six_blue.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]10%[/color]</t>
-  </si>
-  <si>
     <t>基础分数增加[color=green]20%[/color]</t>
   </si>
   <si>
-    <t>card_none_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_none_blue.png</t>
   </si>
   <si>
-    <t>card_duizi_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_duizi_blue.png</t>
   </si>
   <si>
-    <t>card_shunzi_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_shunzi_blue.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]32%[/color]</t>
   </si>
   <si>
-    <t>card_tongse_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongse_blue.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]28%[/color]</t>
   </si>
   <si>
-    <t>card_tongdui_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongdui_blue.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]60%[/color]</t>
   </si>
   <si>
-    <t>card_tongshun_blue</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongshun_blue.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]40%[/color]</t>
   </si>
   <si>
-    <t>card_one_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_one_purple.png</t>
   </si>
   <si>
     <t>基础分数增加[color=green]3[/color]</t>
   </si>
   <si>
-    <t>card_two_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_two_purple.png</t>
   </si>
   <si>
-    <t>card_three_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_three_purple.png</t>
   </si>
   <si>
-    <t>card_four_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_four_purple.png</t>
   </si>
   <si>
-    <t>card_five_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_five_purple.png</t>
   </si>
   <si>
-    <t>card_six_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_six_purple.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]15%[/color]</t>
-  </si>
-  <si>
-    <t>card_none_purple</t>
+    <t>基础分数增加[color=green]30%[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_none_purple.png</t>
   </si>
   <si>
-    <t>card_duizi_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_duizi_purple.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]45%[/color]</t>
   </si>
   <si>
-    <t>card_shunzi_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_shunzi_purple.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]48%[/color]</t>
   </si>
   <si>
-    <t>card_tongse_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongse_purple.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]42%[/color]</t>
   </si>
   <si>
-    <t>card_tongdui_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongdui_purple.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]90%[/color]</t>
   </si>
   <si>
-    <t>card_tongshun_purple</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongshun_purple.png</t>
   </si>
   <si>
-    <t>card_one_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_one_orange.png</t>
   </si>
   <si>
     <t>基础分数增加[color=green]4[/color]</t>
   </si>
   <si>
-    <t>card_two_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_two_orange.png</t>
   </si>
   <si>
-    <t>card_three_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_three_orange.png</t>
   </si>
   <si>
-    <t>card_four_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_four_orange.png</t>
   </si>
   <si>
-    <t>card_five_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_five_orange.png</t>
   </si>
   <si>
-    <t>card_six_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_six_orange.png</t>
   </si>
   <si>
-    <t>card_none_orange</t>
+    <t>基础分数增加[color=green]40%[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_none_orange.png</t>
   </si>
   <si>
-    <t>card_duizi_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_duizi_orange.png</t>
   </si>
   <si>
-    <t>card_shunzi_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_shunzi_orange.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]64%[/color]</t>
   </si>
   <si>
-    <t>card_tongse_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongse_orange.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]56%[/color]</t>
   </si>
   <si>
-    <t>card_tongdui_orange</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongdui_orange.png</t>
   </si>
   <si>
     <t>倍率增加[color=green]120%[/color]</t>
-  </si>
-  <si>
-    <t>card_tongshun_orange</t>
   </si>
   <si>
     <t>res://images/card/card_tongshun_orange.png</t>
@@ -3016,8 +2908,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3232,7 +3124,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="35">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G9" s="35">
         <v>100</v>
@@ -3255,7 +3147,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="35">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G10" s="35">
         <v>100</v>
@@ -3278,7 +3170,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="35">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G11" s="35">
         <v>100</v>
@@ -3301,7 +3193,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="35">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G12" s="35">
         <v>100</v>
@@ -3324,7 +3216,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="35">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G13" s="35">
         <v>100</v>
@@ -3347,7 +3239,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="35">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G14" s="35">
         <v>100</v>
@@ -3493,21 +3385,21 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="D21" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="36">
         <v>2</v>
       </c>
       <c r="G21" s="36">
@@ -3516,21 +3408,21 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="36">
         <v>2</v>
       </c>
       <c r="G22" s="36">
@@ -3539,21 +3431,21 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="36">
         <v>2</v>
       </c>
       <c r="G23" s="36">
@@ -3562,21 +3454,21 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="36">
         <v>2</v>
       </c>
       <c r="G24" s="36">
@@ -3585,21 +3477,21 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="36">
         <v>2</v>
       </c>
       <c r="G25" s="36">
@@ -3608,21 +3500,21 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="36">
         <v>2</v>
       </c>
       <c r="G26" s="36">
@@ -3631,22 +3523,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>91</v>
-      </c>
       <c r="D27" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="35">
-        <v>1.1</v>
+      <c r="F27" s="36">
+        <v>1.2</v>
       </c>
       <c r="G27" s="36">
         <v>5</v>
@@ -3654,22 +3546,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="35">
-        <v>1.1</v>
+      <c r="F28" s="36">
+        <v>1.2</v>
       </c>
       <c r="G28" s="36">
         <v>5</v>
@@ -3677,22 +3569,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="35">
-        <v>1.1</v>
+      <c r="F29" s="36">
+        <v>1.2</v>
       </c>
       <c r="G29" s="36">
         <v>5</v>
@@ -3700,22 +3592,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="35">
-        <v>1.1</v>
+      <c r="F30" s="36">
+        <v>1.2</v>
       </c>
       <c r="G30" s="36">
         <v>5</v>
@@ -3723,22 +3615,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="36" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="35">
-        <v>1.1</v>
+      <c r="F31" s="36">
+        <v>1.2</v>
       </c>
       <c r="G31" s="36">
         <v>5</v>
@@ -3746,22 +3638,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="35">
-        <v>1.1</v>
+      <c r="F32" s="36">
+        <v>1.2</v>
       </c>
       <c r="G32" s="36">
         <v>5</v>
@@ -3769,21 +3661,21 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="36">
         <v>20</v>
       </c>
       <c r="G33" s="36">
@@ -3792,21 +3684,21 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="36" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="36">
         <v>30</v>
       </c>
       <c r="G34" s="36">
@@ -3815,21 +3707,21 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="36">
         <v>32</v>
       </c>
       <c r="G35" s="36">
@@ -3838,21 +3730,21 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="36">
         <v>28</v>
       </c>
       <c r="G36" s="36">
@@ -3861,21 +3753,21 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="36">
         <v>60</v>
       </c>
       <c r="G37" s="36">
@@ -3884,21 +3776,21 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="36">
         <v>40</v>
       </c>
       <c r="G38" s="36">
@@ -3907,21 +3799,21 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="37">
         <v>3</v>
       </c>
       <c r="G39" s="37">
@@ -3930,21 +3822,21 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="37">
         <v>3</v>
       </c>
       <c r="G40" s="37">
@@ -3953,21 +3845,21 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="37">
         <v>3</v>
       </c>
       <c r="G41" s="37">
@@ -3976,21 +3868,21 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="37">
         <v>3</v>
       </c>
       <c r="G42" s="37">
@@ -3999,21 +3891,21 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="37">
         <v>3</v>
       </c>
       <c r="G43" s="37">
@@ -4022,21 +3914,21 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="37">
         <v>3</v>
       </c>
       <c r="G44" s="37">
@@ -4045,22 +3937,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="35">
-        <v>1.15</v>
+      <c r="F45" s="37">
+        <v>1.3</v>
       </c>
       <c r="G45" s="37">
         <v>-15</v>
@@ -4068,22 +3960,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="35">
-        <v>1.15</v>
+      <c r="F46" s="37">
+        <v>1.3</v>
       </c>
       <c r="G46" s="37">
         <v>-15</v>
@@ -4091,22 +3983,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="35">
-        <v>1.15</v>
+      <c r="F47" s="37">
+        <v>1.3</v>
       </c>
       <c r="G47" s="37">
         <v>-15</v>
@@ -4114,22 +4006,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="35">
-        <v>1.15</v>
+      <c r="F48" s="37">
+        <v>1.3</v>
       </c>
       <c r="G48" s="37">
         <v>-15</v>
@@ -4137,22 +4029,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="37" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="35">
-        <v>1.15</v>
+      <c r="F49" s="37">
+        <v>1.3</v>
       </c>
       <c r="G49" s="37">
         <v>-15</v>
@@ -4160,22 +4052,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="37" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="35">
-        <v>1.15</v>
+      <c r="F50" s="37">
+        <v>1.3</v>
       </c>
       <c r="G50" s="37">
         <v>-15</v>
@@ -4183,21 +4075,21 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="37" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="37">
         <v>30</v>
       </c>
       <c r="G51" s="37">
@@ -4206,21 +4098,21 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="37">
         <v>45</v>
       </c>
       <c r="G52" s="37">
@@ -4229,21 +4121,21 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="37" t="s">
         <v>75</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="37">
         <v>48</v>
       </c>
       <c r="G53" s="37">
@@ -4252,21 +4144,21 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="37" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="37">
         <v>42</v>
       </c>
       <c r="G54" s="37">
@@ -4275,21 +4167,21 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="37" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="37">
         <v>90</v>
       </c>
       <c r="G55" s="37">
@@ -4298,21 +4190,21 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="37" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="37">
         <v>60</v>
       </c>
       <c r="G56" s="37">
@@ -4321,21 +4213,21 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E57" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="38">
         <v>4</v>
       </c>
       <c r="G57" s="38">
@@ -4344,21 +4236,21 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="38">
         <v>4</v>
       </c>
       <c r="G58" s="38">
@@ -4367,21 +4259,21 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="38">
         <v>4</v>
       </c>
       <c r="G59" s="38">
@@ -4390,21 +4282,21 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="38">
         <v>4</v>
       </c>
       <c r="G60" s="38">
@@ -4413,21 +4305,21 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="38">
         <v>4</v>
       </c>
       <c r="G61" s="38">
@@ -4436,21 +4328,21 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="38" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="E62" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="38">
         <v>4</v>
       </c>
       <c r="G62" s="38">
@@ -4459,22 +4351,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="38" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="35">
-        <v>1.2</v>
+      <c r="F63" s="38">
+        <v>1.4</v>
       </c>
       <c r="G63" s="38">
         <v>-35</v>
@@ -4482,22 +4374,22 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B64" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F64" s="35">
-        <v>1.2</v>
+      <c r="F64" s="38">
+        <v>1.4</v>
       </c>
       <c r="G64" s="38">
         <v>-35</v>
@@ -4505,22 +4397,22 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B65" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F65" s="35">
-        <v>1.2</v>
+      <c r="F65" s="38">
+        <v>1.4</v>
       </c>
       <c r="G65" s="38">
         <v>-35</v>
@@ -4528,22 +4420,22 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="38" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F66" s="35">
-        <v>1.2</v>
+      <c r="F66" s="38">
+        <v>1.4</v>
       </c>
       <c r="G66" s="38">
         <v>-35</v>
@@ -4551,22 +4443,22 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>59</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="35">
-        <v>1.2</v>
+      <c r="F67" s="38">
+        <v>1.4</v>
       </c>
       <c r="G67" s="38">
         <v>-35</v>
@@ -4574,22 +4466,22 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>62</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="35">
-        <v>1.2</v>
+      <c r="F68" s="38">
+        <v>1.4</v>
       </c>
       <c r="G68" s="38">
         <v>-35</v>
@@ -4597,21 +4489,21 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="38" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E69" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="38">
         <v>40</v>
       </c>
       <c r="G69" s="38">
@@ -4620,21 +4512,21 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="38">
         <v>60</v>
       </c>
       <c r="G70" s="38">
@@ -4643,21 +4535,21 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="38" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E71" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="38">
         <v>64</v>
       </c>
       <c r="G71" s="38">
@@ -4666,21 +4558,21 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="B72" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="38" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E72" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E72" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="38">
         <v>56</v>
       </c>
       <c r="G72" s="38">
@@ -4689,21 +4581,21 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B73" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="38" t="s">
         <v>83</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="38">
         <v>120</v>
       </c>
       <c r="G73" s="38">
@@ -4712,21 +4604,21 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>87</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E74" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="38">
         <v>80</v>
       </c>
       <c r="G74" s="38">
@@ -4763,22 +4655,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
         <v>67</v>
@@ -4839,40 +4731,40 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="J3" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4778,7 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4899,24 +4791,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5070,73 +4962,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -5145,168 +5037,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -5314,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -5370,16 +5262,16 @@
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
       <c r="X4" s="39" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5387,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -5443,16 +5335,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5460,7 +5352,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -5516,16 +5408,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5533,7 +5425,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -5589,16 +5481,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5606,7 +5498,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5662,16 +5554,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5679,7 +5571,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5735,16 +5627,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5752,7 +5644,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5808,16 +5700,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5825,7 +5717,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5881,16 +5773,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5898,7 +5790,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5954,16 +5846,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5971,7 +5863,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -6027,16 +5919,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -6044,7 +5936,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -6100,16 +5992,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -6117,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -6173,16 +6065,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6190,7 +6082,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -6246,16 +6138,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -6263,7 +6155,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -6319,16 +6211,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6336,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -6392,16 +6284,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -6409,7 +6301,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -6465,16 +6357,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6482,7 +6374,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -6538,16 +6430,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6555,7 +6447,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -6611,16 +6503,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6628,7 +6520,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6684,16 +6576,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6701,7 +6593,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6757,16 +6649,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6774,7 +6666,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6830,16 +6722,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6847,7 +6739,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6903,16 +6795,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6920,7 +6812,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6976,16 +6868,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6993,7 +6885,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -7049,16 +6941,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -7066,7 +6958,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -7122,16 +7014,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -7139,7 +7031,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -7195,16 +7087,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -7212,7 +7104,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -7268,16 +7160,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -7285,7 +7177,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -7341,16 +7233,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7358,7 +7250,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -7414,16 +7306,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7431,7 +7323,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -7487,16 +7379,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7504,7 +7396,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -7560,16 +7452,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7577,7 +7469,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -7633,16 +7525,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7650,7 +7542,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7706,16 +7598,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7723,7 +7615,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7779,16 +7671,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7796,7 +7688,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7852,16 +7744,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7869,7 +7761,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7925,16 +7817,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7942,7 +7834,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7998,16 +7890,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -8015,7 +7907,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -8071,16 +7963,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="376">
   <si>
     <t>流程：</t>
   </si>
@@ -174,7 +174,7 @@
     <t>res://images/card/card_one.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]1[/color]</t>
+    <t>基础分数增加[color=green]5[/color]</t>
   </si>
   <si>
     <t>add</t>
@@ -252,9 +252,6 @@
     <t>res://images/card/card_duizi.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]15%[/color]</t>
-  </si>
-  <si>
     <t>card_shunzi</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>res://images/card/card_shunzi.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]16%[/color]</t>
-  </si>
-  <si>
     <t>card_tongse</t>
   </si>
   <si>
@@ -276,9 +270,6 @@
     <t>res://images/card/card_tongse.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]14%[/color]</t>
-  </si>
-  <si>
     <t>card_tongdui</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>res://images/card/card_tongdui.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]30%[/color]</t>
-  </si>
-  <si>
     <t>card_tongshun</t>
   </si>
   <si>
@@ -300,13 +288,10 @@
     <t>res://images/card/card_tongshun.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]20%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_one_blue.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]2[/color]</t>
+    <t>基础分数增加[color=green]6[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_two_blue.png</t>
@@ -324,43 +309,34 @@
     <t>res://images/card/card_six_blue.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]20%[/color]</t>
+    <t>基础分数增加[color=green]11%[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_none_blue.png</t>
   </si>
   <si>
+    <t>倍率增加[color=green]11%[/color]</t>
+  </si>
+  <si>
     <t>res://images/card/card_duizi_blue.png</t>
   </si>
   <si>
     <t>res://images/card/card_shunzi_blue.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]32%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongse_blue.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]28%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongdui_blue.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]60%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongshun_blue.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]40%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_one_purple.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]3[/color]</t>
+    <t>基础分数增加[color=green]7[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_two_purple.png</t>
@@ -378,43 +354,34 @@
     <t>res://images/card/card_six_purple.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]30%[/color]</t>
+    <t>基础分数增加[color=green]12%[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_none_purple.png</t>
   </si>
   <si>
+    <t>倍率增加[color=green]12%[/color]</t>
+  </si>
+  <si>
     <t>res://images/card/card_duizi_purple.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]45%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_shunzi_purple.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]48%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongse_purple.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]42%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongdui_purple.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]90%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongshun_purple.png</t>
   </si>
   <si>
     <t>res://images/card/card_one_orange.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]4[/color]</t>
+    <t>基础分数增加[color=green]8[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_two_orange.png</t>
@@ -432,37 +399,28 @@
     <t>res://images/card/card_six_orange.png</t>
   </si>
   <si>
-    <t>基础分数增加[color=green]40%[/color]</t>
+    <t>基础分数增加[color=green]13%[/color]</t>
   </si>
   <si>
     <t>res://images/card/card_none_orange.png</t>
   </si>
   <si>
+    <t>倍率增加[color=green]13%[/color]</t>
+  </si>
+  <si>
     <t>res://images/card/card_duizi_orange.png</t>
   </si>
   <si>
     <t>res://images/card/card_shunzi_orange.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]64%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongse_orange.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]56%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongdui_orange.png</t>
   </si>
   <si>
-    <t>倍率增加[color=green]120%[/color]</t>
-  </si>
-  <si>
     <t>res://images/card/card_tongshun_orange.png</t>
-  </si>
-  <si>
-    <t>倍率增加[color=green]80%[/color]</t>
   </si>
   <si>
     <t>一</t>
@@ -2908,8 +2866,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2917,7 +2875,7 @@
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="47.125" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="4" max="4" width="36.7416666666667" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="7.375" customWidth="1"/>
@@ -2986,7 +2944,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="35">
         <v>100</v>
@@ -3009,7 +2967,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="35">
         <v>100</v>
@@ -3032,7 +2990,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="35">
         <v>100</v>
@@ -3055,7 +3013,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="35">
         <v>100</v>
@@ -3078,7 +3036,7 @@
         <v>48</v>
       </c>
       <c r="F7" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="35">
         <v>100</v>
@@ -3101,7 +3059,7 @@
         <v>48</v>
       </c>
       <c r="F8" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="35">
         <v>100</v>
@@ -3124,7 +3082,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="35">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="G9" s="35">
         <v>100</v>
@@ -3147,7 +3105,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="35">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="G10" s="35">
         <v>100</v>
@@ -3170,7 +3128,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="35">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="35">
         <v>100</v>
@@ -3193,7 +3151,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="35">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="G12" s="35">
         <v>100</v>
@@ -3216,7 +3174,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="35">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="35">
         <v>100</v>
@@ -3239,7 +3197,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="35">
-        <v>1.1</v>
+        <v>10</v>
       </c>
       <c r="G14" s="35">
         <v>100</v>
@@ -3259,7 +3217,7 @@
         <v>69</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F15" s="35">
         <v>10</v>
@@ -3279,13 +3237,13 @@
         <v>72</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F16" s="35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G16" s="35">
         <v>100</v>
@@ -3293,22 +3251,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="C17" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>76</v>
-      </c>
       <c r="D17" s="35" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F17" s="35">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G17" s="35">
         <v>100</v>
@@ -3316,22 +3274,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>80</v>
-      </c>
       <c r="D18" s="35" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F18" s="35">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G18" s="35">
         <v>100</v>
@@ -3339,22 +3297,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F19" s="35">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G19" s="35">
         <v>100</v>
@@ -3362,22 +3320,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F20" s="35">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G20" s="35">
         <v>100</v>
@@ -3391,16 +3349,16 @@
         <v>45</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G21" s="36">
         <v>5</v>
@@ -3414,16 +3372,16 @@
         <v>50</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G22" s="36">
         <v>5</v>
@@ -3437,16 +3395,16 @@
         <v>53</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F23" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="36">
         <v>5</v>
@@ -3460,16 +3418,16 @@
         <v>56</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F24" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="36">
         <v>5</v>
@@ -3483,16 +3441,16 @@
         <v>59</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="36">
         <v>5</v>
@@ -3506,16 +3464,16 @@
         <v>62</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" s="36">
         <v>5</v>
@@ -3529,16 +3487,16 @@
         <v>45</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E27" s="36" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="36">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="G27" s="36">
         <v>5</v>
@@ -3552,16 +3510,16 @@
         <v>50</v>
       </c>
       <c r="C28" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>92</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>97</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="36">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="G28" s="36">
         <v>5</v>
@@ -3575,16 +3533,16 @@
         <v>53</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="36">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="G29" s="36">
         <v>5</v>
@@ -3598,16 +3556,16 @@
         <v>56</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="36">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="G30" s="36">
         <v>5</v>
@@ -3621,16 +3579,16 @@
         <v>59</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="36">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="G31" s="36">
         <v>5</v>
@@ -3644,16 +3602,16 @@
         <v>62</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>65</v>
       </c>
       <c r="F32" s="36">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="G32" s="36">
         <v>5</v>
@@ -3667,16 +3625,16 @@
         <v>67</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F33" s="36">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G33" s="36">
         <v>5</v>
@@ -3690,16 +3648,16 @@
         <v>71</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F34" s="36">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G34" s="36">
         <v>5</v>
@@ -3707,22 +3665,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>75</v>
-      </c>
       <c r="C35" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F35" s="36">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G35" s="36">
         <v>5</v>
@@ -3730,22 +3688,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F36" s="36">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G36" s="36">
         <v>5</v>
@@ -3753,22 +3711,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F37" s="36">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G37" s="36">
         <v>5</v>
@@ -3776,22 +3734,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F38" s="36">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G38" s="36">
         <v>5</v>
@@ -3805,16 +3763,16 @@
         <v>45</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E39" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F39" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G39" s="37">
         <v>-15</v>
@@ -3828,16 +3786,16 @@
         <v>50</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E40" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40" s="37">
         <v>-15</v>
@@ -3851,16 +3809,16 @@
         <v>53</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E41" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F41" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G41" s="37">
         <v>-15</v>
@@ -3874,16 +3832,16 @@
         <v>56</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E42" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F42" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G42" s="37">
         <v>-15</v>
@@ -3897,16 +3855,16 @@
         <v>59</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E43" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F43" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G43" s="37">
         <v>-15</v>
@@ -3920,16 +3878,16 @@
         <v>62</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E44" s="37" t="s">
         <v>48</v>
       </c>
       <c r="F44" s="37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G44" s="37">
         <v>-15</v>
@@ -3943,16 +3901,16 @@
         <v>45</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E45" s="37" t="s">
         <v>65</v>
       </c>
       <c r="F45" s="37">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="G45" s="37">
         <v>-15</v>
@@ -3966,16 +3924,16 @@
         <v>50</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>65</v>
       </c>
       <c r="F46" s="37">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="G46" s="37">
         <v>-15</v>
@@ -3989,16 +3947,16 @@
         <v>53</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E47" s="37" t="s">
         <v>65</v>
       </c>
       <c r="F47" s="37">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="G47" s="37">
         <v>-15</v>
@@ -4012,16 +3970,16 @@
         <v>56</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E48" s="37" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="37">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="G48" s="37">
         <v>-15</v>
@@ -4035,16 +3993,16 @@
         <v>59</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E49" s="37" t="s">
         <v>65</v>
       </c>
       <c r="F49" s="37">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="G49" s="37">
         <v>-15</v>
@@ -4058,16 +4016,16 @@
         <v>62</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E50" s="37" t="s">
         <v>65</v>
       </c>
       <c r="F50" s="37">
-        <v>1.3</v>
+        <v>12</v>
       </c>
       <c r="G50" s="37">
         <v>-15</v>
@@ -4081,16 +4039,16 @@
         <v>67</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F51" s="37">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G51" s="37">
         <v>-15</v>
@@ -4104,16 +4062,16 @@
         <v>71</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F52" s="37">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G52" s="37">
         <v>-15</v>
@@ -4121,22 +4079,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="37" t="s">
-        <v>75</v>
-      </c>
       <c r="C53" s="37" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F53" s="37">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G53" s="37">
         <v>-15</v>
@@ -4144,22 +4102,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F54" s="37">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G54" s="37">
         <v>-15</v>
@@ -4167,22 +4125,22 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F55" s="37">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G55" s="37">
         <v>-15</v>
@@ -4190,22 +4148,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F56" s="37">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G56" s="37">
         <v>-15</v>
@@ -4219,16 +4177,16 @@
         <v>45</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E57" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F57" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" s="38">
         <v>-35</v>
@@ -4242,16 +4200,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F58" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G58" s="38">
         <v>-35</v>
@@ -4265,16 +4223,16 @@
         <v>53</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F59" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G59" s="38">
         <v>-35</v>
@@ -4288,16 +4246,16 @@
         <v>56</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D60" s="38" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E60" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F60" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G60" s="38">
         <v>-35</v>
@@ -4311,16 +4269,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D61" s="38" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E61" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F61" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G61" s="38">
         <v>-35</v>
@@ -4334,16 +4292,16 @@
         <v>62</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>48</v>
       </c>
       <c r="F62" s="38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62" s="38">
         <v>-35</v>
@@ -4357,16 +4315,16 @@
         <v>45</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E63" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F63" s="38">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="G63" s="38">
         <v>-35</v>
@@ -4380,16 +4338,16 @@
         <v>50</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E64" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F64" s="38">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="G64" s="38">
         <v>-35</v>
@@ -4403,16 +4361,16 @@
         <v>53</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D65" s="38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F65" s="38">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="G65" s="38">
         <v>-35</v>
@@ -4426,16 +4384,16 @@
         <v>56</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E66" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F66" s="38">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="G66" s="38">
         <v>-35</v>
@@ -4449,16 +4407,16 @@
         <v>59</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D67" s="38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E67" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F67" s="38">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="G67" s="38">
         <v>-35</v>
@@ -4472,16 +4430,16 @@
         <v>62</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E68" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F68" s="38">
-        <v>1.4</v>
+        <v>13</v>
       </c>
       <c r="G68" s="38">
         <v>-35</v>
@@ -4495,16 +4453,16 @@
         <v>67</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D69" s="38" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F69" s="38">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G69" s="38">
         <v>-35</v>
@@ -4518,16 +4476,16 @@
         <v>71</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F70" s="38">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G70" s="38">
         <v>-35</v>
@@ -4535,22 +4493,22 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="38" t="s">
-        <v>75</v>
-      </c>
       <c r="C71" s="38" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D71" s="38" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F71" s="38">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="G71" s="38">
         <v>-35</v>
@@ -4558,22 +4516,22 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F72" s="38">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G72" s="38">
         <v>-35</v>
@@ -4581,22 +4539,22 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F73" s="38">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G73" s="38">
         <v>-35</v>
@@ -4604,22 +4562,22 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F74" s="38">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G74" s="38">
         <v>-35</v>
@@ -4637,7 +4595,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A6" sqref="A6:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4655,22 +4613,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s">
         <v>67</v>
@@ -4679,16 +4637,16 @@
         <v>71</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4717,54 +4675,54 @@
         <v>70</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K2" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4779,7 +4737,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4791,24 +4749,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4816,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4827,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4838,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4849,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4860,7 +4818,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4871,7 +4829,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4882,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>700</v>
+        <v>2250</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4893,7 +4851,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>800</v>
+        <v>3375</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4904,7 +4862,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -4915,7 +4873,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>11250</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4926,7 +4884,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1100</v>
+        <v>16875</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4937,7 +4895,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1200</v>
+        <v>25000</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -4962,73 +4920,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="R1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="W1" s="14" t="s">
         <v>176</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -5037,168 +4995,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="R2" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="W2" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="Y2" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="Z2" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="AA2" s="33" t="s">
         <v>202</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z2" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -5206,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -5262,16 +5220,16 @@
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
       <c r="X4" s="39" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5279,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -5335,16 +5293,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5352,7 +5310,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -5408,16 +5366,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5425,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -5481,16 +5439,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5498,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5554,16 +5512,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5571,7 +5529,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5627,16 +5585,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5644,7 +5602,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5700,16 +5658,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5717,7 +5675,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5773,16 +5731,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5790,7 +5748,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5846,16 +5804,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5863,7 +5821,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -5919,16 +5877,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5936,7 +5894,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -5992,16 +5950,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -6009,7 +5967,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -6065,16 +6023,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6082,7 +6040,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -6138,16 +6096,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -6155,7 +6113,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -6211,16 +6169,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6228,7 +6186,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -6284,16 +6242,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -6301,7 +6259,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -6357,16 +6315,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6374,7 +6332,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -6430,16 +6388,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6447,7 +6405,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -6503,16 +6461,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6520,7 +6478,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6576,16 +6534,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6593,7 +6551,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6649,16 +6607,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6666,7 +6624,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6722,16 +6680,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6739,7 +6697,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6795,16 +6753,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6812,7 +6770,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6868,16 +6826,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6885,7 +6843,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -6941,16 +6899,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6958,7 +6916,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -7014,16 +6972,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -7031,7 +6989,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -7087,16 +7045,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -7104,7 +7062,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -7160,16 +7118,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -7177,7 +7135,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -7233,16 +7191,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7250,7 +7208,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -7306,16 +7264,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7323,7 +7281,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -7379,16 +7337,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7396,7 +7354,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -7452,16 +7410,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7469,7 +7427,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -7525,16 +7483,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7542,7 +7500,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7598,16 +7556,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7615,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7671,16 +7629,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7688,7 +7646,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7744,16 +7702,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7761,7 +7719,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7817,16 +7775,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7834,7 +7792,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7890,16 +7848,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7907,7 +7865,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7963,16 +7921,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -2866,8 +2866,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64:F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3082,7 +3082,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G9" s="35">
         <v>100</v>
@@ -3105,7 +3105,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G10" s="35">
         <v>100</v>
@@ -3128,7 +3128,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G11" s="35">
         <v>100</v>
@@ -3151,7 +3151,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G12" s="35">
         <v>100</v>
@@ -3174,7 +3174,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G13" s="35">
         <v>100</v>
@@ -3197,7 +3197,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G14" s="35">
         <v>100</v>
@@ -3220,7 +3220,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G15" s="35">
         <v>100</v>
@@ -3243,7 +3243,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G16" s="35">
         <v>100</v>
@@ -3266,7 +3266,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G17" s="35">
         <v>100</v>
@@ -3289,7 +3289,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G18" s="35">
         <v>100</v>
@@ -3312,7 +3312,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G19" s="35">
         <v>100</v>
@@ -3335,7 +3335,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="35">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="G20" s="35">
         <v>100</v>
@@ -3496,7 +3496,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G27" s="36">
         <v>5</v>
@@ -3519,7 +3519,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G28" s="36">
         <v>5</v>
@@ -3542,7 +3542,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G29" s="36">
         <v>5</v>
@@ -3565,7 +3565,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G30" s="36">
         <v>5</v>
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G31" s="36">
         <v>5</v>
@@ -3611,7 +3611,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G32" s="36">
         <v>5</v>
@@ -3634,7 +3634,7 @@
         <v>65</v>
       </c>
       <c r="F33" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G33" s="36">
         <v>5</v>
@@ -3657,7 +3657,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G34" s="36">
         <v>5</v>
@@ -3680,7 +3680,7 @@
         <v>65</v>
       </c>
       <c r="F35" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G35" s="36">
         <v>5</v>
@@ -3703,7 +3703,7 @@
         <v>65</v>
       </c>
       <c r="F36" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G36" s="36">
         <v>5</v>
@@ -3726,7 +3726,7 @@
         <v>65</v>
       </c>
       <c r="F37" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G37" s="36">
         <v>5</v>
@@ -3749,7 +3749,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="36">
-        <v>11</v>
+        <v>1.11</v>
       </c>
       <c r="G38" s="36">
         <v>5</v>
@@ -3910,7 +3910,7 @@
         <v>65</v>
       </c>
       <c r="F45" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G45" s="37">
         <v>-15</v>
@@ -3933,7 +3933,7 @@
         <v>65</v>
       </c>
       <c r="F46" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G46" s="37">
         <v>-15</v>
@@ -3956,7 +3956,7 @@
         <v>65</v>
       </c>
       <c r="F47" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G47" s="37">
         <v>-15</v>
@@ -3979,7 +3979,7 @@
         <v>65</v>
       </c>
       <c r="F48" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G48" s="37">
         <v>-15</v>
@@ -4002,7 +4002,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G49" s="37">
         <v>-15</v>
@@ -4025,7 +4025,7 @@
         <v>65</v>
       </c>
       <c r="F50" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G50" s="37">
         <v>-15</v>
@@ -4048,7 +4048,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G51" s="37">
         <v>-15</v>
@@ -4071,7 +4071,7 @@
         <v>65</v>
       </c>
       <c r="F52" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G52" s="37">
         <v>-15</v>
@@ -4094,7 +4094,7 @@
         <v>65</v>
       </c>
       <c r="F53" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G53" s="37">
         <v>-15</v>
@@ -4117,7 +4117,7 @@
         <v>65</v>
       </c>
       <c r="F54" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G54" s="37">
         <v>-15</v>
@@ -4140,7 +4140,7 @@
         <v>65</v>
       </c>
       <c r="F55" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G55" s="37">
         <v>-15</v>
@@ -4163,7 +4163,7 @@
         <v>65</v>
       </c>
       <c r="F56" s="37">
-        <v>12</v>
+        <v>1.12</v>
       </c>
       <c r="G56" s="37">
         <v>-15</v>
@@ -4324,7 +4324,7 @@
         <v>65</v>
       </c>
       <c r="F63" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G63" s="38">
         <v>-35</v>
@@ -4347,7 +4347,7 @@
         <v>65</v>
       </c>
       <c r="F64" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G64" s="38">
         <v>-35</v>
@@ -4370,7 +4370,7 @@
         <v>65</v>
       </c>
       <c r="F65" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G65" s="38">
         <v>-35</v>
@@ -4393,7 +4393,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G66" s="38">
         <v>-35</v>
@@ -4416,7 +4416,7 @@
         <v>65</v>
       </c>
       <c r="F67" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G67" s="38">
         <v>-35</v>
@@ -4439,7 +4439,7 @@
         <v>65</v>
       </c>
       <c r="F68" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G68" s="38">
         <v>-35</v>
@@ -4462,7 +4462,7 @@
         <v>65</v>
       </c>
       <c r="F69" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G69" s="38">
         <v>-35</v>
@@ -4485,7 +4485,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G70" s="38">
         <v>-35</v>
@@ -4508,7 +4508,7 @@
         <v>65</v>
       </c>
       <c r="F71" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G71" s="38">
         <v>-35</v>
@@ -4531,7 +4531,7 @@
         <v>65</v>
       </c>
       <c r="F72" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G72" s="38">
         <v>-35</v>
@@ -4554,7 +4554,7 @@
         <v>65</v>
       </c>
       <c r="F73" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G73" s="38">
         <v>-35</v>
@@ -4577,7 +4577,7 @@
         <v>65</v>
       </c>
       <c r="F74" s="38">
-        <v>13</v>
+        <v>1.13</v>
       </c>
       <c r="G74" s="38">
         <v>-35</v>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
     <sheet name="card_level_up" sheetId="36" r:id="rId2"/>
-    <sheet name="card_hash" sheetId="37" r:id="rId3"/>
+    <sheet name="coin_skill" sheetId="37" r:id="rId3"/>
     <sheet name="stage_info" sheetId="38" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId5"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="379">
   <si>
     <t>流程：</t>
   </si>
@@ -423,58 +423,67 @@
     <t>res://images/card/card_tongshun_orange.png</t>
   </si>
   <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>Current.one_score</t>
-  </si>
-  <si>
-    <t>Current.two_score</t>
-  </si>
-  <si>
-    <t>Current.three_score</t>
-  </si>
-  <si>
-    <t>Current.four_score</t>
-  </si>
-  <si>
-    <t>Current.five_score</t>
-  </si>
-  <si>
-    <t>Current.six_score</t>
-  </si>
-  <si>
-    <t>Current.none_percent</t>
-  </si>
-  <si>
-    <t>Current.duizi_percent</t>
-  </si>
-  <si>
-    <t>Current.shunzi_percent</t>
-  </si>
-  <si>
-    <t>Current.tongse_percent</t>
-  </si>
-  <si>
-    <t>Current.tongdui_percent</t>
-  </si>
-  <si>
-    <t>Current.tongshun_percent</t>
+    <t>金币技能id</t>
+  </si>
+  <si>
+    <t>金币技能名称</t>
+  </si>
+  <si>
+    <t>金币技能图标</t>
+  </si>
+  <si>
+    <t>金币技能描述</t>
+  </si>
+  <si>
+    <t>金币技能费用</t>
+  </si>
+  <si>
+    <t>coin_skill_id</t>
+  </si>
+  <si>
+    <t>coin_skill_name</t>
+  </si>
+  <si>
+    <t>coin_skill_icon</t>
+  </si>
+  <si>
+    <t>coin_skill_cost</t>
+  </si>
+  <si>
+    <t>reroll_all</t>
+  </si>
+  <si>
+    <t>重掷所有</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/reroll_all.png</t>
+  </si>
+  <si>
+    <t>重掷全场所有史莱姆的点数和颜色</t>
+  </si>
+  <si>
+    <t>reroll_dice</t>
+  </si>
+  <si>
+    <t>重掷骰子</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/reroll_dice.png</t>
+  </si>
+  <si>
+    <t>重掷所选史莱姆的点数</t>
+  </si>
+  <si>
+    <t>reroll_color</t>
+  </si>
+  <si>
+    <t>重掷颜色</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/reroll_slime.png</t>
+  </si>
+  <si>
+    <t>重掷所选史莱姆的颜色</t>
   </si>
   <si>
     <t>关卡序号</t>
@@ -2866,8 +2875,8 @@
   <sheetPr/>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64:F74"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4592,17 +4601,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="5" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="23.75" customWidth="1"/>
@@ -4611,7 +4622,7 @@
     <col min="12" max="12" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -4627,102 +4638,78 @@
       <c r="E1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" t="s">
         <v>142</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>143</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="J3" t="s">
+      <c r="C4" t="s">
         <v>145</v>
       </c>
-      <c r="K3" t="s">
+      <c r="D4" t="s">
         <v>146</v>
       </c>
-      <c r="L3" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4749,24 +4736,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4920,73 +4907,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -4995,168 +4982,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="X2" s="18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -5164,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -5220,16 +5207,16 @@
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
       <c r="X4" s="39" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5237,7 +5224,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -5293,16 +5280,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5310,7 +5297,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -5366,16 +5353,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5383,7 +5370,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -5439,16 +5426,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5456,7 +5443,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5512,16 +5499,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5529,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5585,16 +5572,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5602,7 +5589,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5658,16 +5645,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5675,7 +5662,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5731,16 +5718,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5748,7 +5735,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5804,16 +5791,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5821,7 +5808,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -5877,16 +5864,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5894,7 +5881,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -5950,16 +5937,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -5967,7 +5954,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -6023,16 +6010,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6040,7 +6027,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -6096,16 +6083,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -6113,7 +6100,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -6169,16 +6156,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6186,7 +6173,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -6242,16 +6229,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -6259,7 +6246,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -6315,16 +6302,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6332,7 +6319,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -6388,16 +6375,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6405,7 +6392,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -6461,16 +6448,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6478,7 +6465,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6534,16 +6521,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6551,7 +6538,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6607,16 +6594,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6624,7 +6611,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6680,16 +6667,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6697,7 +6684,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6753,16 +6740,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6770,7 +6757,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6826,16 +6813,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6843,7 +6830,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -6899,16 +6886,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6916,7 +6903,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -6972,16 +6959,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -6989,7 +6976,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -7045,16 +7032,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -7062,7 +7049,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -7118,16 +7105,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -7135,7 +7122,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -7191,16 +7178,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7208,7 +7195,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -7264,16 +7251,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7281,7 +7268,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -7337,16 +7324,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7354,7 +7341,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -7410,16 +7397,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7427,7 +7414,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -7483,16 +7470,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7500,7 +7487,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7556,16 +7543,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7573,7 +7560,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7629,16 +7616,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7646,7 +7633,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7702,16 +7689,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7719,7 +7706,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7775,16 +7762,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7792,7 +7779,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7848,16 +7835,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7865,7 +7852,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7921,16 +7908,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4601,13 +4601,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
@@ -4639,7 +4639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -4655,11 +4655,6 @@
       <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="400">
   <si>
     <t>流程：</t>
   </si>
@@ -459,7 +459,7 @@
     <t>res://images/coin_skill_icon/reroll_all.png</t>
   </si>
   <si>
-    <t>重掷全场所有史莱姆的点数和颜色</t>
+    <t>重掷全场所有史莱姆</t>
   </si>
   <si>
     <t>reroll_dice</t>
@@ -484,6 +484,69 @@
   </si>
   <si>
     <t>重掷所选史莱姆的颜色</t>
+  </si>
+  <si>
+    <t>add_power</t>
+  </si>
+  <si>
+    <t>能量+1</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/add_power.png</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>吹风</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/cloud.png</t>
+  </si>
+  <si>
+    <t>所有史莱姆被吹向一个所选的方向一格</t>
+  </si>
+  <si>
+    <t>dice_add_1</t>
+  </si>
+  <si>
+    <t>骰子点数+1</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/dice+1.png</t>
+  </si>
+  <si>
+    <t>dice_sub_1</t>
+  </si>
+  <si>
+    <t>骰子点数-1</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/dice-1.png</t>
+  </si>
+  <si>
+    <t>double_score</t>
+  </si>
+  <si>
+    <t>得分翻倍</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/double_score.png</t>
+  </si>
+  <si>
+    <t>下一次得分翻倍</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>res://images/coin_skill_icon/move.png</t>
+  </si>
+  <si>
+    <t>额外移动一次</t>
   </si>
   <si>
     <t>关卡序号</t>
@@ -4601,18 +4664,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
@@ -4705,6 +4768,108 @@
       </c>
       <c r="E5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4731,24 +4896,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4902,73 +5067,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -4977,168 +5142,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -5146,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -5202,16 +5367,16 @@
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
       <c r="X4" s="39" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5219,7 +5384,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -5275,16 +5440,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5292,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -5348,16 +5513,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5365,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -5421,16 +5586,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5438,7 +5603,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5494,16 +5659,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5511,7 +5676,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5567,16 +5732,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5584,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5640,16 +5805,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5657,7 +5822,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5713,16 +5878,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5730,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5786,16 +5951,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5803,7 +5968,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -5859,16 +6024,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -5876,7 +6041,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -5932,16 +6097,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -5949,7 +6114,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -6005,16 +6170,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6022,7 +6187,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -6078,16 +6243,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -6095,7 +6260,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -6151,16 +6316,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6168,7 +6333,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -6224,16 +6389,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -6241,7 +6406,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -6297,16 +6462,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6314,7 +6479,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -6370,16 +6535,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6387,7 +6552,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -6443,16 +6608,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6460,7 +6625,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6516,16 +6681,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6533,7 +6698,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6589,16 +6754,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6606,7 +6771,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6662,16 +6827,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6679,7 +6844,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6735,16 +6900,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6752,7 +6917,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6808,16 +6973,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6825,7 +6990,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -6881,16 +7046,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -6898,7 +7063,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -6954,16 +7119,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -6971,7 +7136,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -7027,16 +7192,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -7044,7 +7209,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -7100,16 +7265,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -7117,7 +7282,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -7173,16 +7338,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7190,7 +7355,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -7246,16 +7411,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7263,7 +7428,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -7319,16 +7484,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7336,7 +7501,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -7392,16 +7557,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7409,7 +7574,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -7465,16 +7630,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7482,7 +7647,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7538,16 +7703,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7555,7 +7720,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7611,16 +7776,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7628,7 +7793,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7684,16 +7849,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7701,7 +7866,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7757,16 +7922,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7774,7 +7939,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7830,16 +7995,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -7847,7 +8012,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -7903,16 +8068,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="405">
   <si>
     <t>流程：</t>
   </si>
@@ -558,6 +558,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>奖励金币</t>
+  </si>
+  <si>
     <t>stage_num</t>
   </si>
   <si>
@@ -565,6 +568,18 @@
   </si>
   <si>
     <t>stage_type</t>
+  </si>
+  <si>
+    <t>reward_coin</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>精英</t>
+  </si>
+  <si>
+    <t>BOSS</t>
   </si>
   <si>
     <t>ID</t>
@@ -2317,7 +2332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2422,6 +2437,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -3000,1658 +3018,1658 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="36">
         <v>5</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="36">
         <v>5</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="36">
         <v>5</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <v>5</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="36">
         <v>5</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="36">
         <v>5</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="36">
         <v>1.1</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="36">
         <v>1.1</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="36">
         <v>1.1</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="36">
         <v>1.1</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="36">
         <v>1.1</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="36">
         <v>1.1</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="36">
         <v>1.1</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="36">
         <v>1.1</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="36">
         <v>1.1</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="36">
         <v>1.1</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="36">
         <v>1.1</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="36">
         <v>1.1</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="37">
         <v>6</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="37">
         <v>6</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="37">
         <v>6</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="37">
         <v>6</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="37">
         <v>6</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="37">
         <v>6</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="37">
         <v>1.11</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="37">
         <v>1.11</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="37">
         <v>1.11</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="37">
         <v>1.11</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="37">
         <v>1.11</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="37">
         <v>1.11</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="37">
         <v>1.11</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="37">
         <v>1.11</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="37">
         <v>1.11</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="37">
         <v>1.11</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="37">
         <v>1.11</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="37">
         <v>1.11</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="38">
         <v>7</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="38">
         <v>7</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="38">
         <v>7</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="38">
         <v>7</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="38">
         <v>7</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="38">
         <v>7</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="38">
         <v>1.12</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="38">
         <v>1.12</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="38">
         <v>1.12</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="38">
         <v>1.12</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="38">
         <v>1.12</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="38">
         <v>1.12</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="38">
         <v>1.12</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="37" t="s">
+      <c r="D52" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="38">
         <v>1.12</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="38">
         <v>1.12</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="D54" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="38">
         <v>1.12</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="38">
         <v>1.12</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F56" s="37">
+      <c r="F56" s="38">
         <v>1.12</v>
       </c>
-      <c r="G56" s="37">
+      <c r="G56" s="38">
         <v>-15</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="39">
         <v>8</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D58" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="39">
         <v>8</v>
       </c>
-      <c r="G58" s="38">
+      <c r="G58" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="38" t="s">
+      <c r="D59" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="39">
         <v>8</v>
       </c>
-      <c r="G59" s="38">
+      <c r="G59" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="38">
+      <c r="F60" s="39">
         <v>8</v>
       </c>
-      <c r="G60" s="38">
+      <c r="G60" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="39">
         <v>8</v>
       </c>
-      <c r="G61" s="38">
+      <c r="G61" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="39">
         <v>8</v>
       </c>
-      <c r="G62" s="38">
+      <c r="G62" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="38" t="s">
+      <c r="A63" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="B63" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="39">
         <v>1.13</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="38" t="s">
+      <c r="A64" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E64" s="38" t="s">
+      <c r="E64" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="39">
         <v>1.13</v>
       </c>
-      <c r="G64" s="38">
+      <c r="G64" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="38" t="s">
+      <c r="E65" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="39">
         <v>1.13</v>
       </c>
-      <c r="G65" s="38">
+      <c r="G65" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D66" s="38" t="s">
+      <c r="D66" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E66" s="38" t="s">
+      <c r="E66" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66" s="39">
         <v>1.13</v>
       </c>
-      <c r="G66" s="38">
+      <c r="G66" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="38" t="s">
+      <c r="A67" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="39">
         <v>1.13</v>
       </c>
-      <c r="G67" s="38">
+      <c r="G67" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="38" t="s">
+      <c r="E68" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="39">
         <v>1.13</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69" s="39">
         <v>1.13</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D70" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F70" s="38">
+      <c r="F70" s="39">
         <v>1.13</v>
       </c>
-      <c r="G70" s="38">
+      <c r="G70" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="38" t="s">
+      <c r="A71" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="39">
         <v>1.13</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="39">
         <v>1.13</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="38" t="s">
+      <c r="A73" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="39">
         <v>1.13</v>
       </c>
-      <c r="G73" s="38">
+      <c r="G73" s="39">
         <v>-35</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="39">
         <v>1.13</v>
       </c>
-      <c r="G74" s="38">
+      <c r="G74" s="39">
         <v>-35</v>
       </c>
     </row>
@@ -4666,7 +4684,7 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4881,20 +4899,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -4904,148 +4923,190 @@
       <c r="C1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>300</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>450</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>675</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1000</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>1500</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2250</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>3375</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>5000</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>11250</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>16875</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>25000</v>
       </c>
-      <c r="C14">
-        <v>3</v>
+      <c r="C14" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5067,73 +5128,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -5142,168 +5203,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>217</v>
-      </c>
       <c r="X2" s="18" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -5311,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -5366,17 +5427,17 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
-      <c r="X4" s="39" t="s">
-        <v>230</v>
+      <c r="X4" s="40" t="s">
+        <v>235</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5384,7 +5445,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -5440,16 +5501,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5457,7 +5518,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -5513,16 +5574,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5530,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -5586,16 +5647,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5603,7 +5664,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5659,16 +5720,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5676,7 +5737,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5732,16 +5793,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5749,7 +5810,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5805,16 +5866,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5822,7 +5883,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5878,16 +5939,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5895,7 +5956,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -5951,16 +6012,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -5968,7 +6029,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -6024,16 +6085,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -6041,7 +6102,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -6097,16 +6158,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -6114,7 +6175,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -6170,16 +6231,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6187,7 +6248,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -6243,16 +6304,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -6260,7 +6321,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -6316,16 +6377,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6333,7 +6394,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -6389,16 +6450,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -6406,7 +6467,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -6462,16 +6523,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6479,7 +6540,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -6535,16 +6596,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6552,7 +6613,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -6608,16 +6669,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6625,7 +6686,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6681,16 +6742,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6698,7 +6759,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6754,16 +6815,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6771,7 +6832,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6827,16 +6888,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6844,7 +6905,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6900,16 +6961,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6917,7 +6978,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -6973,16 +7034,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -6990,7 +7051,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -7046,16 +7107,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -7063,7 +7124,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -7119,16 +7180,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -7136,7 +7197,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -7192,16 +7253,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -7209,7 +7270,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -7265,16 +7326,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -7282,7 +7343,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -7338,16 +7399,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7355,7 +7416,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -7411,16 +7472,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7428,7 +7489,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -7484,16 +7545,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7501,7 +7562,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -7557,16 +7618,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7574,7 +7635,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -7630,16 +7691,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7647,7 +7708,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7703,16 +7764,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7720,7 +7781,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7776,16 +7837,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7793,7 +7854,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7849,16 +7910,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7866,7 +7927,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7922,16 +7983,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -7939,7 +8000,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -7995,16 +8056,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -8012,7 +8073,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -8068,16 +8129,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
     <sheet name="card_level_up" sheetId="36" r:id="rId2"/>
     <sheet name="coin_skill" sheetId="37" r:id="rId3"/>
     <sheet name="stage_info" sheetId="38" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId5"/>
+    <sheet name="debuff" sheetId="39" r:id="rId5"/>
+    <sheet name="boss_debuff" sheetId="40" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="529">
   <si>
     <t>流程：</t>
   </si>
@@ -432,7 +434,7 @@
     <t>金币技能图标</t>
   </si>
   <si>
-    <t>金币技能描述</t>
+    <t>金币技能提示信息</t>
   </si>
   <si>
     <t>金币技能费用</t>
@@ -447,6 +449,9 @@
     <t>coin_skill_icon</t>
   </si>
   <si>
+    <t>card_tooltip</t>
+  </si>
+  <si>
     <t>coin_skill_cost</t>
   </si>
   <si>
@@ -580,6 +585,375 @@
   </si>
   <si>
     <t>BOSS</t>
+  </si>
+  <si>
+    <t>诅咒id</t>
+  </si>
+  <si>
+    <t>诅咒名称</t>
+  </si>
+  <si>
+    <t>诅咒图标</t>
+  </si>
+  <si>
+    <t>诅咒描述</t>
+  </si>
+  <si>
+    <t>诅咒资源</t>
+  </si>
+  <si>
+    <t>debuff_id</t>
+  </si>
+  <si>
+    <t>debuff_name</t>
+  </si>
+  <si>
+    <t>debuff_icon</t>
+  </si>
+  <si>
+    <t>debuff_tooltip</t>
+  </si>
+  <si>
+    <t>debuff_res</t>
+  </si>
+  <si>
+    <t>disable_one</t>
+  </si>
+  <si>
+    <t>禁用一点</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_one.png</t>
+  </si>
+  <si>
+    <t>1点的基础分数变为0</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_one_buff.gd</t>
+  </si>
+  <si>
+    <t>disable_two</t>
+  </si>
+  <si>
+    <t>禁用二点</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_two.png</t>
+  </si>
+  <si>
+    <t>2点的基础分数变为0</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_two.gd</t>
+  </si>
+  <si>
+    <t>disable_three</t>
+  </si>
+  <si>
+    <t>禁用三点</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_three.png</t>
+  </si>
+  <si>
+    <t>3点的基础分数变为0</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_three.gd</t>
+  </si>
+  <si>
+    <t>disable_four</t>
+  </si>
+  <si>
+    <t>禁用四点</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_four.png</t>
+  </si>
+  <si>
+    <t>4点的基础分数变为0</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_four.gd</t>
+  </si>
+  <si>
+    <t>disable_five</t>
+  </si>
+  <si>
+    <t>禁用五点</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_five.png</t>
+  </si>
+  <si>
+    <t>5点的基础分数变为0</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_five.gd</t>
+  </si>
+  <si>
+    <t>disable_six</t>
+  </si>
+  <si>
+    <t>禁用六点</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_six.png</t>
+  </si>
+  <si>
+    <t>6点的基础分数变为0</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_six.gd</t>
+  </si>
+  <si>
+    <t>disable_none</t>
+  </si>
+  <si>
+    <t>禁用无骰型</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_none.png</t>
+  </si>
+  <si>
+    <t>无骰型的倍率变为0%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_none.gd</t>
+  </si>
+  <si>
+    <t>disable_duizi</t>
+  </si>
+  <si>
+    <t>禁用对子骰型</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_duizi.png</t>
+  </si>
+  <si>
+    <t>对子骰型的倍率变为0%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_duizi.gd</t>
+  </si>
+  <si>
+    <t>disable_shunzi</t>
+  </si>
+  <si>
+    <t>禁用顺子骰型</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_shunzi.png</t>
+  </si>
+  <si>
+    <t>顺子骰型的倍率变为0%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_shunzi.gd</t>
+  </si>
+  <si>
+    <t>disable_tongse</t>
+  </si>
+  <si>
+    <t>禁用同色骰型</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_tongse.png</t>
+  </si>
+  <si>
+    <t>同色骰型的倍率变为0%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_tongse.gd</t>
+  </si>
+  <si>
+    <t>disable_tongdui</t>
+  </si>
+  <si>
+    <t>禁用同对骰型</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_tongdui.png</t>
+  </si>
+  <si>
+    <t>同对骰型的倍率变为0%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_tongdui.gd</t>
+  </si>
+  <si>
+    <t>disable_tongshun</t>
+  </si>
+  <si>
+    <t>禁用同顺骰型</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/disable_tongshun.png</t>
+  </si>
+  <si>
+    <t>同顺骰型的倍率变为0%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/disable_tongshun.gd</t>
+  </si>
+  <si>
+    <t>target_score_up</t>
+  </si>
+  <si>
+    <t>目标分数上升</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/target_score_up.png</t>
+  </si>
+  <si>
+    <t>回合结束时目标分数每回合+1%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/target_score_up.gd</t>
+  </si>
+  <si>
+    <t>current_score_down</t>
+  </si>
+  <si>
+    <t>当前分数下降</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/current_score_down.png</t>
+  </si>
+  <si>
+    <t>回合结束时当前分数-5%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/current_score_down.gd</t>
+  </si>
+  <si>
+    <t>move_current_score_down</t>
+  </si>
+  <si>
+    <t>移动下降分数</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/move_current_score_down.png</t>
+  </si>
+  <si>
+    <t>每移动一格当前分数-2%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/move_current_score_down.gd</t>
+  </si>
+  <si>
+    <t>move_down</t>
+  </si>
+  <si>
+    <t>移动力下降</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/move_down.png</t>
+  </si>
+  <si>
+    <t>移动力-1</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/move_down.gd</t>
+  </si>
+  <si>
+    <t>no_power_slime</t>
+  </si>
+  <si>
+    <t>无能量史莱姆</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/no_power_slime.png</t>
+  </si>
+  <si>
+    <t>不生成能量史莱姆</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/no_power_slime.gd</t>
+  </si>
+  <si>
+    <t>power_current_score_down</t>
+  </si>
+  <si>
+    <t>使用能量扣分</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/power_current_score_down.png</t>
+  </si>
+  <si>
+    <t>使用能量时当前分数-10%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/power_current_score_down.gd</t>
+  </si>
+  <si>
+    <t>reroll_slime</t>
+  </si>
+  <si>
+    <t>重掷史莱姆</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/reroll_slime.png</t>
+  </si>
+  <si>
+    <t>每回合都会重掷所有史莱姆</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/reroll_slime.gd</t>
+  </si>
+  <si>
+    <t>slime_current_score_down</t>
+  </si>
+  <si>
+    <t>史莱姆下降分数</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/slime_current_score_down.png</t>
+  </si>
+  <si>
+    <t>每有一个史莱姆当前分数-1</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/slime_current_score_down.gd</t>
+  </si>
+  <si>
+    <t>slime_move</t>
+  </si>
+  <si>
+    <t>史莱姆移动</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/slime_move.png</t>
+  </si>
+  <si>
+    <t>每个回合史莱姆都会移动一格</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/slime_move.gd</t>
+  </si>
+  <si>
+    <t>BOSS诅咒id</t>
+  </si>
+  <si>
+    <t>BOSS诅咒名称</t>
+  </si>
+  <si>
+    <t>BOSS诅咒图标</t>
+  </si>
+  <si>
+    <t>BOSS诅咒描述</t>
+  </si>
+  <si>
+    <t>attack_score_down</t>
+  </si>
+  <si>
+    <t>攻击得分下降</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/attack_score_down.png</t>
+  </si>
+  <si>
+    <t>每次攻击的得分-20%</t>
   </si>
   <si>
     <t>ID</t>
@@ -4685,7 +5059,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4731,24 +5105,24 @@
         <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4756,16 +5130,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4773,16 +5147,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4790,16 +5164,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
         <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>152</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4807,16 +5181,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4824,16 +5198,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
         <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>159</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4841,16 +5215,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
         <v>163</v>
-      </c>
-      <c r="D9" t="s">
-        <v>162</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4858,16 +5232,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -4875,16 +5249,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4901,7 +5275,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
@@ -4915,30 +5289,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4949,7 +5323,7 @@
         <v>200</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -4963,7 +5337,7 @@
         <v>300</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -4977,7 +5351,7 @@
         <v>450</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -4991,7 +5365,7 @@
         <v>675</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -5005,7 +5379,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -5019,7 +5393,7 @@
         <v>1500</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -5033,7 +5407,7 @@
         <v>2250</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -5047,7 +5421,7 @@
         <v>3375</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -5061,7 +5435,7 @@
         <v>5000</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -5075,7 +5449,7 @@
         <v>11250</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -5089,7 +5463,7 @@
         <v>16875</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -5103,7 +5477,7 @@
         <v>25000</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -5116,6 +5490,486 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="57.125" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA41"/>
@@ -5128,73 +5982,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>193</v>
+        <v>317</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>197</v>
+        <v>321</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>200</v>
+        <v>324</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>203</v>
+        <v>327</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>205</v>
+        <v>329</v>
       </c>
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
@@ -5203,168 +6057,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="3" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>334</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>227</v>
+        <v>351</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>228</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="32" t="s">
-        <v>230</v>
+        <v>354</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>231</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="X3" s="21" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -5372,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>234</v>
+        <v>358</v>
       </c>
       <c r="C4" s="8">
         <v>10</v>
@@ -5428,16 +6282,16 @@
       <c r="V4" s="8"/>
       <c r="W4" s="23"/>
       <c r="X4" s="40" t="s">
-        <v>235</v>
+        <v>359</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>237</v>
+        <v>361</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -5445,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="C5" s="10">
         <v>10</v>
@@ -5501,16 +6355,16 @@
       <c r="V5" s="10"/>
       <c r="W5" s="26"/>
       <c r="X5" s="27" t="s">
-        <v>240</v>
+        <v>364</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
       <c r="AA5" s="26" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -5518,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>242</v>
+        <v>366</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -5574,16 +6428,16 @@
       <c r="V6" s="10"/>
       <c r="W6" s="26"/>
       <c r="X6" s="27" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="AA6" s="26" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -5591,7 +6445,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
@@ -5647,16 +6501,16 @@
       <c r="V7" s="10"/>
       <c r="W7" s="26"/>
       <c r="X7" s="27" t="s">
-        <v>247</v>
+        <v>371</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
       <c r="AA7" s="26" t="s">
-        <v>249</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -5664,7 +6518,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="C8" s="10">
         <v>10</v>
@@ -5720,16 +6574,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="26"/>
       <c r="X8" s="27" t="s">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="AA8" s="26" t="s">
-        <v>253</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -5737,7 +6591,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -5793,16 +6647,16 @@
       <c r="V9" s="10"/>
       <c r="W9" s="26"/>
       <c r="X9" s="27" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>256</v>
+        <v>380</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
       <c r="AA9" s="26" t="s">
-        <v>258</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -5810,7 +6664,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="C10" s="10">
         <v>10</v>
@@ -5866,16 +6720,16 @@
       <c r="V10" s="10"/>
       <c r="W10" s="26"/>
       <c r="X10" s="27" t="s">
-        <v>260</v>
+        <v>384</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="AA10" s="26" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -5883,7 +6737,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
       <c r="C11" s="10">
         <v>10</v>
@@ -5939,16 +6793,16 @@
       <c r="V11" s="10"/>
       <c r="W11" s="26"/>
       <c r="X11" s="27" t="s">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>267</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -5956,7 +6810,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>268</v>
+        <v>392</v>
       </c>
       <c r="C12" s="10">
         <v>10</v>
@@ -6012,16 +6866,16 @@
       <c r="V12" s="10"/>
       <c r="W12" s="26"/>
       <c r="X12" s="27" t="s">
-        <v>269</v>
+        <v>393</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>270</v>
+        <v>394</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>271</v>
+        <v>395</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -6029,7 +6883,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="C13" s="10">
         <v>10</v>
@@ -6085,16 +6939,16 @@
       <c r="V13" s="10"/>
       <c r="W13" s="26"/>
       <c r="X13" s="27" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="Y13" s="10" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
       <c r="AA13" s="26" t="s">
-        <v>276</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -6102,7 +6956,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
       <c r="C14" s="10">
         <v>10</v>
@@ -6158,16 +7012,16 @@
       <c r="V14" s="10"/>
       <c r="W14" s="26"/>
       <c r="X14" s="27" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>279</v>
+        <v>403</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -6175,7 +7029,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="C15" s="10">
         <v>10</v>
@@ -6231,16 +7085,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="26"/>
       <c r="X15" s="27" t="s">
-        <v>283</v>
+        <v>407</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>284</v>
+        <v>408</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>285</v>
+        <v>409</v>
       </c>
       <c r="AA15" s="26" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -6248,7 +7102,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>286</v>
+        <v>410</v>
       </c>
       <c r="C16" s="10">
         <v>10</v>
@@ -6304,16 +7158,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="26"/>
       <c r="X16" s="27" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>288</v>
+        <v>412</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>289</v>
+        <v>413</v>
       </c>
       <c r="AA16" s="26" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -6321,7 +7175,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
       <c r="C17" s="10">
         <v>10</v>
@@ -6377,16 +7231,16 @@
       <c r="V17" s="10"/>
       <c r="W17" s="26"/>
       <c r="X17" s="27" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>292</v>
+        <v>416</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>293</v>
+        <v>417</v>
       </c>
       <c r="AA17" s="26" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -6394,7 +7248,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
@@ -6450,16 +7304,16 @@
       <c r="V18" s="10"/>
       <c r="W18" s="26"/>
       <c r="X18" s="27" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="AA18" s="26" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -6467,7 +7321,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>299</v>
+        <v>423</v>
       </c>
       <c r="C19" s="10">
         <v>10</v>
@@ -6523,16 +7377,16 @@
       <c r="V19" s="10"/>
       <c r="W19" s="26"/>
       <c r="X19" s="27" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
       <c r="AA19" s="26" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -6540,7 +7394,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
       <c r="C20" s="10">
         <v>10</v>
@@ -6596,16 +7450,16 @@
       <c r="V20" s="10"/>
       <c r="W20" s="26"/>
       <c r="X20" s="27" t="s">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>305</v>
+        <v>429</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="AA20" s="26" t="s">
-        <v>210</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -6613,7 +7467,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="C21" s="10">
         <v>10</v>
@@ -6669,16 +7523,16 @@
       <c r="V21" s="10"/>
       <c r="W21" s="26"/>
       <c r="X21" s="27" t="s">
-        <v>308</v>
+        <v>432</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
       <c r="AA21" s="26" t="s">
-        <v>223</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -6686,7 +7540,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="C22" s="10">
         <v>10</v>
@@ -6742,16 +7596,16 @@
       <c r="V22" s="10"/>
       <c r="W22" s="26"/>
       <c r="X22" s="27" t="s">
-        <v>312</v>
+        <v>436</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>313</v>
+        <v>437</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>314</v>
+        <v>438</v>
       </c>
       <c r="AA22" s="26" t="s">
-        <v>315</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -6759,7 +7613,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>316</v>
+        <v>440</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -6815,16 +7669,16 @@
       <c r="V23" s="10"/>
       <c r="W23" s="26"/>
       <c r="X23" s="27" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>319</v>
+        <v>443</v>
       </c>
       <c r="AA23" s="26" t="s">
-        <v>320</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -6832,7 +7686,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>321</v>
+        <v>445</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
@@ -6888,16 +7742,16 @@
       <c r="V24" s="10"/>
       <c r="W24" s="26"/>
       <c r="X24" s="27" t="s">
-        <v>322</v>
+        <v>446</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>323</v>
+        <v>447</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>324</v>
+        <v>448</v>
       </c>
       <c r="AA24" s="26" t="s">
-        <v>325</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -6905,7 +7759,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="C25" s="10">
         <v>10</v>
@@ -6961,16 +7815,16 @@
       <c r="V25" s="10"/>
       <c r="W25" s="26"/>
       <c r="X25" s="27" t="s">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>328</v>
+        <v>452</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="AA25" s="26" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -6978,7 +7832,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>330</v>
+        <v>454</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
@@ -7034,16 +7888,16 @@
       <c r="V26" s="10"/>
       <c r="W26" s="26"/>
       <c r="X26" s="27" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
       <c r="AA26" s="26" t="s">
-        <v>334</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -7051,7 +7905,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>335</v>
+        <v>459</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
@@ -7107,16 +7961,16 @@
       <c r="V27" s="10"/>
       <c r="W27" s="26"/>
       <c r="X27" s="27" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>337</v>
+        <v>461</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>338</v>
+        <v>462</v>
       </c>
       <c r="AA27" s="26" t="s">
-        <v>339</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -7124,7 +7978,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>340</v>
+        <v>464</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
@@ -7180,16 +8034,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="26"/>
       <c r="X28" s="27" t="s">
-        <v>341</v>
+        <v>465</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>343</v>
+        <v>467</v>
       </c>
       <c r="AA28" s="26" t="s">
-        <v>344</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -7197,7 +8051,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>345</v>
+        <v>469</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
@@ -7253,16 +8107,16 @@
       <c r="V29" s="10"/>
       <c r="W29" s="26"/>
       <c r="X29" s="27" t="s">
-        <v>346</v>
+        <v>470</v>
       </c>
       <c r="Y29" s="10" t="s">
-        <v>347</v>
+        <v>471</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="AA29" s="26" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -7270,7 +8124,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>350</v>
+        <v>474</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
@@ -7326,16 +8180,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="26"/>
       <c r="X30" s="27" t="s">
-        <v>351</v>
+        <v>475</v>
       </c>
       <c r="Y30" s="10" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>353</v>
+        <v>477</v>
       </c>
       <c r="AA30" s="26" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -7343,7 +8197,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>354</v>
+        <v>478</v>
       </c>
       <c r="C31" s="10">
         <v>10</v>
@@ -7399,16 +8253,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="26"/>
       <c r="X31" s="27" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
       <c r="Y31" s="10" t="s">
-        <v>356</v>
+        <v>480</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
       <c r="AA31" s="26" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -7416,7 +8270,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>358</v>
+        <v>482</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
@@ -7472,16 +8326,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="26"/>
       <c r="X32" s="27" t="s">
-        <v>359</v>
+        <v>483</v>
       </c>
       <c r="Y32" s="10" t="s">
-        <v>360</v>
+        <v>484</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>361</v>
+        <v>485</v>
       </c>
       <c r="AA32" s="26" t="s">
-        <v>362</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -7489,7 +8343,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>363</v>
+        <v>487</v>
       </c>
       <c r="C33" s="10">
         <v>10</v>
@@ -7545,16 +8399,16 @@
       <c r="V33" s="10"/>
       <c r="W33" s="26"/>
       <c r="X33" s="27" t="s">
-        <v>364</v>
+        <v>488</v>
       </c>
       <c r="Y33" s="10" t="s">
-        <v>365</v>
+        <v>489</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>366</v>
+        <v>490</v>
       </c>
       <c r="AA33" s="26" t="s">
-        <v>367</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -7562,7 +8416,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>368</v>
+        <v>492</v>
       </c>
       <c r="C34" s="10">
         <v>10</v>
@@ -7618,16 +8472,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="26"/>
       <c r="X34" s="27" t="s">
-        <v>369</v>
+        <v>493</v>
       </c>
       <c r="Y34" s="10" t="s">
-        <v>370</v>
+        <v>494</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>371</v>
+        <v>495</v>
       </c>
       <c r="AA34" s="26" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -7635,7 +8489,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>372</v>
+        <v>496</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
@@ -7691,16 +8545,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="26"/>
       <c r="X35" s="27" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="Y35" s="10" t="s">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
       <c r="AA35" s="26" t="s">
-        <v>376</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -7708,7 +8562,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>377</v>
+        <v>501</v>
       </c>
       <c r="C36" s="10">
         <v>10</v>
@@ -7764,16 +8618,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="26"/>
       <c r="X36" s="27" t="s">
-        <v>378</v>
+        <v>502</v>
       </c>
       <c r="Y36" s="10" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
       <c r="Z36" s="10" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
       <c r="AA36" s="26" t="s">
-        <v>381</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -7781,7 +8635,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>382</v>
+        <v>506</v>
       </c>
       <c r="C37" s="10">
         <v>10</v>
@@ -7837,16 +8691,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="26"/>
       <c r="X37" s="27" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
       <c r="Y37" s="10" t="s">
-        <v>384</v>
+        <v>508</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
       <c r="AA37" s="26" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -7854,7 +8708,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>387</v>
+        <v>511</v>
       </c>
       <c r="C38" s="10">
         <v>10</v>
@@ -7910,16 +8764,16 @@
       <c r="V38" s="10"/>
       <c r="W38" s="26"/>
       <c r="X38" s="27" t="s">
-        <v>388</v>
+        <v>512</v>
       </c>
       <c r="Y38" s="10" t="s">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>390</v>
+        <v>514</v>
       </c>
       <c r="AA38" s="26" t="s">
-        <v>391</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -7927,7 +8781,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>392</v>
+        <v>516</v>
       </c>
       <c r="C39" s="10">
         <v>10</v>
@@ -7983,16 +8837,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="26"/>
       <c r="X39" s="27" t="s">
-        <v>393</v>
+        <v>517</v>
       </c>
       <c r="Y39" s="10" t="s">
-        <v>394</v>
+        <v>518</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>395</v>
+        <v>519</v>
       </c>
       <c r="AA39" s="26" t="s">
-        <v>396</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -8000,7 +8854,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>397</v>
+        <v>521</v>
       </c>
       <c r="C40" s="10">
         <v>10</v>
@@ -8056,16 +8910,16 @@
       <c r="V40" s="10"/>
       <c r="W40" s="26"/>
       <c r="X40" s="27" t="s">
-        <v>398</v>
+        <v>522</v>
       </c>
       <c r="Y40" s="10" t="s">
-        <v>399</v>
+        <v>523</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="AA40" s="26" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -8073,7 +8927,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>401</v>
+        <v>525</v>
       </c>
       <c r="C41" s="12">
         <v>10</v>
@@ -8129,16 +8983,16 @@
       <c r="V41" s="12"/>
       <c r="W41" s="29"/>
       <c r="X41" s="30" t="s">
-        <v>402</v>
+        <v>526</v>
       </c>
       <c r="Y41" s="12" t="s">
-        <v>403</v>
+        <v>527</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>404</v>
+        <v>528</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -644,7 +644,7 @@
     <t>2点的基础分数变为0</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_two.gd</t>
+    <t>res://scripts/buff/disable_two_buff.gd</t>
   </si>
   <si>
     <t>disable_three</t>
@@ -659,7 +659,7 @@
     <t>3点的基础分数变为0</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_three.gd</t>
+    <t>res://scripts/buff/disable_three_buff.gd</t>
   </si>
   <si>
     <t>disable_four</t>
@@ -674,7 +674,7 @@
     <t>4点的基础分数变为0</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_four.gd</t>
+    <t>res://scripts/buff/disable_four_buff.gd</t>
   </si>
   <si>
     <t>disable_five</t>
@@ -689,7 +689,7 @@
     <t>5点的基础分数变为0</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_five.gd</t>
+    <t>res://scripts/buff/disable_five_buff.gd</t>
   </si>
   <si>
     <t>disable_six</t>
@@ -704,7 +704,7 @@
     <t>6点的基础分数变为0</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_six.gd</t>
+    <t>res://scripts/buff/disable_six_buff.gd</t>
   </si>
   <si>
     <t>disable_none</t>
@@ -719,7 +719,7 @@
     <t>无骰型的倍率变为0%</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_none.gd</t>
+    <t>res://scripts/buff/disable_none_buff.gd</t>
   </si>
   <si>
     <t>disable_duizi</t>
@@ -734,7 +734,7 @@
     <t>对子骰型的倍率变为0%</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_duizi.gd</t>
+    <t>res://scripts/buff/disable_duizi_buff.gd</t>
   </si>
   <si>
     <t>disable_shunzi</t>
@@ -749,7 +749,7 @@
     <t>顺子骰型的倍率变为0%</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_shunzi.gd</t>
+    <t>res://scripts/buff/disable_shunzi_buff.gd</t>
   </si>
   <si>
     <t>disable_tongse</t>
@@ -764,7 +764,7 @@
     <t>同色骰型的倍率变为0%</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_tongse.gd</t>
+    <t>res://scripts/buff/disable_tongse_buff.gd</t>
   </si>
   <si>
     <t>disable_tongdui</t>
@@ -779,7 +779,7 @@
     <t>同对骰型的倍率变为0%</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_tongdui.gd</t>
+    <t>res://scripts/buff/disable_tongdui_buff.gd</t>
   </si>
   <si>
     <t>disable_tongshun</t>
@@ -794,7 +794,7 @@
     <t>同顺骰型的倍率变为0%</t>
   </si>
   <si>
-    <t>res://scripts/buff/disable_tongshun.gd</t>
+    <t>res://scripts/buff/disable_tongshun_buff.gd</t>
   </si>
   <si>
     <t>target_score_up</t>
@@ -809,7 +809,7 @@
     <t>回合结束时目标分数每回合+1%</t>
   </si>
   <si>
-    <t>res://scripts/buff/target_score_up.gd</t>
+    <t>res://scripts/buff/target_score_up_buff.gd</t>
   </si>
   <si>
     <t>current_score_down</t>
@@ -824,7 +824,7 @@
     <t>回合结束时当前分数-5%</t>
   </si>
   <si>
-    <t>res://scripts/buff/current_score_down.gd</t>
+    <t>res://scripts/buff/current_score_down_buff.gd</t>
   </si>
   <si>
     <t>move_current_score_down</t>
@@ -839,7 +839,7 @@
     <t>每移动一格当前分数-2%</t>
   </si>
   <si>
-    <t>res://scripts/buff/move_current_score_down.gd</t>
+    <t>res://scripts/buff/move_current_score_down_buff.gd</t>
   </si>
   <si>
     <t>move_down</t>
@@ -854,7 +854,7 @@
     <t>移动力-1</t>
   </si>
   <si>
-    <t>res://scripts/buff/move_down.gd</t>
+    <t>res://scripts/buff/move_down_buff.gd</t>
   </si>
   <si>
     <t>no_power_slime</t>
@@ -869,7 +869,7 @@
     <t>不生成能量史莱姆</t>
   </si>
   <si>
-    <t>res://scripts/buff/no_power_slime.gd</t>
+    <t>res://scripts/buff/no_power_slime_buff.gd</t>
   </si>
   <si>
     <t>power_current_score_down</t>
@@ -884,7 +884,7 @@
     <t>使用能量时当前分数-10%</t>
   </si>
   <si>
-    <t>res://scripts/buff/power_current_score_down.gd</t>
+    <t>res://scripts/buff/power_current_score_down_buff.gd</t>
   </si>
   <si>
     <t>reroll_slime</t>
@@ -899,7 +899,7 @@
     <t>每回合都会重掷所有史莱姆</t>
   </si>
   <si>
-    <t>res://scripts/buff/reroll_slime.gd</t>
+    <t>res://scripts/buff/reroll_slime_buff.gd</t>
   </si>
   <si>
     <t>slime_current_score_down</t>
@@ -914,7 +914,7 @@
     <t>每有一个史莱姆当前分数-1</t>
   </si>
   <si>
-    <t>res://scripts/buff/slime_current_score_down.gd</t>
+    <t>res://scripts/buff/slime_current_score_down_buff.gd</t>
   </si>
   <si>
     <t>slime_move</t>
@@ -929,7 +929,7 @@
     <t>每个回合史莱姆都会移动一格</t>
   </si>
   <si>
-    <t>res://scripts/buff/slime_move.gd</t>
+    <t>res://scripts/buff/slime_move_buff.gd</t>
   </si>
   <si>
     <t>BOSS诅咒id</t>
@@ -5495,7 +5495,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5504,7 +5504,7 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="57.125" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="533">
   <si>
     <t>流程：</t>
   </si>
@@ -602,6 +602,9 @@
     <t>诅咒资源</t>
   </si>
   <si>
+    <t>诅咒类型</t>
+  </si>
+  <si>
     <t>debuff_id</t>
   </si>
   <si>
@@ -617,6 +620,9 @@
     <t>debuff_res</t>
   </si>
   <si>
+    <t>debuff_type</t>
+  </si>
+  <si>
     <t>disable_one</t>
   </si>
   <si>
@@ -872,6 +878,9 @@
     <t>res://scripts/buff/no_power_slime_buff.gd</t>
   </si>
   <si>
+    <t>pre_hero_turn_buff</t>
+  </si>
+  <si>
     <t>power_current_score_down</t>
   </si>
   <si>
@@ -900,6 +909,9 @@
   </si>
   <si>
     <t>res://scripts/buff/reroll_slime_buff.gd</t>
+  </si>
+  <si>
+    <t>pre_enemy_turn_buff</t>
   </si>
   <si>
     <t>slime_current_score_down</t>
@@ -2156,92 +2168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2276,6 +2202,47 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2323,6 +2290,66 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -2343,6 +2370,41 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2406,56 +2468,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2722,28 +2734,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
@@ -2752,7 +2752,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
@@ -2770,26 +2770,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2797,19 +2818,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2827,7 +2839,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3246,7 +3258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -3254,52 +3266,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="5:5">
+    <row r="7" spans="1:5">
       <c r="E7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" spans="1:5">
       <c r="E8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="1:5">
       <c r="E9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="10" spans="1:5">
       <c r="E10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" spans="1:5">
       <c r="E11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="5:5">
+    <row r="12" spans="1:5">
       <c r="E12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="1:5">
       <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
+    <row r="14" spans="1:5">
       <c r="E14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="5:5">
+    <row r="15" spans="1:5">
       <c r="E15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="5:5">
+    <row r="16" spans="1:5">
       <c r="E16" t="s">
         <v>26</v>
       </c>
@@ -5492,22 +5504,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="57.125" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -5523,379 +5536,391 @@
       <c r="E1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>280</v>
+      </c>
+      <c r="F19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E23" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5923,44 +5948,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5982,3017 +6007,3017 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>324</v>
+        <v>327</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="31"/>
+        <v>332</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="6"/>
     </row>
     <row r="2" ht="14.25" spans="1:27">
-      <c r="A2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="N2" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="O2" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="P2" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="Q2" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="R2" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="X2" s="18" t="s">
+      <c r="S2" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="T2" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="U2" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="V2" s="8" t="s">
         <v>355</v>
       </c>
+      <c r="W2" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
-      <c r="A3" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA3" s="34" t="s">
-        <v>356</v>
+      <c r="A3" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="7">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="21">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
         <v>10</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
         <v>2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="21">
         <v>1</v>
       </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
         <v>0</v>
       </c>
       <c r="R4" s="22">
         <v>0</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
       <c r="W4" s="23"/>
       <c r="X4" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z4" s="21" t="s">
+        <v>365</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="9">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" s="26">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
         <v>10</v>
       </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
         <v>2</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="26">
         <v>1</v>
       </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0</v>
-      </c>
-      <c r="R5" s="25">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="27" t="s">
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26">
+        <v>0</v>
+      </c>
+      <c r="N5" s="26">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26">
+        <v>0</v>
+      </c>
+      <c r="P5" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>0</v>
+      </c>
+      <c r="R5" s="27">
+        <v>0</v>
+      </c>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y5" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="Y5" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA5" s="26" t="s">
-        <v>336</v>
+      <c r="Z5" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="9">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="26">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>10</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>2</v>
+      </c>
+      <c r="K6" s="26">
+        <v>1</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0</v>
+      </c>
+      <c r="R6" s="27">
+        <v>0</v>
+      </c>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z6" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="25">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="26">
+        <v>10</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>10</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>2</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
+      <c r="R7" s="27">
+        <v>0</v>
+      </c>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y7" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z7" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA7" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="26">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>10</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <v>2</v>
+      </c>
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>0</v>
+      </c>
+      <c r="R8" s="27">
+        <v>0</v>
+      </c>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA8" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="26">
+        <v>10</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>10</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <v>2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>1</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0</v>
+      </c>
+      <c r="R9" s="27">
+        <v>0</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y9" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z9" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA9" s="28" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="26">
+        <v>10</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>10</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>2</v>
+      </c>
+      <c r="K10" s="26">
+        <v>1</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26">
+        <v>0</v>
+      </c>
+      <c r="P10" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0</v>
+      </c>
+      <c r="R10" s="27">
+        <v>0</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y10" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z10" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA10" s="28" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="25">
+        <v>8</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="26">
+        <v>10</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>10</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26">
+        <v>2</v>
+      </c>
+      <c r="K11" s="26">
+        <v>1</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0</v>
+      </c>
+      <c r="P11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0</v>
+      </c>
+      <c r="R11" s="27">
+        <v>0</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y11" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA11" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="25">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="26">
+        <v>10</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>10</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <v>2</v>
+      </c>
+      <c r="K12" s="26">
+        <v>1</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
+        <v>0</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>0</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0</v>
+      </c>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y12" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z12" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="25">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="26">
+        <v>10</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>10</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <v>2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0</v>
+      </c>
+      <c r="R13" s="27">
+        <v>0</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y13" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z13" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA13" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="25">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="26">
+        <v>10</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>10</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0</v>
+      </c>
+      <c r="O14" s="26">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0</v>
+      </c>
+      <c r="R14" s="27">
+        <v>0</v>
+      </c>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y14" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z14" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA14" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="25">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C15" s="26">
+        <v>10</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>10</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>2</v>
+      </c>
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26">
+        <v>0</v>
+      </c>
+      <c r="O15" s="26">
+        <v>0</v>
+      </c>
+      <c r="P15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0</v>
+      </c>
+      <c r="R15" s="27">
+        <v>0</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y15" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA15" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="C6" s="10">
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="25">
+        <v>13</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="26">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
         <v>10</v>
       </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26">
         <v>2</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K16" s="26">
         <v>1</v>
       </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0</v>
-      </c>
-      <c r="R6" s="25">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z6" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA6" s="26" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="L16" s="26">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26">
+        <v>0</v>
+      </c>
+      <c r="O16" s="26">
+        <v>0</v>
+      </c>
+      <c r="P16" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>0</v>
+      </c>
+      <c r="R16" s="27">
+        <v>0</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y16" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA16" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="25">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="26">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
         <v>10</v>
       </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
         <v>2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K17" s="26">
         <v>1</v>
       </c>
-      <c r="L7" s="10">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="25">
-        <v>0</v>
-      </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
+        <v>0</v>
+      </c>
+      <c r="O17" s="26">
+        <v>0</v>
+      </c>
+      <c r="P17" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>0</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y17" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z17" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA17" s="28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="25">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="26">
         <v>10</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
         <v>10</v>
       </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="J18" s="26">
         <v>2</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K18" s="26">
         <v>1</v>
       </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>0</v>
-      </c>
-      <c r="R8" s="25">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA8" s="26" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>0</v>
+      </c>
+      <c r="O18" s="26">
+        <v>0</v>
+      </c>
+      <c r="P18" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0</v>
+      </c>
+      <c r="R18" s="27">
+        <v>0</v>
+      </c>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y18" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z18" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="AA18" s="28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="25">
+        <v>16</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" s="26">
         <v>10</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
         <v>10</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
         <v>2</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K19" s="26">
         <v>1</v>
       </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-      <c r="R9" s="25">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="L19" s="26">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26">
+        <v>0</v>
+      </c>
+      <c r="O19" s="26">
+        <v>0</v>
+      </c>
+      <c r="P19" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>0</v>
+      </c>
+      <c r="R19" s="27">
+        <v>0</v>
+      </c>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y19" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z19" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="AA19" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="25">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C20" s="26">
         <v>10</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
         <v>10</v>
       </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
         <v>2</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K20" s="26">
         <v>1</v>
       </c>
-      <c r="L10" s="10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0</v>
-      </c>
-      <c r="R10" s="25">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA10" s="26" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="L20" s="26">
+        <v>0</v>
+      </c>
+      <c r="M20" s="26">
+        <v>0</v>
+      </c>
+      <c r="N20" s="26">
+        <v>0</v>
+      </c>
+      <c r="O20" s="26">
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0</v>
+      </c>
+      <c r="R20" s="27">
+        <v>0</v>
+      </c>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y20" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z20" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA20" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="25">
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" s="26">
         <v>10</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
         <v>10</v>
       </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
         <v>2</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K21" s="26">
         <v>1</v>
       </c>
-      <c r="L11" s="10">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>0</v>
-      </c>
-      <c r="R11" s="25">
-        <v>0</v>
-      </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA11" s="26" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="L21" s="26">
+        <v>0</v>
+      </c>
+      <c r="M21" s="26">
+        <v>0</v>
+      </c>
+      <c r="N21" s="26">
+        <v>0</v>
+      </c>
+      <c r="O21" s="26">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>0</v>
+      </c>
+      <c r="R21" s="27">
+        <v>0</v>
+      </c>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y21" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z21" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA21" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="25">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C22" s="26">
         <v>10</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
         <v>2</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K22" s="26">
         <v>1</v>
       </c>
-      <c r="L12" s="10">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0</v>
-      </c>
-      <c r="R12" s="25">
-        <v>0</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA12" s="26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="9">
+      <c r="L22" s="26">
+        <v>0</v>
+      </c>
+      <c r="M22" s="26">
+        <v>0</v>
+      </c>
+      <c r="N22" s="26">
+        <v>0</v>
+      </c>
+      <c r="O22" s="26">
+        <v>0</v>
+      </c>
+      <c r="P22" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0</v>
+      </c>
+      <c r="R22" s="27">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y22" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z22" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA22" s="28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="25">
+        <v>20</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" s="26">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
         <v>10</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
+      <c r="J23" s="26">
+        <v>2</v>
+      </c>
+      <c r="K23" s="26">
+        <v>1</v>
+      </c>
+      <c r="L23" s="26">
+        <v>0</v>
+      </c>
+      <c r="M23" s="26">
+        <v>0</v>
+      </c>
+      <c r="N23" s="26">
+        <v>0</v>
+      </c>
+      <c r="O23" s="26">
+        <v>0</v>
+      </c>
+      <c r="P23" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>0</v>
+      </c>
+      <c r="R23" s="27">
+        <v>0</v>
+      </c>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y23" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z23" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA23" s="28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="25">
+        <v>21</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="26">
         <v>10</v>
       </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>10</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>0</v>
+      </c>
+      <c r="J24" s="26">
         <v>2</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K24" s="26">
         <v>1</v>
       </c>
-      <c r="L13" s="10">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-      <c r="R13" s="25">
-        <v>0</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA13" s="26" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>0</v>
+      </c>
+      <c r="O24" s="26">
+        <v>0</v>
+      </c>
+      <c r="P24" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="27">
+        <v>0</v>
+      </c>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y24" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z24" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA24" s="28" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="26">
         <v>10</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
         <v>10</v>
       </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>0</v>
+      </c>
+      <c r="J25" s="26">
         <v>2</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K25" s="26">
         <v>1</v>
       </c>
-      <c r="L14" s="10">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="R14" s="25">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA14" s="26" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>0</v>
+      </c>
+      <c r="O25" s="26">
+        <v>0</v>
+      </c>
+      <c r="P25" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>0</v>
+      </c>
+      <c r="R25" s="27">
+        <v>0</v>
+      </c>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y25" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z25" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA25" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="25">
+        <v>23</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="C26" s="26">
         <v>10</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D26" s="26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
         <v>10</v>
       </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="26">
         <v>2</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K26" s="26">
         <v>1</v>
       </c>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0</v>
-      </c>
-      <c r="R15" s="25">
-        <v>0</v>
-      </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA15" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="L26" s="26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>0</v>
+      </c>
+      <c r="R26" s="27">
+        <v>0</v>
+      </c>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y26" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z26" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA26" s="28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" s="25">
+        <v>24</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="26">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="G27" s="26">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26">
+        <v>0</v>
+      </c>
+      <c r="I27" s="26">
+        <v>0</v>
+      </c>
+      <c r="J27" s="26">
         <v>2</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K27" s="26">
         <v>1</v>
       </c>
-      <c r="L16" s="10">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0</v>
-      </c>
-      <c r="R16" s="25">
-        <v>0</v>
-      </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA16" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="L27" s="26">
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0</v>
+      </c>
+      <c r="N27" s="26">
+        <v>0</v>
+      </c>
+      <c r="O27" s="26">
+        <v>0</v>
+      </c>
+      <c r="P27" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>0</v>
+      </c>
+      <c r="R27" s="27">
+        <v>0</v>
+      </c>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y27" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z27" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA27" s="28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" s="25">
+        <v>25</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="26">
         <v>10</v>
       </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D28" s="26">
+        <v>0</v>
+      </c>
+      <c r="E28" s="26">
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
         <v>10</v>
       </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="G28" s="26">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26">
         <v>2</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K28" s="26">
         <v>1</v>
       </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>0</v>
-      </c>
-      <c r="R17" s="25">
-        <v>0</v>
-      </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA17" s="26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="L28" s="26">
+        <v>0</v>
+      </c>
+      <c r="M28" s="26">
+        <v>0</v>
+      </c>
+      <c r="N28" s="26">
+        <v>0</v>
+      </c>
+      <c r="O28" s="26">
+        <v>0</v>
+      </c>
+      <c r="P28" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>0</v>
+      </c>
+      <c r="R28" s="27">
+        <v>0</v>
+      </c>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y28" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z28" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA28" s="28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" s="25">
+        <v>26</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="C29" s="26">
         <v>10</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="G29" s="26">
+        <v>0</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
+      <c r="J29" s="26">
         <v>2</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K29" s="26">
         <v>1</v>
       </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="25">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA18" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="L29" s="26">
+        <v>0</v>
+      </c>
+      <c r="M29" s="26">
+        <v>0</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+      <c r="P29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>0</v>
+      </c>
+      <c r="R29" s="27">
+        <v>0</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y29" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z29" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA29" s="28" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" s="25">
+        <v>27</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="C30" s="26">
         <v>10</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D30" s="26">
+        <v>0</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
         <v>10</v>
       </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0</v>
+      </c>
+      <c r="J30" s="26">
         <v>2</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K30" s="26">
         <v>1</v>
       </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0</v>
-      </c>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0</v>
-      </c>
-      <c r="R19" s="25">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA19" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="L30" s="26">
+        <v>0</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0</v>
+      </c>
+      <c r="N30" s="26">
+        <v>0</v>
+      </c>
+      <c r="O30" s="26">
+        <v>0</v>
+      </c>
+      <c r="P30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0</v>
+      </c>
+      <c r="R30" s="27">
+        <v>0</v>
+      </c>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y30" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z30" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA30" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" s="25">
+        <v>28</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="C31" s="26">
         <v>10</v>
       </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="G31" s="26">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26">
+        <v>0</v>
+      </c>
+      <c r="J31" s="26">
         <v>2</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K31" s="26">
         <v>1</v>
       </c>
-      <c r="L20" s="10">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0</v>
-      </c>
-      <c r="R20" s="25">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA20" s="26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="L31" s="26">
+        <v>0</v>
+      </c>
+      <c r="M31" s="26">
+        <v>0</v>
+      </c>
+      <c r="N31" s="26">
+        <v>0</v>
+      </c>
+      <c r="O31" s="26">
+        <v>0</v>
+      </c>
+      <c r="P31" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>0</v>
+      </c>
+      <c r="R31" s="27">
+        <v>0</v>
+      </c>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y31" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="Z31" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA31" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" s="25">
+        <v>29</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C32" s="26">
         <v>10</v>
       </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="D32" s="26">
+        <v>0</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
         <v>10</v>
       </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0</v>
+      </c>
+      <c r="I32" s="26">
+        <v>0</v>
+      </c>
+      <c r="J32" s="26">
         <v>2</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K32" s="26">
         <v>1</v>
       </c>
-      <c r="L21" s="10">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0</v>
-      </c>
-      <c r="O21" s="10">
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>0</v>
-      </c>
-      <c r="R21" s="25">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z21" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA21" s="26" t="s">
+      <c r="L32" s="26">
+        <v>0</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0</v>
+      </c>
+      <c r="N32" s="26">
+        <v>0</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0</v>
+      </c>
+      <c r="P32" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>0</v>
+      </c>
+      <c r="R32" s="27">
+        <v>0</v>
+      </c>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y32" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z32" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA32" s="28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" s="25">
+        <v>30</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="26">
+        <v>10</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26">
+        <v>10</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0</v>
+      </c>
+      <c r="J33" s="26">
+        <v>2</v>
+      </c>
+      <c r="K33" s="26">
+        <v>1</v>
+      </c>
+      <c r="L33" s="26">
+        <v>0</v>
+      </c>
+      <c r="M33" s="26">
+        <v>0</v>
+      </c>
+      <c r="N33" s="26">
+        <v>0</v>
+      </c>
+      <c r="O33" s="26">
+        <v>0</v>
+      </c>
+      <c r="P33" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>0</v>
+      </c>
+      <c r="R33" s="27">
+        <v>0</v>
+      </c>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y33" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="Z33" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="AA33" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" s="25">
+        <v>31</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="26">
+        <v>10</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <v>10</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0</v>
+      </c>
+      <c r="J34" s="26">
+        <v>2</v>
+      </c>
+      <c r="K34" s="26">
+        <v>1</v>
+      </c>
+      <c r="L34" s="26">
+        <v>0</v>
+      </c>
+      <c r="M34" s="26">
+        <v>0</v>
+      </c>
+      <c r="N34" s="26">
+        <v>0</v>
+      </c>
+      <c r="O34" s="26">
+        <v>0</v>
+      </c>
+      <c r="P34" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>0</v>
+      </c>
+      <c r="R34" s="27">
+        <v>0</v>
+      </c>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y34" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z34" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA34" s="28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" s="25">
+        <v>32</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="26">
+        <v>10</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26">
+        <v>10</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26">
+        <v>0</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0</v>
+      </c>
+      <c r="J35" s="26">
+        <v>2</v>
+      </c>
+      <c r="K35" s="26">
+        <v>1</v>
+      </c>
+      <c r="L35" s="26">
+        <v>0</v>
+      </c>
+      <c r="M35" s="26">
+        <v>0</v>
+      </c>
+      <c r="N35" s="26">
+        <v>0</v>
+      </c>
+      <c r="O35" s="26">
+        <v>0</v>
+      </c>
+      <c r="P35" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>0</v>
+      </c>
+      <c r="R35" s="27">
+        <v>0</v>
+      </c>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y35" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z35" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA35" s="28" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" s="25">
+        <v>33</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C36" s="26">
+        <v>10</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0</v>
+      </c>
+      <c r="F36" s="26">
+        <v>10</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0</v>
+      </c>
+      <c r="J36" s="26">
+        <v>2</v>
+      </c>
+      <c r="K36" s="26">
+        <v>1</v>
+      </c>
+      <c r="L36" s="26">
+        <v>0</v>
+      </c>
+      <c r="M36" s="26">
+        <v>0</v>
+      </c>
+      <c r="N36" s="26">
+        <v>0</v>
+      </c>
+      <c r="O36" s="26">
+        <v>0</v>
+      </c>
+      <c r="P36" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>0</v>
+      </c>
+      <c r="R36" s="27">
+        <v>0</v>
+      </c>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y36" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z36" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA36" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" s="25">
+        <v>34</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C37" s="26">
+        <v>10</v>
+      </c>
+      <c r="D37" s="26">
+        <v>0</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0</v>
+      </c>
+      <c r="F37" s="26">
+        <v>10</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0</v>
+      </c>
+      <c r="I37" s="26">
+        <v>0</v>
+      </c>
+      <c r="J37" s="26">
+        <v>2</v>
+      </c>
+      <c r="K37" s="26">
+        <v>1</v>
+      </c>
+      <c r="L37" s="26">
+        <v>0</v>
+      </c>
+      <c r="M37" s="26">
+        <v>0</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0</v>
+      </c>
+      <c r="P37" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>0</v>
+      </c>
+      <c r="R37" s="27">
+        <v>0</v>
+      </c>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="29" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y37" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z37" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA37" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" s="25">
+        <v>35</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="C38" s="26">
+        <v>10</v>
+      </c>
+      <c r="D38" s="26">
+        <v>0</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0</v>
+      </c>
+      <c r="F38" s="26">
+        <v>10</v>
+      </c>
+      <c r="G38" s="26">
+        <v>0</v>
+      </c>
+      <c r="H38" s="26">
+        <v>0</v>
+      </c>
+      <c r="I38" s="26">
+        <v>0</v>
+      </c>
+      <c r="J38" s="26">
+        <v>2</v>
+      </c>
+      <c r="K38" s="26">
+        <v>1</v>
+      </c>
+      <c r="L38" s="26">
+        <v>0</v>
+      </c>
+      <c r="M38" s="26">
+        <v>0</v>
+      </c>
+      <c r="N38" s="26">
+        <v>0</v>
+      </c>
+      <c r="O38" s="26">
+        <v>0</v>
+      </c>
+      <c r="P38" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>0</v>
+      </c>
+      <c r="R38" s="27">
+        <v>0</v>
+      </c>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y38" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z38" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA38" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" s="25">
+        <v>36</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="C39" s="26">
+        <v>10</v>
+      </c>
+      <c r="D39" s="26">
+        <v>0</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0</v>
+      </c>
+      <c r="F39" s="26">
+        <v>10</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0</v>
+      </c>
+      <c r="I39" s="26">
+        <v>0</v>
+      </c>
+      <c r="J39" s="26">
+        <v>2</v>
+      </c>
+      <c r="K39" s="26">
+        <v>1</v>
+      </c>
+      <c r="L39" s="26">
+        <v>0</v>
+      </c>
+      <c r="M39" s="26">
+        <v>0</v>
+      </c>
+      <c r="N39" s="26">
+        <v>0</v>
+      </c>
+      <c r="O39" s="26">
+        <v>0</v>
+      </c>
+      <c r="P39" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>0</v>
+      </c>
+      <c r="R39" s="27">
+        <v>0</v>
+      </c>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y39" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z39" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA39" s="28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="25">
+        <v>37</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="C40" s="26">
+        <v>10</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0</v>
+      </c>
+      <c r="E40" s="26">
+        <v>0</v>
+      </c>
+      <c r="F40" s="26">
+        <v>10</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0</v>
+      </c>
+      <c r="H40" s="26">
+        <v>0</v>
+      </c>
+      <c r="I40" s="26">
+        <v>0</v>
+      </c>
+      <c r="J40" s="26">
+        <v>2</v>
+      </c>
+      <c r="K40" s="26">
+        <v>1</v>
+      </c>
+      <c r="L40" s="26">
+        <v>0</v>
+      </c>
+      <c r="M40" s="26">
+        <v>0</v>
+      </c>
+      <c r="N40" s="26">
+        <v>0</v>
+      </c>
+      <c r="O40" s="26">
+        <v>0</v>
+      </c>
+      <c r="P40" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>0</v>
+      </c>
+      <c r="R40" s="27">
+        <v>0</v>
+      </c>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="29" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y40" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z40" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA40" s="28" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C22" s="10">
+    <row r="41" ht="14.25" spans="1:27">
+      <c r="A41" s="30">
+        <v>38</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="C41" s="31">
         <v>10</v>
       </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="D41" s="31">
+        <v>0</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0</v>
+      </c>
+      <c r="F41" s="31">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="G41" s="31">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0</v>
+      </c>
+      <c r="J41" s="31">
         <v>2</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K41" s="31">
         <v>1</v>
       </c>
-      <c r="L22" s="10">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0</v>
-      </c>
-      <c r="O22" s="10">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>0</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA22" s="26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="9">
-        <v>20</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C23" s="10">
-        <v>10</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>10</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10">
-        <v>0</v>
-      </c>
-      <c r="J23" s="10">
-        <v>2</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>0</v>
-      </c>
-      <c r="R23" s="25">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z23" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA23" s="26" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="C24" s="10">
-        <v>10</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
-        <v>2</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <v>0</v>
-      </c>
-      <c r="O24" s="10">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>0</v>
-      </c>
-      <c r="R24" s="25">
-        <v>0</v>
-      </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA24" s="26" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="9">
-        <v>22</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C25" s="10">
-        <v>10</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>10</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="10">
-        <v>2</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10">
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>0</v>
-      </c>
-      <c r="R25" s="25">
-        <v>0</v>
-      </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA25" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C26" s="10">
-        <v>10</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>10</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>2</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <v>0</v>
-      </c>
-      <c r="O26" s="10">
-        <v>0</v>
-      </c>
-      <c r="P26" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>0</v>
-      </c>
-      <c r="R26" s="25">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z26" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA26" s="26" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C27" s="10">
-        <v>10</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>10</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
-        <v>2</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <v>0</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>0</v>
-      </c>
-      <c r="R27" s="25">
-        <v>0</v>
-      </c>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y27" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z27" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="AA27" s="26" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C28" s="10">
-        <v>10</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>10</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
-        <v>2</v>
-      </c>
-      <c r="K28" s="10">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
-        <v>0</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>0</v>
-      </c>
-      <c r="R28" s="25">
-        <v>0</v>
-      </c>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA28" s="26" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C29" s="10">
-        <v>10</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>10</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
-        <v>2</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>0</v>
-      </c>
-      <c r="R29" s="25">
-        <v>0</v>
-      </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA29" s="26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C30" s="10">
-        <v>10</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>10</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10">
-        <v>2</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0</v>
-      </c>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10">
-        <v>0</v>
-      </c>
-      <c r="O30" s="10">
-        <v>0</v>
-      </c>
-      <c r="P30" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>0</v>
-      </c>
-      <c r="R30" s="25">
-        <v>0</v>
-      </c>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y30" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="Z30" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA30" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C31" s="10">
-        <v>10</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>10</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
-        <v>2</v>
-      </c>
-      <c r="K31" s="10">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="10">
-        <v>0</v>
-      </c>
-      <c r="O31" s="10">
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>0</v>
-      </c>
-      <c r="R31" s="25">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="Z31" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA31" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="10">
-        <v>10</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>10</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10">
-        <v>2</v>
-      </c>
-      <c r="K32" s="10">
-        <v>1</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
-      <c r="O32" s="10">
-        <v>0</v>
-      </c>
-      <c r="P32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>0</v>
-      </c>
-      <c r="R32" s="25">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y32" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="Z32" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA32" s="26" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C33" s="10">
-        <v>10</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
-        <v>10</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10">
-        <v>2</v>
-      </c>
-      <c r="K33" s="10">
-        <v>1</v>
-      </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0</v>
-      </c>
-      <c r="O33" s="10">
-        <v>0</v>
-      </c>
-      <c r="P33" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>0</v>
-      </c>
-      <c r="R33" s="25">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y33" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="Z33" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA33" s="26" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" s="10">
-        <v>10</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>10</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="10">
-        <v>2</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-      <c r="O34" s="10">
-        <v>0</v>
-      </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>0</v>
-      </c>
-      <c r="R34" s="25">
-        <v>0</v>
-      </c>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y34" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="Z34" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA34" s="26" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C35" s="10">
-        <v>10</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>10</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10">
-        <v>2</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0</v>
-      </c>
-      <c r="O35" s="10">
-        <v>0</v>
-      </c>
-      <c r="P35" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>0</v>
-      </c>
-      <c r="R35" s="25">
-        <v>0</v>
-      </c>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="Y35" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="Z35" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA35" s="26" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
-      <c r="A36" s="9">
-        <v>33</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="C36" s="10">
-        <v>10</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10">
-        <v>10</v>
-      </c>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10">
-        <v>2</v>
-      </c>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
-      <c r="N36" s="10">
-        <v>0</v>
-      </c>
-      <c r="O36" s="10">
-        <v>0</v>
-      </c>
-      <c r="P36" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>0</v>
-      </c>
-      <c r="R36" s="25">
-        <v>0</v>
-      </c>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="27" t="s">
-        <v>502</v>
-      </c>
-      <c r="Y36" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="Z36" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="AA36" s="26" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
-      <c r="A37" s="9">
-        <v>34</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="C37" s="10">
-        <v>10</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10">
-        <v>10</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10">
-        <v>2</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
-        <v>0</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0</v>
-      </c>
-      <c r="N37" s="10">
-        <v>0</v>
-      </c>
-      <c r="O37" s="10">
-        <v>0</v>
-      </c>
-      <c r="P37" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>0</v>
-      </c>
-      <c r="R37" s="25">
-        <v>0</v>
-      </c>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y37" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z37" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA37" s="26" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
-      <c r="A38" s="9">
-        <v>35</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C38" s="10">
-        <v>10</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="10">
-        <v>10</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0</v>
-      </c>
-      <c r="J38" s="10">
-        <v>2</v>
-      </c>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="10">
-        <v>0</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0</v>
-      </c>
-      <c r="N38" s="10">
-        <v>0</v>
-      </c>
-      <c r="O38" s="10">
-        <v>0</v>
-      </c>
-      <c r="P38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>0</v>
-      </c>
-      <c r="R38" s="25">
-        <v>0</v>
-      </c>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y38" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z38" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA38" s="26" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
-      <c r="A39" s="9">
-        <v>36</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C39" s="10">
-        <v>10</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10">
-        <v>10</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10">
-        <v>0</v>
-      </c>
-      <c r="J39" s="10">
-        <v>2</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="10">
-        <v>0</v>
-      </c>
-      <c r="M39" s="10">
-        <v>0</v>
-      </c>
-      <c r="N39" s="10">
-        <v>0</v>
-      </c>
-      <c r="O39" s="10">
-        <v>0</v>
-      </c>
-      <c r="P39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>0</v>
-      </c>
-      <c r="R39" s="25">
-        <v>0</v>
-      </c>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="Y39" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="Z39" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA39" s="26" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
-      <c r="A40" s="9">
-        <v>37</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C40" s="10">
-        <v>10</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10">
-        <v>10</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0</v>
-      </c>
-      <c r="I40" s="10">
-        <v>0</v>
-      </c>
-      <c r="J40" s="10">
-        <v>2</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-      <c r="M40" s="10">
-        <v>0</v>
-      </c>
-      <c r="N40" s="10">
-        <v>0</v>
-      </c>
-      <c r="O40" s="10">
-        <v>0</v>
-      </c>
-      <c r="P40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>0</v>
-      </c>
-      <c r="R40" s="25">
-        <v>0</v>
-      </c>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="Y40" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="Z40" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA40" s="26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:27">
-      <c r="A41" s="11">
-        <v>38</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="C41" s="12">
-        <v>10</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12">
-        <v>0</v>
-      </c>
-      <c r="F41" s="12">
-        <v>10</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
-      </c>
-      <c r="I41" s="12">
-        <v>0</v>
-      </c>
-      <c r="J41" s="12">
-        <v>2</v>
-      </c>
-      <c r="K41" s="12">
-        <v>1</v>
-      </c>
-      <c r="L41" s="12">
-        <v>0</v>
-      </c>
-      <c r="M41" s="12">
-        <v>0</v>
-      </c>
-      <c r="N41" s="12">
-        <v>0</v>
-      </c>
-      <c r="O41" s="12">
-        <v>0</v>
-      </c>
-      <c r="P41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="12">
-        <v>0</v>
-      </c>
-      <c r="R41" s="28">
-        <v>0</v>
-      </c>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="Y41" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="Z41" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="AA41" s="29" t="s">
-        <v>362</v>
+      <c r="L41" s="31">
+        <v>0</v>
+      </c>
+      <c r="M41" s="31">
+        <v>0</v>
+      </c>
+      <c r="N41" s="31">
+        <v>0</v>
+      </c>
+      <c r="O41" s="31">
+        <v>0</v>
+      </c>
+      <c r="P41" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="31">
+        <v>0</v>
+      </c>
+      <c r="R41" s="32">
+        <v>0</v>
+      </c>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y41" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z41" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA41" s="33" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="535">
   <si>
     <t>流程：</t>
   </si>
@@ -638,6 +638,9 @@
     <t>res://scripts/buff/disable_one_buff.gd</t>
   </si>
   <si>
+    <t>pre_hero_turn_buff</t>
+  </si>
+  <si>
     <t>disable_two</t>
   </si>
   <si>
@@ -818,6 +821,9 @@
     <t>res://scripts/buff/target_score_up_buff.gd</t>
   </si>
   <si>
+    <t>pre_enemy_turn_buff</t>
+  </si>
+  <si>
     <t>current_score_down</t>
   </si>
   <si>
@@ -848,6 +854,9 @@
     <t>res://scripts/buff/move_current_score_down_buff.gd</t>
   </si>
   <si>
+    <t>post_hero_move_buff</t>
+  </si>
+  <si>
     <t>move_down</t>
   </si>
   <si>
@@ -878,9 +887,6 @@
     <t>res://scripts/buff/no_power_slime_buff.gd</t>
   </si>
   <si>
-    <t>pre_hero_turn_buff</t>
-  </si>
-  <si>
     <t>power_current_score_down</t>
   </si>
   <si>
@@ -896,6 +902,9 @@
     <t>res://scripts/buff/power_current_score_down_buff.gd</t>
   </si>
   <si>
+    <t>post_attack_buff</t>
+  </si>
+  <si>
     <t>reroll_slime</t>
   </si>
   <si>
@@ -909,9 +918,6 @@
   </si>
   <si>
     <t>res://scripts/buff/reroll_slime_buff.gd</t>
-  </si>
-  <si>
-    <t>pre_enemy_turn_buff</t>
   </si>
   <si>
     <t>slime_current_score_down</t>
@@ -5288,7 +5294,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H22"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5507,7 +5513,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5576,351 +5582,408 @@
       <c r="E3" t="s">
         <v>200</v>
       </c>
+      <c r="F3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" t="s">
         <v>201</v>
-      </c>
-      <c r="B4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="F6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="F7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="F8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>231</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="F11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="F14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+      <c r="F15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" t="s">
         <v>262</v>
-      </c>
-      <c r="C16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="F17" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>278</v>
+      </c>
+      <c r="F18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="F20" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="F22" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5935,7 +5998,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -5948,16 +6011,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5976,16 +6039,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6007,73 +6070,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -6082,168 +6145,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="S2" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>350</v>
-      </c>
       <c r="X2" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -6251,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C4" s="21">
         <v>10</v>
@@ -6307,16 +6370,16 @@
       <c r="V4" s="21"/>
       <c r="W4" s="23"/>
       <c r="X4" s="40" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -6324,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C5" s="26">
         <v>10</v>
@@ -6380,16 +6443,16 @@
       <c r="V5" s="26"/>
       <c r="W5" s="28"/>
       <c r="X5" s="29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -6397,7 +6460,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C6" s="26">
         <v>10</v>
@@ -6453,16 +6516,16 @@
       <c r="V6" s="26"/>
       <c r="W6" s="28"/>
       <c r="X6" s="29" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6470,7 +6533,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C7" s="26">
         <v>10</v>
@@ -6526,16 +6589,16 @@
       <c r="V7" s="26"/>
       <c r="W7" s="28"/>
       <c r="X7" s="29" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y7" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6543,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C8" s="26">
         <v>10</v>
@@ -6599,16 +6662,16 @@
       <c r="V8" s="26"/>
       <c r="W8" s="28"/>
       <c r="X8" s="29" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -6616,7 +6679,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C9" s="26">
         <v>10</v>
@@ -6672,16 +6735,16 @@
       <c r="V9" s="26"/>
       <c r="W9" s="28"/>
       <c r="X9" s="29" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6689,7 +6752,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C10" s="26">
         <v>10</v>
@@ -6745,16 +6808,16 @@
       <c r="V10" s="26"/>
       <c r="W10" s="28"/>
       <c r="X10" s="29" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Y10" s="26" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -6762,7 +6825,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -6818,16 +6881,16 @@
       <c r="V11" s="26"/>
       <c r="W11" s="28"/>
       <c r="X11" s="29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -6835,7 +6898,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C12" s="26">
         <v>10</v>
@@ -6891,16 +6954,16 @@
       <c r="V12" s="26"/>
       <c r="W12" s="28"/>
       <c r="X12" s="29" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Z12" s="26" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -6908,7 +6971,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C13" s="26">
         <v>10</v>
@@ -6964,16 +7027,16 @@
       <c r="V13" s="26"/>
       <c r="W13" s="28"/>
       <c r="X13" s="29" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Y13" s="26" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -6981,7 +7044,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C14" s="26">
         <v>10</v>
@@ -7037,16 +7100,16 @@
       <c r="V14" s="26"/>
       <c r="W14" s="28"/>
       <c r="X14" s="29" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z14" s="26" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -7054,7 +7117,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C15" s="26">
         <v>10</v>
@@ -7110,16 +7173,16 @@
       <c r="V15" s="26"/>
       <c r="W15" s="28"/>
       <c r="X15" s="29" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Z15" s="26" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -7127,7 +7190,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C16" s="26">
         <v>10</v>
@@ -7183,16 +7246,16 @@
       <c r="V16" s="26"/>
       <c r="W16" s="28"/>
       <c r="X16" s="29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z16" s="26" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -7200,7 +7263,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C17" s="26">
         <v>10</v>
@@ -7256,16 +7319,16 @@
       <c r="V17" s="26"/>
       <c r="W17" s="28"/>
       <c r="X17" s="29" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Y17" s="26" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Z17" s="26" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -7273,7 +7336,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C18" s="26">
         <v>10</v>
@@ -7329,16 +7392,16 @@
       <c r="V18" s="26"/>
       <c r="W18" s="28"/>
       <c r="X18" s="29" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Y18" s="26" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Z18" s="26" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AA18" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -7346,7 +7409,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C19" s="26">
         <v>10</v>
@@ -7402,16 +7465,16 @@
       <c r="V19" s="26"/>
       <c r="W19" s="28"/>
       <c r="X19" s="29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Y19" s="26" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Z19" s="26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -7419,7 +7482,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C20" s="26">
         <v>10</v>
@@ -7475,16 +7538,16 @@
       <c r="V20" s="26"/>
       <c r="W20" s="28"/>
       <c r="X20" s="29" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Y20" s="26" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Z20" s="26" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AA20" s="28" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -7492,7 +7555,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C21" s="26">
         <v>10</v>
@@ -7548,16 +7611,16 @@
       <c r="V21" s="26"/>
       <c r="W21" s="28"/>
       <c r="X21" s="29" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Y21" s="26" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z21" s="26" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -7565,7 +7628,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C22" s="26">
         <v>10</v>
@@ -7621,16 +7684,16 @@
       <c r="V22" s="26"/>
       <c r="W22" s="28"/>
       <c r="X22" s="29" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Y22" s="26" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Z22" s="26" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -7638,7 +7701,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C23" s="26">
         <v>10</v>
@@ -7694,16 +7757,16 @@
       <c r="V23" s="26"/>
       <c r="W23" s="28"/>
       <c r="X23" s="29" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -7711,7 +7774,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C24" s="26">
         <v>10</v>
@@ -7767,16 +7830,16 @@
       <c r="V24" s="26"/>
       <c r="W24" s="28"/>
       <c r="X24" s="29" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Y24" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AA24" s="28" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -7784,7 +7847,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C25" s="26">
         <v>10</v>
@@ -7840,16 +7903,16 @@
       <c r="V25" s="26"/>
       <c r="W25" s="28"/>
       <c r="X25" s="29" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Y25" s="26" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Z25" s="26" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -7857,7 +7920,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C26" s="26">
         <v>10</v>
@@ -7913,16 +7976,16 @@
       <c r="V26" s="26"/>
       <c r="W26" s="28"/>
       <c r="X26" s="29" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Y26" s="26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Z26" s="26" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AA26" s="28" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -7930,7 +7993,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C27" s="26">
         <v>10</v>
@@ -7986,16 +8049,16 @@
       <c r="V27" s="26"/>
       <c r="W27" s="28"/>
       <c r="X27" s="29" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Y27" s="26" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Z27" s="26" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -8003,7 +8066,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C28" s="26">
         <v>10</v>
@@ -8059,16 +8122,16 @@
       <c r="V28" s="26"/>
       <c r="W28" s="28"/>
       <c r="X28" s="29" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Z28" s="26" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AA28" s="28" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -8076,7 +8139,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C29" s="26">
         <v>10</v>
@@ -8132,16 +8195,16 @@
       <c r="V29" s="26"/>
       <c r="W29" s="28"/>
       <c r="X29" s="29" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Y29" s="26" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Z29" s="26" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AA29" s="28" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -8149,7 +8212,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C30" s="26">
         <v>10</v>
@@ -8205,16 +8268,16 @@
       <c r="V30" s="26"/>
       <c r="W30" s="28"/>
       <c r="X30" s="29" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Y30" s="26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Z30" s="26" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AA30" s="28" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -8222,7 +8285,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C31" s="26">
         <v>10</v>
@@ -8278,16 +8341,16 @@
       <c r="V31" s="26"/>
       <c r="W31" s="28"/>
       <c r="X31" s="29" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Y31" s="26" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Z31" s="26" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AA31" s="28" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -8295,7 +8358,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C32" s="26">
         <v>10</v>
@@ -8351,16 +8414,16 @@
       <c r="V32" s="26"/>
       <c r="W32" s="28"/>
       <c r="X32" s="29" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Y32" s="26" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z32" s="26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AA32" s="28" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -8368,7 +8431,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C33" s="26">
         <v>10</v>
@@ -8424,16 +8487,16 @@
       <c r="V33" s="26"/>
       <c r="W33" s="28"/>
       <c r="X33" s="29" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Y33" s="26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Z33" s="26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AA33" s="28" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -8441,7 +8504,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C34" s="26">
         <v>10</v>
@@ -8497,16 +8560,16 @@
       <c r="V34" s="26"/>
       <c r="W34" s="28"/>
       <c r="X34" s="29" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Y34" s="26" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Z34" s="26" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AA34" s="28" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -8514,7 +8577,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C35" s="26">
         <v>10</v>
@@ -8570,16 +8633,16 @@
       <c r="V35" s="26"/>
       <c r="W35" s="28"/>
       <c r="X35" s="29" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Y35" s="26" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Z35" s="26" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AA35" s="28" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -8587,7 +8650,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C36" s="26">
         <v>10</v>
@@ -8643,16 +8706,16 @@
       <c r="V36" s="26"/>
       <c r="W36" s="28"/>
       <c r="X36" s="29" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Y36" s="26" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Z36" s="26" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AA36" s="28" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -8660,7 +8723,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C37" s="26">
         <v>10</v>
@@ -8716,16 +8779,16 @@
       <c r="V37" s="26"/>
       <c r="W37" s="28"/>
       <c r="X37" s="29" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Y37" s="26" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Z37" s="26" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AA37" s="28" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -8733,7 +8796,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C38" s="26">
         <v>10</v>
@@ -8789,16 +8852,16 @@
       <c r="V38" s="26"/>
       <c r="W38" s="28"/>
       <c r="X38" s="29" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="Y38" s="26" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Z38" s="26" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AA38" s="28" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -8806,7 +8869,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C39" s="26">
         <v>10</v>
@@ -8862,16 +8925,16 @@
       <c r="V39" s="26"/>
       <c r="W39" s="28"/>
       <c r="X39" s="29" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Y39" s="26" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Z39" s="26" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AA39" s="28" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -8879,7 +8942,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C40" s="26">
         <v>10</v>
@@ -8935,16 +8998,16 @@
       <c r="V40" s="26"/>
       <c r="W40" s="28"/>
       <c r="X40" s="29" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Y40" s="26" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AA40" s="28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -8952,7 +9015,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C41" s="31">
         <v>10</v>
@@ -9008,16 +9071,16 @@
       <c r="V41" s="31"/>
       <c r="W41" s="33"/>
       <c r="X41" s="34" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Y41" s="31" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Z41" s="31" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AA41" s="33" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="540">
   <si>
     <t>流程：</t>
   </si>
@@ -566,6 +566,9 @@
     <t>奖励金币</t>
   </si>
   <si>
+    <t>类型图标</t>
+  </si>
+  <si>
     <t>stage_num</t>
   </si>
   <si>
@@ -578,13 +581,25 @@
     <t>reward_coin</t>
   </si>
   <si>
+    <t>stage_type_icon</t>
+  </si>
+  <si>
     <t>普通</t>
   </si>
   <si>
+    <t>res://images/enemy_icon/normal.png</t>
+  </si>
+  <si>
     <t>精英</t>
   </si>
   <si>
+    <t>res://images/enemy_icon/elite.png</t>
+  </si>
+  <si>
     <t>BOSS</t>
+  </si>
+  <si>
+    <t>res://images/enemy_icon/boss.png</t>
   </si>
   <si>
     <t>诅咒id</t>
@@ -5291,21 +5306,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -5318,22 +5334,28 @@
       <c r="D1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5341,13 +5363,16 @@
         <v>200</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5355,13 +5380,16 @@
         <v>300</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5369,13 +5397,16 @@
         <v>450</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5383,13 +5414,16 @@
         <v>675</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5397,13 +5431,16 @@
         <v>1000</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5411,13 +5448,16 @@
         <v>1500</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5425,13 +5465,16 @@
         <v>2250</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5439,13 +5482,16 @@
         <v>3375</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5453,13 +5499,16 @@
         <v>5000</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5467,13 +5516,16 @@
         <v>11250</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5481,13 +5533,16 @@
         <v>16875</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5495,10 +5550,13 @@
         <v>25000</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D14">
         <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5512,7 +5570,7 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -5528,462 +5586,462 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" t="s">
         <v>206</v>
-      </c>
-      <c r="F4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F15" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" t="s">
         <v>267</v>
-      </c>
-      <c r="F16" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F17" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F19" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F22" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6011,44 +6069,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6070,73 +6128,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -6145,168 +6203,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="V2" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>352</v>
-      </c>
       <c r="X2" s="11" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="14" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -6314,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C4" s="21">
         <v>10</v>
@@ -6370,16 +6428,16 @@
       <c r="V4" s="21"/>
       <c r="W4" s="23"/>
       <c r="X4" s="40" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -6387,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C5" s="26">
         <v>10</v>
@@ -6443,16 +6501,16 @@
       <c r="V5" s="26"/>
       <c r="W5" s="28"/>
       <c r="X5" s="29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -6460,7 +6518,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C6" s="26">
         <v>10</v>
@@ -6516,16 +6574,16 @@
       <c r="V6" s="26"/>
       <c r="W6" s="28"/>
       <c r="X6" s="29" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6533,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C7" s="26">
         <v>10</v>
@@ -6589,16 +6647,16 @@
       <c r="V7" s="26"/>
       <c r="W7" s="28"/>
       <c r="X7" s="29" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Y7" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6606,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C8" s="26">
         <v>10</v>
@@ -6662,16 +6720,16 @@
       <c r="V8" s="26"/>
       <c r="W8" s="28"/>
       <c r="X8" s="29" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -6679,7 +6737,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C9" s="26">
         <v>10</v>
@@ -6735,16 +6793,16 @@
       <c r="V9" s="26"/>
       <c r="W9" s="28"/>
       <c r="X9" s="29" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6752,7 +6810,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C10" s="26">
         <v>10</v>
@@ -6808,16 +6866,16 @@
       <c r="V10" s="26"/>
       <c r="W10" s="28"/>
       <c r="X10" s="29" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Y10" s="26" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -6825,7 +6883,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -6881,16 +6939,16 @@
       <c r="V11" s="26"/>
       <c r="W11" s="28"/>
       <c r="X11" s="29" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -6898,7 +6956,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C12" s="26">
         <v>10</v>
@@ -6954,16 +7012,16 @@
       <c r="V12" s="26"/>
       <c r="W12" s="28"/>
       <c r="X12" s="29" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Z12" s="26" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -6971,7 +7029,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C13" s="26">
         <v>10</v>
@@ -7027,16 +7085,16 @@
       <c r="V13" s="26"/>
       <c r="W13" s="28"/>
       <c r="X13" s="29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Y13" s="26" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -7044,7 +7102,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C14" s="26">
         <v>10</v>
@@ -7100,16 +7158,16 @@
       <c r="V14" s="26"/>
       <c r="W14" s="28"/>
       <c r="X14" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Z14" s="26" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -7117,7 +7175,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C15" s="26">
         <v>10</v>
@@ -7173,16 +7231,16 @@
       <c r="V15" s="26"/>
       <c r="W15" s="28"/>
       <c r="X15" s="29" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Z15" s="26" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -7190,7 +7248,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C16" s="26">
         <v>10</v>
@@ -7246,16 +7304,16 @@
       <c r="V16" s="26"/>
       <c r="W16" s="28"/>
       <c r="X16" s="29" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Z16" s="26" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -7263,7 +7321,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C17" s="26">
         <v>10</v>
@@ -7319,16 +7377,16 @@
       <c r="V17" s="26"/>
       <c r="W17" s="28"/>
       <c r="X17" s="29" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Y17" s="26" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Z17" s="26" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -7336,7 +7394,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C18" s="26">
         <v>10</v>
@@ -7392,16 +7450,16 @@
       <c r="V18" s="26"/>
       <c r="W18" s="28"/>
       <c r="X18" s="29" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Y18" s="26" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Z18" s="26" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AA18" s="28" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -7409,7 +7467,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C19" s="26">
         <v>10</v>
@@ -7465,16 +7523,16 @@
       <c r="V19" s="26"/>
       <c r="W19" s="28"/>
       <c r="X19" s="29" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Y19" s="26" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Z19" s="26" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -7482,7 +7540,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C20" s="26">
         <v>10</v>
@@ -7538,16 +7596,16 @@
       <c r="V20" s="26"/>
       <c r="W20" s="28"/>
       <c r="X20" s="29" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Y20" s="26" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Z20" s="26" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="AA20" s="28" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -7555,7 +7613,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C21" s="26">
         <v>10</v>
@@ -7611,16 +7669,16 @@
       <c r="V21" s="26"/>
       <c r="W21" s="28"/>
       <c r="X21" s="29" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Y21" s="26" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Z21" s="26" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -7628,7 +7686,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C22" s="26">
         <v>10</v>
@@ -7684,16 +7742,16 @@
       <c r="V22" s="26"/>
       <c r="W22" s="28"/>
       <c r="X22" s="29" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Y22" s="26" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Z22" s="26" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -7701,7 +7759,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C23" s="26">
         <v>10</v>
@@ -7757,16 +7815,16 @@
       <c r="V23" s="26"/>
       <c r="W23" s="28"/>
       <c r="X23" s="29" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -7774,7 +7832,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C24" s="26">
         <v>10</v>
@@ -7830,16 +7888,16 @@
       <c r="V24" s="26"/>
       <c r="W24" s="28"/>
       <c r="X24" s="29" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Y24" s="26" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AA24" s="28" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -7847,7 +7905,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C25" s="26">
         <v>10</v>
@@ -7903,16 +7961,16 @@
       <c r="V25" s="26"/>
       <c r="W25" s="28"/>
       <c r="X25" s="29" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Y25" s="26" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Z25" s="26" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -7920,7 +7978,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C26" s="26">
         <v>10</v>
@@ -7976,16 +8034,16 @@
       <c r="V26" s="26"/>
       <c r="W26" s="28"/>
       <c r="X26" s="29" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Y26" s="26" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Z26" s="26" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AA26" s="28" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -7993,7 +8051,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C27" s="26">
         <v>10</v>
@@ -8049,16 +8107,16 @@
       <c r="V27" s="26"/>
       <c r="W27" s="28"/>
       <c r="X27" s="29" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Y27" s="26" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Z27" s="26" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -8066,7 +8124,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C28" s="26">
         <v>10</v>
@@ -8122,16 +8180,16 @@
       <c r="V28" s="26"/>
       <c r="W28" s="28"/>
       <c r="X28" s="29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="Z28" s="26" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AA28" s="28" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -8139,7 +8197,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C29" s="26">
         <v>10</v>
@@ -8195,16 +8253,16 @@
       <c r="V29" s="26"/>
       <c r="W29" s="28"/>
       <c r="X29" s="29" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Y29" s="26" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Z29" s="26" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AA29" s="28" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -8212,7 +8270,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C30" s="26">
         <v>10</v>
@@ -8268,16 +8326,16 @@
       <c r="V30" s="26"/>
       <c r="W30" s="28"/>
       <c r="X30" s="29" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Y30" s="26" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="Z30" s="26" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AA30" s="28" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -8285,7 +8343,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C31" s="26">
         <v>10</v>
@@ -8341,16 +8399,16 @@
       <c r="V31" s="26"/>
       <c r="W31" s="28"/>
       <c r="X31" s="29" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Y31" s="26" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="Z31" s="26" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="AA31" s="28" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -8358,7 +8416,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C32" s="26">
         <v>10</v>
@@ -8414,16 +8472,16 @@
       <c r="V32" s="26"/>
       <c r="W32" s="28"/>
       <c r="X32" s="29" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Y32" s="26" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Z32" s="26" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AA32" s="28" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -8431,7 +8489,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C33" s="26">
         <v>10</v>
@@ -8487,16 +8545,16 @@
       <c r="V33" s="26"/>
       <c r="W33" s="28"/>
       <c r="X33" s="29" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Y33" s="26" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Z33" s="26" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="AA33" s="28" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -8504,7 +8562,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C34" s="26">
         <v>10</v>
@@ -8560,16 +8618,16 @@
       <c r="V34" s="26"/>
       <c r="W34" s="28"/>
       <c r="X34" s="29" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="Y34" s="26" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="Z34" s="26" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AA34" s="28" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -8577,7 +8635,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C35" s="26">
         <v>10</v>
@@ -8633,16 +8691,16 @@
       <c r="V35" s="26"/>
       <c r="W35" s="28"/>
       <c r="X35" s="29" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="Y35" s="26" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="Z35" s="26" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="AA35" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -8650,7 +8708,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C36" s="26">
         <v>10</v>
@@ -8706,16 +8764,16 @@
       <c r="V36" s="26"/>
       <c r="W36" s="28"/>
       <c r="X36" s="29" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Y36" s="26" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="Z36" s="26" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="AA36" s="28" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -8723,7 +8781,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C37" s="26">
         <v>10</v>
@@ -8779,16 +8837,16 @@
       <c r="V37" s="26"/>
       <c r="W37" s="28"/>
       <c r="X37" s="29" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="Y37" s="26" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Z37" s="26" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="AA37" s="28" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -8796,7 +8854,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C38" s="26">
         <v>10</v>
@@ -8852,16 +8910,16 @@
       <c r="V38" s="26"/>
       <c r="W38" s="28"/>
       <c r="X38" s="29" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Y38" s="26" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Z38" s="26" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="AA38" s="28" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -8869,7 +8927,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C39" s="26">
         <v>10</v>
@@ -8925,16 +8983,16 @@
       <c r="V39" s="26"/>
       <c r="W39" s="28"/>
       <c r="X39" s="29" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Y39" s="26" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Z39" s="26" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="AA39" s="28" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -8942,7 +9000,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C40" s="26">
         <v>10</v>
@@ -8998,16 +9056,16 @@
       <c r="V40" s="26"/>
       <c r="W40" s="28"/>
       <c r="X40" s="29" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="Y40" s="26" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="AA40" s="28" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -9015,7 +9073,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C41" s="31">
         <v>10</v>
@@ -9071,16 +9129,16 @@
       <c r="V41" s="31"/>
       <c r="W41" s="33"/>
       <c r="X41" s="34" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="Y41" s="31" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="Z41" s="31" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="AA41" s="33" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="541">
   <si>
     <t>流程：</t>
   </si>
@@ -987,6 +987,9 @@
   </si>
   <si>
     <t>每次攻击的得分-20%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/attack_score_down_buff.gd</t>
   </si>
   <si>
     <t>ID</t>
@@ -5308,8 +5311,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5571,7 +5574,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6053,21 +6056,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="50.375" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="54.875" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>310</v>
       </c>
@@ -6080,8 +6085,14 @@
       <c r="D1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -6094,8 +6105,14 @@
       <c r="D2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -6107,6 +6124,12 @@
       </c>
       <c r="D3" t="s">
         <v>317</v>
+      </c>
+      <c r="E3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F3" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -6128,73 +6151,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -6203,168 +6226,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>357</v>
-      </c>
       <c r="X2" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="X3" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="Y3" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="Z3" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="AA3" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -6372,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C4" s="21">
         <v>10</v>
@@ -6428,16 +6451,16 @@
       <c r="V4" s="21"/>
       <c r="W4" s="23"/>
       <c r="X4" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -6445,7 +6468,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C5" s="26">
         <v>10</v>
@@ -6501,16 +6524,16 @@
       <c r="V5" s="26"/>
       <c r="W5" s="28"/>
       <c r="X5" s="29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -6518,7 +6541,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C6" s="26">
         <v>10</v>
@@ -6574,16 +6597,16 @@
       <c r="V6" s="26"/>
       <c r="W6" s="28"/>
       <c r="X6" s="29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6591,7 +6614,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C7" s="26">
         <v>10</v>
@@ -6647,16 +6670,16 @@
       <c r="V7" s="26"/>
       <c r="W7" s="28"/>
       <c r="X7" s="29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y7" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6664,7 +6687,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C8" s="26">
         <v>10</v>
@@ -6720,16 +6743,16 @@
       <c r="V8" s="26"/>
       <c r="W8" s="28"/>
       <c r="X8" s="29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -6737,7 +6760,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C9" s="26">
         <v>10</v>
@@ -6793,16 +6816,16 @@
       <c r="V9" s="26"/>
       <c r="W9" s="28"/>
       <c r="X9" s="29" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6810,7 +6833,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C10" s="26">
         <v>10</v>
@@ -6866,16 +6889,16 @@
       <c r="V10" s="26"/>
       <c r="W10" s="28"/>
       <c r="X10" s="29" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y10" s="26" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -6883,7 +6906,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -6939,16 +6962,16 @@
       <c r="V11" s="26"/>
       <c r="W11" s="28"/>
       <c r="X11" s="29" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -6956,7 +6979,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C12" s="26">
         <v>10</v>
@@ -7012,16 +7035,16 @@
       <c r="V12" s="26"/>
       <c r="W12" s="28"/>
       <c r="X12" s="29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z12" s="26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -7029,7 +7052,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C13" s="26">
         <v>10</v>
@@ -7085,16 +7108,16 @@
       <c r="V13" s="26"/>
       <c r="W13" s="28"/>
       <c r="X13" s="29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y13" s="26" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -7102,7 +7125,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C14" s="26">
         <v>10</v>
@@ -7158,16 +7181,16 @@
       <c r="V14" s="26"/>
       <c r="W14" s="28"/>
       <c r="X14" s="29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z14" s="26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -7175,7 +7198,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C15" s="26">
         <v>10</v>
@@ -7231,16 +7254,16 @@
       <c r="V15" s="26"/>
       <c r="W15" s="28"/>
       <c r="X15" s="29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z15" s="26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -7248,7 +7271,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C16" s="26">
         <v>10</v>
@@ -7304,16 +7327,16 @@
       <c r="V16" s="26"/>
       <c r="W16" s="28"/>
       <c r="X16" s="29" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z16" s="26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -7321,7 +7344,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C17" s="26">
         <v>10</v>
@@ -7377,16 +7400,16 @@
       <c r="V17" s="26"/>
       <c r="W17" s="28"/>
       <c r="X17" s="29" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y17" s="26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z17" s="26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -7394,7 +7417,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C18" s="26">
         <v>10</v>
@@ -7450,16 +7473,16 @@
       <c r="V18" s="26"/>
       <c r="W18" s="28"/>
       <c r="X18" s="29" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y18" s="26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z18" s="26" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AA18" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -7467,7 +7490,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C19" s="26">
         <v>10</v>
@@ -7523,16 +7546,16 @@
       <c r="V19" s="26"/>
       <c r="W19" s="28"/>
       <c r="X19" s="29" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y19" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z19" s="26" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -7540,7 +7563,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C20" s="26">
         <v>10</v>
@@ -7596,16 +7619,16 @@
       <c r="V20" s="26"/>
       <c r="W20" s="28"/>
       <c r="X20" s="29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Y20" s="26" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z20" s="26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA20" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -7613,7 +7636,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C21" s="26">
         <v>10</v>
@@ -7669,16 +7692,16 @@
       <c r="V21" s="26"/>
       <c r="W21" s="28"/>
       <c r="X21" s="29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Y21" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z21" s="26" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -7686,7 +7709,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C22" s="26">
         <v>10</v>
@@ -7742,16 +7765,16 @@
       <c r="V22" s="26"/>
       <c r="W22" s="28"/>
       <c r="X22" s="29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y22" s="26" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z22" s="26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -7759,7 +7782,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C23" s="26">
         <v>10</v>
@@ -7815,16 +7838,16 @@
       <c r="V23" s="26"/>
       <c r="W23" s="28"/>
       <c r="X23" s="29" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -7832,7 +7855,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C24" s="26">
         <v>10</v>
@@ -7888,16 +7911,16 @@
       <c r="V24" s="26"/>
       <c r="W24" s="28"/>
       <c r="X24" s="29" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y24" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA24" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -7905,7 +7928,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C25" s="26">
         <v>10</v>
@@ -7961,16 +7984,16 @@
       <c r="V25" s="26"/>
       <c r="W25" s="28"/>
       <c r="X25" s="29" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Y25" s="26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z25" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -7978,7 +8001,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C26" s="26">
         <v>10</v>
@@ -8034,16 +8057,16 @@
       <c r="V26" s="26"/>
       <c r="W26" s="28"/>
       <c r="X26" s="29" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Y26" s="26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z26" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA26" s="28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -8051,7 +8074,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C27" s="26">
         <v>10</v>
@@ -8107,16 +8130,16 @@
       <c r="V27" s="26"/>
       <c r="W27" s="28"/>
       <c r="X27" s="29" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y27" s="26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z27" s="26" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -8124,7 +8147,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C28" s="26">
         <v>10</v>
@@ -8180,16 +8203,16 @@
       <c r="V28" s="26"/>
       <c r="W28" s="28"/>
       <c r="X28" s="29" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z28" s="26" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA28" s="28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -8197,7 +8220,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C29" s="26">
         <v>10</v>
@@ -8253,16 +8276,16 @@
       <c r="V29" s="26"/>
       <c r="W29" s="28"/>
       <c r="X29" s="29" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Y29" s="26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z29" s="26" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA29" s="28" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -8270,7 +8293,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C30" s="26">
         <v>10</v>
@@ -8326,16 +8349,16 @@
       <c r="V30" s="26"/>
       <c r="W30" s="28"/>
       <c r="X30" s="29" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y30" s="26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z30" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA30" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -8343,7 +8366,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C31" s="26">
         <v>10</v>
@@ -8399,16 +8422,16 @@
       <c r="V31" s="26"/>
       <c r="W31" s="28"/>
       <c r="X31" s="29" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y31" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z31" s="26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA31" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -8416,7 +8439,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C32" s="26">
         <v>10</v>
@@ -8472,16 +8495,16 @@
       <c r="V32" s="26"/>
       <c r="W32" s="28"/>
       <c r="X32" s="29" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Y32" s="26" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z32" s="26" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA32" s="28" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -8489,7 +8512,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C33" s="26">
         <v>10</v>
@@ -8545,16 +8568,16 @@
       <c r="V33" s="26"/>
       <c r="W33" s="28"/>
       <c r="X33" s="29" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y33" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z33" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AA33" s="28" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -8562,7 +8585,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C34" s="26">
         <v>10</v>
@@ -8618,16 +8641,16 @@
       <c r="V34" s="26"/>
       <c r="W34" s="28"/>
       <c r="X34" s="29" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y34" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z34" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA34" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -8635,7 +8658,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C35" s="26">
         <v>10</v>
@@ -8691,16 +8714,16 @@
       <c r="V35" s="26"/>
       <c r="W35" s="28"/>
       <c r="X35" s="29" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y35" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z35" s="26" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AA35" s="28" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -8708,7 +8731,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C36" s="26">
         <v>10</v>
@@ -8764,16 +8787,16 @@
       <c r="V36" s="26"/>
       <c r="W36" s="28"/>
       <c r="X36" s="29" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Y36" s="26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z36" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA36" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -8781,7 +8804,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C37" s="26">
         <v>10</v>
@@ -8837,16 +8860,16 @@
       <c r="V37" s="26"/>
       <c r="W37" s="28"/>
       <c r="X37" s="29" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Y37" s="26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z37" s="26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA37" s="28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -8854,7 +8877,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C38" s="26">
         <v>10</v>
@@ -8910,16 +8933,16 @@
       <c r="V38" s="26"/>
       <c r="W38" s="28"/>
       <c r="X38" s="29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Y38" s="26" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z38" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA38" s="28" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -8927,7 +8950,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C39" s="26">
         <v>10</v>
@@ -8983,16 +9006,16 @@
       <c r="V39" s="26"/>
       <c r="W39" s="28"/>
       <c r="X39" s="29" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Y39" s="26" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Z39" s="26" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AA39" s="28" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -9000,7 +9023,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C40" s="26">
         <v>10</v>
@@ -9056,16 +9079,16 @@
       <c r="V40" s="26"/>
       <c r="W40" s="28"/>
       <c r="X40" s="29" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Y40" s="26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA40" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -9073,7 +9096,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C41" s="31">
         <v>10</v>
@@ -9129,16 +9152,16 @@
       <c r="V41" s="31"/>
       <c r="W41" s="33"/>
       <c r="X41" s="34" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Y41" s="31" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Z41" s="31" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AA41" s="33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
@@ -449,7 +449,7 @@
     <t>coin_skill_icon</t>
   </si>
   <si>
-    <t>card_tooltip</t>
+    <t>coin_skill_tooltip</t>
   </si>
   <si>
     <t>coin_skill_cost</t>
@@ -5094,8 +5094,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6058,7 +6058,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="673" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="设计" sheetId="35" r:id="rId1"/>
     <sheet name="card_level_up" sheetId="36" r:id="rId2"/>
     <sheet name="coin_skill" sheetId="37" r:id="rId3"/>
     <sheet name="stage_info" sheetId="38" r:id="rId4"/>
-    <sheet name="debuff" sheetId="39" r:id="rId5"/>
-    <sheet name="boss_debuff" sheetId="40" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="buff" sheetId="41" r:id="rId5"/>
+    <sheet name="debuff" sheetId="39" r:id="rId6"/>
+    <sheet name="boss_debuff" sheetId="40" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="699">
   <si>
     <t>流程：</t>
   </si>
@@ -620,6 +621,483 @@
     <t>诅咒类型</t>
   </si>
   <si>
+    <t>buff_id</t>
+  </si>
+  <si>
+    <t>buff_name</t>
+  </si>
+  <si>
+    <t>buff_icon</t>
+  </si>
+  <si>
+    <t>buff_tooltip</t>
+  </si>
+  <si>
+    <t>buff_res</t>
+  </si>
+  <si>
+    <t>buff_type</t>
+  </si>
+  <si>
+    <t>slime_plus_one</t>
+  </si>
+  <si>
+    <t>多生成1史莱姆</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/slime_plus_one.png</t>
+  </si>
+  <si>
+    <t>每回合多生成1个史莱姆</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/slime_plus_one_buff.gd</t>
+  </si>
+  <si>
+    <t>pre_enemy_turn_buff</t>
+  </si>
+  <si>
+    <t>slime_sum_score_increase</t>
+  </si>
+  <si>
+    <t>回合结束每个史莱姆加分</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/slime_sum_score_increase.png</t>
+  </si>
+  <si>
+    <t>回合结束时，每有1个史莱姆获得10分</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/slime_sum_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>no_attack</t>
+  </si>
+  <si>
+    <t>不攻击加分</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/no_attack.png</t>
+  </si>
+  <si>
+    <t>本回合没有攻击，当前分数增加10%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/no_attack_buff.gd</t>
+  </si>
+  <si>
+    <t>slime_attack_score_increase</t>
+  </si>
+  <si>
+    <t>史莱姆数量攻击加分</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/slime_attack_score_increase.png</t>
+  </si>
+  <si>
+    <t>攻击后，每有1个史莱姆，以这次得分为基础，额外增加2%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/slime_attack_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>attack_over_four</t>
+  </si>
+  <si>
+    <t>一次击杀4个及以上</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/attack_over_four.png</t>
+  </si>
+  <si>
+    <t>一次击杀4个及以上，以这次得分为基础，额外增加20%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/attack_over_four_buff.gd</t>
+  </si>
+  <si>
+    <t>attack_over_five</t>
+  </si>
+  <si>
+    <t>一次击杀5个及以上</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/attack_over_five.png</t>
+  </si>
+  <si>
+    <t>一次击杀5个及以上，以这次得分为基础，额外增加40%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/attack_over_five_buff.gd</t>
+  </si>
+  <si>
+    <t>attack_over_six</t>
+  </si>
+  <si>
+    <t>一次击杀6个及以上</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/attack_over_six.png</t>
+  </si>
+  <si>
+    <t>一次击杀6个及以上，以这次得分为基础，额外增加60%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/attack_over_six_buff.gd</t>
+  </si>
+  <si>
+    <t>full_range_slime_double_score</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/full_range_slime_double_score.png</t>
+  </si>
+  <si>
+    <t>技能的攻击范围内都有史莱姆，以这次得分为基础，额外增加100%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/full_range_slime_double_score_buff.gd</t>
+  </si>
+  <si>
+    <t>move_current_score_increase</t>
+  </si>
+  <si>
+    <t>移动加分</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/move_current_score_increase.png</t>
+  </si>
+  <si>
+    <t>每移动1格，增加1%的当前分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/move_current_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>movement_plus_one</t>
+  </si>
+  <si>
+    <t>移动力增加</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/movement_plus_one.png</t>
+  </si>
+  <si>
+    <t>移动力+1</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/movement_plus_one_buff.gd</t>
+  </si>
+  <si>
+    <t>move_attack_score_increase</t>
+  </si>
+  <si>
+    <t>移动力击杀额外加分</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/move_attack_score_increase.png</t>
+  </si>
+  <si>
+    <t>攻击后，每有1点移动力，以这次得分为基础，额外增加10%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/move_attack_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>coin_slime_plus_one</t>
+  </si>
+  <si>
+    <t>金币史莱姆+1</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/coin_slime_plus_one.png</t>
+  </si>
+  <si>
+    <t>金币史莱姆总量+1</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/coin_slime_plus_one_buff.gd</t>
+  </si>
+  <si>
+    <t>attack_coin_slime_score_increase</t>
+  </si>
+  <si>
+    <t>击杀金币史莱姆</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/attack_coin_slime_score_increase.png</t>
+  </si>
+  <si>
+    <t>击杀金币史莱姆，增加20%的当前分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/attack_coin_slime_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>turn_coin_increase</t>
+  </si>
+  <si>
+    <t>回合结束金币增加</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/turn_coin_increase.png</t>
+  </si>
+  <si>
+    <t>回合结束金币+1</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/turn_coin_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>coin_attack_score_increase</t>
+  </si>
+  <si>
+    <t>金币数量击杀增加分数</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/coin_attack_score_increase.png</t>
+  </si>
+  <si>
+    <t>攻击后，每有1个金币，以这次得分为基础，额外增加1%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/coin_attack_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>power_slime_plus_one</t>
+  </si>
+  <si>
+    <t>能量史莱姆+1</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/power_slime_plus_one.png</t>
+  </si>
+  <si>
+    <t>能量史莱姆总量+1</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/power_slime_plus_one_buff.gd</t>
+  </si>
+  <si>
+    <t>attack_power_slime_score_increase</t>
+  </si>
+  <si>
+    <t>击杀能量史莱姆</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/attack_power_slime_score_increase.png</t>
+  </si>
+  <si>
+    <t>击杀能量史莱姆，增加20%的当前分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/attack_power_slime_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>max_power_puls_one</t>
+  </si>
+  <si>
+    <t>能量上限+1</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/max_power_puls_one.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/max_power_puls_one_buff.gd</t>
+  </si>
+  <si>
+    <t>power_attack_score_increase</t>
+  </si>
+  <si>
+    <t>使用能量击杀加分</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/power_attack_score_increase.png</t>
+  </si>
+  <si>
+    <t>攻击后，如果使用了能量，以这次得分为基础，额外增加20%倍率的分数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/power_attack_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>slime_base_score_increase</t>
+  </si>
+  <si>
+    <t>击杀史莱姆全点数分值+1</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/slime_base_score_increase.png</t>
+  </si>
+  <si>
+    <t>每击杀1个史莱姆，随机1个点数分值+1</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/slime_base_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>slime_percent_score_increase</t>
+  </si>
+  <si>
+    <t>击杀史莱姆全骰型倍率+2%</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/slime_percent_score_increase.png</t>
+  </si>
+  <si>
+    <t>每击杀1个史莱姆，随机1个骰型倍率+2%</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/slime_percent_score_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>turn_plus_one</t>
+  </si>
+  <si>
+    <t>第一回合结束不增加回合数</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/turn_plus_one.png</t>
+  </si>
+  <si>
+    <t>第一回合不会增加回合数</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/turn_plus_one_buff.gd</t>
+  </si>
+  <si>
+    <t>free_refresh_one_times</t>
+  </si>
+  <si>
+    <t>免费刷新商店一次</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/free_refresh_one_times.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/free_refresh_one_times_buff.gd</t>
+  </si>
+  <si>
+    <t>green_slime_probability_increase</t>
+  </si>
+  <si>
+    <t>绿色史莱姆概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/green_slime_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/green_slime_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>red_slime_probability_increase</t>
+  </si>
+  <si>
+    <t>红色史莱姆概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/red_slime_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/red_slime_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>blue_slime_probability_increase</t>
+  </si>
+  <si>
+    <t>蓝色史莱姆概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/blue_slime_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/blue_slime_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>yellow_slime_probability_increase</t>
+  </si>
+  <si>
+    <t>黄色史莱姆概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/yellow_slime_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/yellow_slime_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>one_point_probability_increase</t>
+  </si>
+  <si>
+    <t>一点骰子概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/one_point_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/one_point_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>two_point_probability_increase</t>
+  </si>
+  <si>
+    <t>二点骰子概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/two_point_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/two_point_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>three_point_probability_increase</t>
+  </si>
+  <si>
+    <t>三点骰子概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/three_point_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/three_point_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>four_point_probability_increase</t>
+  </si>
+  <si>
+    <t>四点骰子概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/four_point_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/four_point_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>five_point_probability_increase</t>
+  </si>
+  <si>
+    <t>五点骰子概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/five_point_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/five_point_probability_increase_buff.gd</t>
+  </si>
+  <si>
+    <t>six_point_probability_increase</t>
+  </si>
+  <si>
+    <t>六点骰子概率上升</t>
+  </si>
+  <si>
+    <t>res://images/buff_icon/six_point_probability_increase.png</t>
+  </si>
+  <si>
+    <t>res://scripts/buff/six_point_probability_increase_buff.gd</t>
+  </si>
+  <si>
     <t>debuff_id</t>
   </si>
   <si>
@@ -834,9 +1312,6 @@
   </si>
   <si>
     <t>res://scripts/buff/target_score_up_buff.gd</t>
-  </si>
-  <si>
-    <t>pre_enemy_turn_buff</t>
   </si>
   <si>
     <t>current_score_down</t>
@@ -5094,8 +5569,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5571,10 +6046,642 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="65.25" customWidth="1"/>
+    <col min="5" max="5" width="60.375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" t="s">
+        <v>315</v>
+      </c>
+      <c r="E26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B30" t="s">
+        <v>331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" t="s">
+        <v>351</v>
+      </c>
+      <c r="E35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5609,442 +6716,442 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>364</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>370</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>374</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>375</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>385</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>389</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>390</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>394</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>400</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>404</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>405</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>408</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>409</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>413</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>414</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>415</v>
       </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>418</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>419</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>420</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>423</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>424</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>427</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>428</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>429</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>430</v>
       </c>
       <c r="F16" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>432</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>433</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>434</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>435</v>
       </c>
       <c r="F17" t="s">
-        <v>278</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>437</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>438</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>439</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>440</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>441</v>
       </c>
       <c r="F18" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>442</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>444</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>445</v>
       </c>
       <c r="E19" t="s">
-        <v>288</v>
+        <v>446</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>449</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>450</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>451</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>453</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>454</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>455</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>456</v>
       </c>
       <c r="E21" t="s">
-        <v>299</v>
+        <v>457</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>458</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>459</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>460</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
+        <v>462</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>465</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>466</v>
       </c>
       <c r="E23" t="s">
-        <v>309</v>
+        <v>467</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6053,7 +7160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -6074,16 +7181,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>469</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="D1" t="s">
-        <v>313</v>
+        <v>471</v>
       </c>
       <c r="E1" t="s">
         <v>193</v>
@@ -6094,42 +7201,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>356</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>476</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6138,7 +7245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA41"/>
@@ -6151,73 +7258,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>478</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>321</v>
+        <v>479</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>322</v>
+        <v>480</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>324</v>
+        <v>482</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>325</v>
+        <v>483</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>326</v>
+        <v>484</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>327</v>
+        <v>485</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>328</v>
+        <v>486</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>329</v>
+        <v>487</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>330</v>
+        <v>488</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>331</v>
+        <v>489</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>332</v>
+        <v>490</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>333</v>
+        <v>491</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>334</v>
+        <v>492</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>335</v>
+        <v>493</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>336</v>
+        <v>494</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>337</v>
+        <v>495</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>338</v>
+        <v>496</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>339</v>
+        <v>497</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>340</v>
+        <v>498</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>341</v>
+        <v>499</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -6226,168 +7333,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="7" t="s">
-        <v>342</v>
+        <v>500</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>343</v>
+        <v>501</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>344</v>
+        <v>502</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>345</v>
+        <v>503</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>346</v>
+        <v>504</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>347</v>
+        <v>505</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>348</v>
+        <v>506</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>349</v>
+        <v>507</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>350</v>
+        <v>508</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>351</v>
+        <v>509</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>352</v>
+        <v>510</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>353</v>
+        <v>511</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>354</v>
+        <v>512</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>355</v>
+        <v>513</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>356</v>
+        <v>514</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>357</v>
+        <v>515</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>358</v>
+        <v>516</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>359</v>
+        <v>517</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>360</v>
+        <v>518</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>361</v>
+        <v>519</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>362</v>
+        <v>520</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>363</v>
+        <v>521</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>358</v>
+        <v>516</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>364</v>
+        <v>522</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>365</v>
+        <v>523</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>366</v>
+        <v>524</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>367</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="14" t="s">
-        <v>368</v>
+        <v>526</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>368</v>
+        <v>526</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>369</v>
+        <v>527</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>368</v>
+        <v>526</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>368</v>
+        <v>526</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>368</v>
+        <v>526</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>368</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -6395,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>370</v>
+        <v>528</v>
       </c>
       <c r="C4" s="21">
         <v>10</v>
@@ -6451,16 +7558,16 @@
       <c r="V4" s="21"/>
       <c r="W4" s="23"/>
       <c r="X4" s="40" t="s">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>373</v>
+        <v>531</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -6468,7 +7575,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>375</v>
+        <v>533</v>
       </c>
       <c r="C5" s="26">
         <v>10</v>
@@ -6524,16 +7631,16 @@
       <c r="V5" s="26"/>
       <c r="W5" s="28"/>
       <c r="X5" s="29" t="s">
-        <v>376</v>
+        <v>534</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>377</v>
+        <v>535</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>348</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -6541,7 +7648,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>378</v>
+        <v>536</v>
       </c>
       <c r="C6" s="26">
         <v>10</v>
@@ -6597,16 +7704,16 @@
       <c r="V6" s="26"/>
       <c r="W6" s="28"/>
       <c r="X6" s="29" t="s">
-        <v>379</v>
+        <v>537</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>380</v>
+        <v>538</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>381</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6614,7 +7721,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>382</v>
+        <v>540</v>
       </c>
       <c r="C7" s="26">
         <v>10</v>
@@ -6670,16 +7777,16 @@
       <c r="V7" s="26"/>
       <c r="W7" s="28"/>
       <c r="X7" s="29" t="s">
-        <v>383</v>
+        <v>541</v>
       </c>
       <c r="Y7" s="26" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>384</v>
+        <v>542</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>385</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -6687,7 +7794,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>386</v>
+        <v>544</v>
       </c>
       <c r="C8" s="26">
         <v>10</v>
@@ -6743,16 +7850,16 @@
       <c r="V8" s="26"/>
       <c r="W8" s="28"/>
       <c r="X8" s="29" t="s">
-        <v>387</v>
+        <v>545</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>388</v>
+        <v>546</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>389</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -6760,7 +7867,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>390</v>
+        <v>548</v>
       </c>
       <c r="C9" s="26">
         <v>10</v>
@@ -6816,16 +7923,16 @@
       <c r="V9" s="26"/>
       <c r="W9" s="28"/>
       <c r="X9" s="29" t="s">
-        <v>391</v>
+        <v>549</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>392</v>
+        <v>550</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>393</v>
+        <v>551</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -6833,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>395</v>
+        <v>553</v>
       </c>
       <c r="C10" s="26">
         <v>10</v>
@@ -6889,16 +7996,16 @@
       <c r="V10" s="26"/>
       <c r="W10" s="28"/>
       <c r="X10" s="29" t="s">
-        <v>396</v>
+        <v>554</v>
       </c>
       <c r="Y10" s="26" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>398</v>
+        <v>556</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>399</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -6906,7 +8013,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>358</v>
+        <v>516</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -6962,16 +8069,16 @@
       <c r="V11" s="26"/>
       <c r="W11" s="28"/>
       <c r="X11" s="29" t="s">
-        <v>400</v>
+        <v>558</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>401</v>
+        <v>559</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>402</v>
+        <v>560</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>403</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -6979,7 +8086,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>404</v>
+        <v>562</v>
       </c>
       <c r="C12" s="26">
         <v>10</v>
@@ -7035,16 +8142,16 @@
       <c r="V12" s="26"/>
       <c r="W12" s="28"/>
       <c r="X12" s="29" t="s">
-        <v>405</v>
+        <v>563</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>406</v>
+        <v>564</v>
       </c>
       <c r="Z12" s="26" t="s">
-        <v>407</v>
+        <v>565</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>408</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -7052,7 +8159,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>409</v>
+        <v>567</v>
       </c>
       <c r="C13" s="26">
         <v>10</v>
@@ -7108,16 +8215,16 @@
       <c r="V13" s="26"/>
       <c r="W13" s="28"/>
       <c r="X13" s="29" t="s">
-        <v>410</v>
+        <v>568</v>
       </c>
       <c r="Y13" s="26" t="s">
-        <v>401</v>
+        <v>559</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>411</v>
+        <v>569</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>412</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -7125,7 +8232,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>413</v>
+        <v>571</v>
       </c>
       <c r="C14" s="26">
         <v>10</v>
@@ -7181,16 +8288,16 @@
       <c r="V14" s="26"/>
       <c r="W14" s="28"/>
       <c r="X14" s="29" t="s">
-        <v>414</v>
+        <v>572</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>415</v>
+        <v>573</v>
       </c>
       <c r="Z14" s="26" t="s">
-        <v>416</v>
+        <v>574</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>417</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -7198,7 +8305,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>418</v>
+        <v>576</v>
       </c>
       <c r="C15" s="26">
         <v>10</v>
@@ -7254,16 +8361,16 @@
       <c r="V15" s="26"/>
       <c r="W15" s="28"/>
       <c r="X15" s="29" t="s">
-        <v>419</v>
+        <v>577</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>420</v>
+        <v>578</v>
       </c>
       <c r="Z15" s="26" t="s">
-        <v>421</v>
+        <v>579</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -7271,7 +8378,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>422</v>
+        <v>580</v>
       </c>
       <c r="C16" s="26">
         <v>10</v>
@@ -7327,16 +8434,16 @@
       <c r="V16" s="26"/>
       <c r="W16" s="28"/>
       <c r="X16" s="29" t="s">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>424</v>
+        <v>582</v>
       </c>
       <c r="Z16" s="26" t="s">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -7344,7 +8451,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>426</v>
+        <v>584</v>
       </c>
       <c r="C17" s="26">
         <v>10</v>
@@ -7400,16 +8507,16 @@
       <c r="V17" s="26"/>
       <c r="W17" s="28"/>
       <c r="X17" s="29" t="s">
-        <v>427</v>
+        <v>585</v>
       </c>
       <c r="Y17" s="26" t="s">
-        <v>428</v>
+        <v>586</v>
       </c>
       <c r="Z17" s="26" t="s">
-        <v>429</v>
+        <v>587</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>430</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -7417,7 +8524,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>431</v>
+        <v>589</v>
       </c>
       <c r="C18" s="26">
         <v>10</v>
@@ -7473,16 +8580,16 @@
       <c r="V18" s="26"/>
       <c r="W18" s="28"/>
       <c r="X18" s="29" t="s">
-        <v>432</v>
+        <v>590</v>
       </c>
       <c r="Y18" s="26" t="s">
-        <v>433</v>
+        <v>591</v>
       </c>
       <c r="Z18" s="26" t="s">
-        <v>434</v>
+        <v>592</v>
       </c>
       <c r="AA18" s="28" t="s">
-        <v>348</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -7490,7 +8597,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>435</v>
+        <v>593</v>
       </c>
       <c r="C19" s="26">
         <v>10</v>
@@ -7546,16 +8653,16 @@
       <c r="V19" s="26"/>
       <c r="W19" s="28"/>
       <c r="X19" s="29" t="s">
-        <v>436</v>
+        <v>594</v>
       </c>
       <c r="Y19" s="26" t="s">
-        <v>437</v>
+        <v>595</v>
       </c>
       <c r="Z19" s="26" t="s">
-        <v>438</v>
+        <v>596</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -7563,7 +8670,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>439</v>
+        <v>597</v>
       </c>
       <c r="C20" s="26">
         <v>10</v>
@@ -7619,16 +8726,16 @@
       <c r="V20" s="26"/>
       <c r="W20" s="28"/>
       <c r="X20" s="29" t="s">
-        <v>440</v>
+        <v>598</v>
       </c>
       <c r="Y20" s="26" t="s">
-        <v>441</v>
+        <v>599</v>
       </c>
       <c r="Z20" s="26" t="s">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="AA20" s="28" t="s">
-        <v>346</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -7636,7 +8743,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>443</v>
+        <v>601</v>
       </c>
       <c r="C21" s="26">
         <v>10</v>
@@ -7692,16 +8799,16 @@
       <c r="V21" s="26"/>
       <c r="W21" s="28"/>
       <c r="X21" s="29" t="s">
-        <v>444</v>
+        <v>602</v>
       </c>
       <c r="Y21" s="26" t="s">
-        <v>445</v>
+        <v>603</v>
       </c>
       <c r="Z21" s="26" t="s">
-        <v>446</v>
+        <v>604</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>359</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -7709,7 +8816,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>447</v>
+        <v>605</v>
       </c>
       <c r="C22" s="26">
         <v>10</v>
@@ -7765,16 +8872,16 @@
       <c r="V22" s="26"/>
       <c r="W22" s="28"/>
       <c r="X22" s="29" t="s">
-        <v>448</v>
+        <v>606</v>
       </c>
       <c r="Y22" s="26" t="s">
-        <v>449</v>
+        <v>607</v>
       </c>
       <c r="Z22" s="26" t="s">
-        <v>450</v>
+        <v>608</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>451</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -7782,7 +8889,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>452</v>
+        <v>610</v>
       </c>
       <c r="C23" s="26">
         <v>10</v>
@@ -7838,16 +8945,16 @@
       <c r="V23" s="26"/>
       <c r="W23" s="28"/>
       <c r="X23" s="29" t="s">
-        <v>453</v>
+        <v>611</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>454</v>
+        <v>612</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>455</v>
+        <v>613</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>456</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -7855,7 +8962,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>457</v>
+        <v>615</v>
       </c>
       <c r="C24" s="26">
         <v>10</v>
@@ -7911,16 +9018,16 @@
       <c r="V24" s="26"/>
       <c r="W24" s="28"/>
       <c r="X24" s="29" t="s">
-        <v>458</v>
+        <v>616</v>
       </c>
       <c r="Y24" s="26" t="s">
-        <v>459</v>
+        <v>617</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>460</v>
+        <v>618</v>
       </c>
       <c r="AA24" s="28" t="s">
-        <v>461</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -7928,7 +9035,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>462</v>
+        <v>620</v>
       </c>
       <c r="C25" s="26">
         <v>10</v>
@@ -7984,16 +9091,16 @@
       <c r="V25" s="26"/>
       <c r="W25" s="28"/>
       <c r="X25" s="29" t="s">
-        <v>463</v>
+        <v>621</v>
       </c>
       <c r="Y25" s="26" t="s">
-        <v>464</v>
+        <v>622</v>
       </c>
       <c r="Z25" s="26" t="s">
-        <v>465</v>
+        <v>623</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>353</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -8001,7 +9108,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>466</v>
+        <v>624</v>
       </c>
       <c r="C26" s="26">
         <v>10</v>
@@ -8057,16 +9164,16 @@
       <c r="V26" s="26"/>
       <c r="W26" s="28"/>
       <c r="X26" s="29" t="s">
-        <v>467</v>
+        <v>625</v>
       </c>
       <c r="Y26" s="26" t="s">
-        <v>468</v>
+        <v>626</v>
       </c>
       <c r="Z26" s="26" t="s">
-        <v>469</v>
+        <v>627</v>
       </c>
       <c r="AA26" s="28" t="s">
-        <v>470</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -8074,7 +9181,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>471</v>
+        <v>629</v>
       </c>
       <c r="C27" s="26">
         <v>10</v>
@@ -8130,16 +9237,16 @@
       <c r="V27" s="26"/>
       <c r="W27" s="28"/>
       <c r="X27" s="29" t="s">
-        <v>472</v>
+        <v>630</v>
       </c>
       <c r="Y27" s="26" t="s">
-        <v>473</v>
+        <v>631</v>
       </c>
       <c r="Z27" s="26" t="s">
-        <v>474</v>
+        <v>632</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>475</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -8147,7 +9254,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>476</v>
+        <v>634</v>
       </c>
       <c r="C28" s="26">
         <v>10</v>
@@ -8203,16 +9310,16 @@
       <c r="V28" s="26"/>
       <c r="W28" s="28"/>
       <c r="X28" s="29" t="s">
-        <v>477</v>
+        <v>635</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>478</v>
+        <v>636</v>
       </c>
       <c r="Z28" s="26" t="s">
-        <v>479</v>
+        <v>637</v>
       </c>
       <c r="AA28" s="28" t="s">
-        <v>480</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -8220,7 +9327,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>481</v>
+        <v>639</v>
       </c>
       <c r="C29" s="26">
         <v>10</v>
@@ -8276,16 +9383,16 @@
       <c r="V29" s="26"/>
       <c r="W29" s="28"/>
       <c r="X29" s="29" t="s">
-        <v>482</v>
+        <v>640</v>
       </c>
       <c r="Y29" s="26" t="s">
-        <v>483</v>
+        <v>641</v>
       </c>
       <c r="Z29" s="26" t="s">
-        <v>484</v>
+        <v>642</v>
       </c>
       <c r="AA29" s="28" t="s">
-        <v>485</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -8293,7 +9400,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>486</v>
+        <v>644</v>
       </c>
       <c r="C30" s="26">
         <v>10</v>
@@ -8349,16 +9456,16 @@
       <c r="V30" s="26"/>
       <c r="W30" s="28"/>
       <c r="X30" s="29" t="s">
-        <v>487</v>
+        <v>645</v>
       </c>
       <c r="Y30" s="26" t="s">
-        <v>488</v>
+        <v>646</v>
       </c>
       <c r="Z30" s="26" t="s">
-        <v>489</v>
+        <v>647</v>
       </c>
       <c r="AA30" s="28" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -8366,7 +9473,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>490</v>
+        <v>648</v>
       </c>
       <c r="C31" s="26">
         <v>10</v>
@@ -8422,16 +9529,16 @@
       <c r="V31" s="26"/>
       <c r="W31" s="28"/>
       <c r="X31" s="29" t="s">
-        <v>491</v>
+        <v>649</v>
       </c>
       <c r="Y31" s="26" t="s">
-        <v>492</v>
+        <v>650</v>
       </c>
       <c r="Z31" s="26" t="s">
-        <v>493</v>
+        <v>651</v>
       </c>
       <c r="AA31" s="28" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -8439,7 +9546,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>494</v>
+        <v>652</v>
       </c>
       <c r="C32" s="26">
         <v>10</v>
@@ -8495,16 +9602,16 @@
       <c r="V32" s="26"/>
       <c r="W32" s="28"/>
       <c r="X32" s="29" t="s">
-        <v>495</v>
+        <v>653</v>
       </c>
       <c r="Y32" s="26" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="Z32" s="26" t="s">
-        <v>497</v>
+        <v>655</v>
       </c>
       <c r="AA32" s="28" t="s">
-        <v>498</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -8512,7 +9619,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>499</v>
+        <v>657</v>
       </c>
       <c r="C33" s="26">
         <v>10</v>
@@ -8568,16 +9675,16 @@
       <c r="V33" s="26"/>
       <c r="W33" s="28"/>
       <c r="X33" s="29" t="s">
-        <v>500</v>
+        <v>658</v>
       </c>
       <c r="Y33" s="26" t="s">
-        <v>501</v>
+        <v>659</v>
       </c>
       <c r="Z33" s="26" t="s">
-        <v>502</v>
+        <v>660</v>
       </c>
       <c r="AA33" s="28" t="s">
-        <v>503</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -8585,7 +9692,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>504</v>
+        <v>662</v>
       </c>
       <c r="C34" s="26">
         <v>10</v>
@@ -8641,16 +9748,16 @@
       <c r="V34" s="26"/>
       <c r="W34" s="28"/>
       <c r="X34" s="29" t="s">
-        <v>505</v>
+        <v>663</v>
       </c>
       <c r="Y34" s="26" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="Z34" s="26" t="s">
-        <v>507</v>
+        <v>665</v>
       </c>
       <c r="AA34" s="28" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -8658,7 +9765,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>508</v>
+        <v>666</v>
       </c>
       <c r="C35" s="26">
         <v>10</v>
@@ -8714,16 +9821,16 @@
       <c r="V35" s="26"/>
       <c r="W35" s="28"/>
       <c r="X35" s="29" t="s">
-        <v>509</v>
+        <v>667</v>
       </c>
       <c r="Y35" s="26" t="s">
-        <v>510</v>
+        <v>668</v>
       </c>
       <c r="Z35" s="26" t="s">
-        <v>511</v>
+        <v>669</v>
       </c>
       <c r="AA35" s="28" t="s">
-        <v>512</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -8731,7 +9838,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>513</v>
+        <v>671</v>
       </c>
       <c r="C36" s="26">
         <v>10</v>
@@ -8787,16 +9894,16 @@
       <c r="V36" s="26"/>
       <c r="W36" s="28"/>
       <c r="X36" s="29" t="s">
-        <v>514</v>
+        <v>672</v>
       </c>
       <c r="Y36" s="26" t="s">
-        <v>515</v>
+        <v>673</v>
       </c>
       <c r="Z36" s="26" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="AA36" s="28" t="s">
-        <v>517</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -8804,7 +9911,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>518</v>
+        <v>676</v>
       </c>
       <c r="C37" s="26">
         <v>10</v>
@@ -8860,16 +9967,16 @@
       <c r="V37" s="26"/>
       <c r="W37" s="28"/>
       <c r="X37" s="29" t="s">
-        <v>519</v>
+        <v>677</v>
       </c>
       <c r="Y37" s="26" t="s">
-        <v>520</v>
+        <v>678</v>
       </c>
       <c r="Z37" s="26" t="s">
-        <v>521</v>
+        <v>679</v>
       </c>
       <c r="AA37" s="28" t="s">
-        <v>522</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -8877,7 +9984,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>523</v>
+        <v>681</v>
       </c>
       <c r="C38" s="26">
         <v>10</v>
@@ -8933,16 +10040,16 @@
       <c r="V38" s="26"/>
       <c r="W38" s="28"/>
       <c r="X38" s="29" t="s">
-        <v>524</v>
+        <v>682</v>
       </c>
       <c r="Y38" s="26" t="s">
-        <v>525</v>
+        <v>683</v>
       </c>
       <c r="Z38" s="26" t="s">
-        <v>526</v>
+        <v>684</v>
       </c>
       <c r="AA38" s="28" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -8950,7 +10057,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>528</v>
+        <v>686</v>
       </c>
       <c r="C39" s="26">
         <v>10</v>
@@ -9006,16 +10113,16 @@
       <c r="V39" s="26"/>
       <c r="W39" s="28"/>
       <c r="X39" s="29" t="s">
-        <v>529</v>
+        <v>687</v>
       </c>
       <c r="Y39" s="26" t="s">
-        <v>530</v>
+        <v>688</v>
       </c>
       <c r="Z39" s="26" t="s">
-        <v>531</v>
+        <v>689</v>
       </c>
       <c r="AA39" s="28" t="s">
-        <v>532</v>
+        <v>690</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -9023,7 +10130,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>533</v>
+        <v>691</v>
       </c>
       <c r="C40" s="26">
         <v>10</v>
@@ -9079,16 +10186,16 @@
       <c r="V40" s="26"/>
       <c r="W40" s="28"/>
       <c r="X40" s="29" t="s">
-        <v>534</v>
+        <v>692</v>
       </c>
       <c r="Y40" s="26" t="s">
-        <v>535</v>
+        <v>693</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>536</v>
+        <v>694</v>
       </c>
       <c r="AA40" s="28" t="s">
-        <v>355</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -9096,7 +10203,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>537</v>
+        <v>695</v>
       </c>
       <c r="C41" s="31">
         <v>10</v>
@@ -9152,16 +10259,16 @@
       <c r="V41" s="31"/>
       <c r="W41" s="33"/>
       <c r="X41" s="34" t="s">
-        <v>538</v>
+        <v>696</v>
       </c>
       <c r="Y41" s="31" t="s">
-        <v>539</v>
+        <v>697</v>
       </c>
       <c r="Z41" s="31" t="s">
-        <v>540</v>
+        <v>698</v>
       </c>
       <c r="AA41" s="33" t="s">
-        <v>374</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="699">
   <si>
     <t>流程：</t>
   </si>
@@ -702,6 +702,9 @@
     <t>res://scripts/buff/slime_attack_score_increase_buff.gd</t>
   </si>
   <si>
+    <t>post_attack_buff</t>
+  </si>
+  <si>
     <t>attack_over_four</t>
   </si>
   <si>
@@ -1390,9 +1393,6 @@
   </si>
   <si>
     <t>res://scripts/buff/power_current_score_down_buff.gd</t>
-  </si>
-  <si>
-    <t>post_attack_buff</t>
   </si>
   <si>
     <t>reroll_slime</t>
@@ -6049,7 +6049,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6158,6 +6158,9 @@
       <c r="E5" t="s">
         <v>216</v>
       </c>
+      <c r="F5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
@@ -6175,498 +6178,501 @@
       <c r="E6" t="s">
         <v>221</v>
       </c>
+      <c r="F6" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" t="s">
         <v>288</v>
       </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
       <c r="E20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" t="s">
         <v>312</v>
       </c>
-      <c r="D25" t="s">
-        <v>311</v>
-      </c>
       <c r="E25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D26" t="s">
         <v>316</v>
       </c>
-      <c r="D26" t="s">
-        <v>315</v>
-      </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" t="s">
         <v>320</v>
       </c>
-      <c r="D27" t="s">
-        <v>319</v>
-      </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C28" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" t="s">
         <v>324</v>
       </c>
-      <c r="D28" t="s">
-        <v>323</v>
-      </c>
       <c r="E28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C29" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" t="s">
         <v>328</v>
       </c>
-      <c r="D29" t="s">
-        <v>327</v>
-      </c>
       <c r="E29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D30" t="s">
         <v>332</v>
       </c>
-      <c r="D30" t="s">
-        <v>331</v>
-      </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31" t="s">
         <v>336</v>
       </c>
-      <c r="D31" t="s">
-        <v>335</v>
-      </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" t="s">
         <v>340</v>
       </c>
-      <c r="D32" t="s">
-        <v>339</v>
-      </c>
       <c r="E32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" t="s">
         <v>344</v>
       </c>
-      <c r="D33" t="s">
-        <v>343</v>
-      </c>
       <c r="E33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" t="s">
         <v>348</v>
       </c>
-      <c r="D34" t="s">
-        <v>347</v>
-      </c>
       <c r="E34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C35" t="s">
+        <v>353</v>
+      </c>
+      <c r="D35" t="s">
         <v>352</v>
       </c>
-      <c r="D35" t="s">
-        <v>351</v>
-      </c>
       <c r="E35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6681,7 +6687,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6716,279 +6722,279 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" t="s">
         <v>366</v>
-      </c>
-      <c r="B4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F4" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F15" t="s">
         <v>206</v>
@@ -6996,19 +7002,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F16" t="s">
         <v>206</v>
@@ -7016,82 +7022,82 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E18" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C20" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
-        <v>452</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7151,7 +7157,7 @@
         <v>467</v>
       </c>
       <c r="F23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7201,22 +7207,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7236,7 +7242,7 @@
         <v>476</v>
       </c>
       <c r="F3" t="s">
-        <v>452</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="699">
   <si>
     <t>流程：</t>
   </si>
@@ -756,7 +756,7 @@
     <t>res://images/buff_icon/full_range_slime_double_score.png</t>
   </si>
   <si>
-    <t>技能的攻击范围内都有史莱姆，以这次得分为基础，额外增加100%倍率的分数</t>
+    <t>技能的攻击范围内都有史莱姆，以这次得分为基础，额外增加50%倍率的分数</t>
   </si>
   <si>
     <t>res://scripts/buff/full_range_slime_double_score_buff.gd</t>
@@ -771,12 +771,15 @@
     <t>res://images/buff_icon/move_current_score_increase.png</t>
   </si>
   <si>
-    <t>每移动1格，增加1%的当前分数</t>
+    <t>每移动1格，增加2%的当前分数</t>
   </si>
   <si>
     <t>res://scripts/buff/move_current_score_increase_buff.gd</t>
   </si>
   <si>
+    <t>post_hero_move_buff</t>
+  </si>
+  <si>
     <t>movement_plus_one</t>
   </si>
   <si>
@@ -801,7 +804,7 @@
     <t>res://images/buff_icon/move_attack_score_increase.png</t>
   </si>
   <si>
-    <t>攻击后，每有1点移动力，以这次得分为基础，额外增加10%倍率的分数</t>
+    <t>攻击后，每有1点移动力，以这次得分为基础，额外增加5%倍率的分数</t>
   </si>
   <si>
     <t>res://scripts/buff/move_attack_score_increase_buff.gd</t>
@@ -1345,9 +1348,6 @@
   </si>
   <si>
     <t>res://scripts/buff/move_current_score_down_buff.gd</t>
-  </si>
-  <si>
-    <t>post_hero_move_buff</t>
   </si>
   <si>
     <t>move_down</t>
@@ -6049,7 +6049,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6198,6 +6198,9 @@
       <c r="E7" t="s">
         <v>227</v>
       </c>
+      <c r="F7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
@@ -6215,6 +6218,9 @@
       <c r="E8" t="s">
         <v>232</v>
       </c>
+      <c r="F8" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -6232,6 +6238,9 @@
       <c r="E9" t="s">
         <v>237</v>
       </c>
+      <c r="F9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
@@ -6249,6 +6258,9 @@
       <c r="E10" t="s">
         <v>241</v>
       </c>
+      <c r="F10" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -6266,413 +6278,428 @@
       <c r="E11" t="s">
         <v>246</v>
       </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>257</v>
+      </c>
+      <c r="F13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="F14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="F15" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" t="s">
         <v>289</v>
       </c>
-      <c r="D20" t="s">
-        <v>288</v>
-      </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" t="s">
         <v>313</v>
       </c>
-      <c r="D25" t="s">
-        <v>312</v>
-      </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" t="s">
         <v>317</v>
       </c>
-      <c r="D26" t="s">
-        <v>316</v>
-      </c>
       <c r="E26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" t="s">
         <v>321</v>
       </c>
-      <c r="D27" t="s">
-        <v>320</v>
-      </c>
       <c r="E27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" t="s">
         <v>325</v>
       </c>
-      <c r="D28" t="s">
-        <v>324</v>
-      </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" t="s">
         <v>329</v>
       </c>
-      <c r="D29" t="s">
-        <v>328</v>
-      </c>
       <c r="E29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C30" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" t="s">
         <v>333</v>
       </c>
-      <c r="D30" t="s">
-        <v>332</v>
-      </c>
       <c r="E30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C31" t="s">
+        <v>338</v>
+      </c>
+      <c r="D31" t="s">
         <v>337</v>
       </c>
-      <c r="D31" t="s">
-        <v>336</v>
-      </c>
       <c r="E31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
         <v>341</v>
       </c>
-      <c r="D32" t="s">
-        <v>340</v>
-      </c>
       <c r="E32" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" t="s">
         <v>345</v>
       </c>
-      <c r="D33" t="s">
-        <v>344</v>
-      </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" t="s">
         <v>349</v>
       </c>
-      <c r="D34" t="s">
-        <v>348</v>
-      </c>
       <c r="E34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" t="s">
         <v>353</v>
       </c>
-      <c r="D35" t="s">
-        <v>352</v>
-      </c>
       <c r="E35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6722,279 +6749,279 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" t="s">
         <v>367</v>
-      </c>
-      <c r="B4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F15" t="s">
         <v>206</v>
@@ -7002,19 +7029,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F16" t="s">
         <v>206</v>
@@ -7022,22 +7049,22 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F17" t="s">
-        <v>437</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7057,7 +7084,7 @@
         <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7077,7 +7104,7 @@
         <v>447</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7157,7 +7184,7 @@
         <v>467</v>
       </c>
       <c r="F23" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -7207,22 +7234,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="699">
   <si>
     <t>流程：</t>
   </si>
@@ -795,6 +795,9 @@
     <t>res://scripts/buff/movement_plus_one_buff.gd</t>
   </si>
   <si>
+    <t>pre_hero_turn_buff</t>
+  </si>
+  <si>
     <t>move_attack_score_increase</t>
   </si>
   <si>
@@ -1135,9 +1138,6 @@
   </si>
   <si>
     <t>res://scripts/buff/disable_one_buff.gd</t>
-  </si>
-  <si>
-    <t>pre_hero_turn_buff</t>
   </si>
   <si>
     <t>disable_two</t>
@@ -6049,7 +6049,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6299,24 +6299,24 @@
         <v>252</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
         <v>222</v>
@@ -6324,39 +6324,39 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
         <v>222</v>
@@ -6364,342 +6364,363 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>273</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>278</v>
+      </c>
+      <c r="F17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>283</v>
+      </c>
+      <c r="F18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>288</v>
+      </c>
+      <c r="F19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" t="s">
         <v>290</v>
       </c>
-      <c r="D20" t="s">
-        <v>289</v>
-      </c>
       <c r="E20" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>292</v>
+      </c>
+      <c r="F20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>297</v>
+      </c>
+      <c r="F21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>302</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E24" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" t="s">
         <v>314</v>
       </c>
-      <c r="D25" t="s">
-        <v>313</v>
-      </c>
       <c r="E25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" t="s">
         <v>318</v>
       </c>
-      <c r="D26" t="s">
-        <v>317</v>
-      </c>
       <c r="E26" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27" t="s">
         <v>322</v>
       </c>
-      <c r="D27" t="s">
-        <v>321</v>
-      </c>
       <c r="E27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" t="s">
         <v>326</v>
       </c>
-      <c r="D28" t="s">
-        <v>325</v>
-      </c>
       <c r="E28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" t="s">
         <v>330</v>
       </c>
-      <c r="D29" t="s">
-        <v>329</v>
-      </c>
       <c r="E29" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C30" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" t="s">
         <v>334</v>
       </c>
-      <c r="D30" t="s">
-        <v>333</v>
-      </c>
       <c r="E30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" t="s">
         <v>338</v>
       </c>
-      <c r="D31" t="s">
-        <v>337</v>
-      </c>
       <c r="E31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" t="s">
         <v>342</v>
       </c>
-      <c r="D32" t="s">
-        <v>341</v>
-      </c>
       <c r="E32" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C33" t="s">
+        <v>347</v>
+      </c>
+      <c r="D33" t="s">
         <v>346</v>
       </c>
-      <c r="D33" t="s">
-        <v>345</v>
-      </c>
       <c r="E33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" t="s">
         <v>350</v>
       </c>
-      <c r="D34" t="s">
-        <v>349</v>
-      </c>
       <c r="E34" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C35" t="s">
+        <v>355</v>
+      </c>
+      <c r="D35" t="s">
         <v>354</v>
       </c>
-      <c r="D35" t="s">
-        <v>353</v>
-      </c>
       <c r="E35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6714,7 +6735,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6749,42 +6770,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6804,7 +6825,7 @@
         <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6824,7 +6845,7 @@
         <v>377</v>
       </c>
       <c r="F5" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6844,7 +6865,7 @@
         <v>382</v>
       </c>
       <c r="F6" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6864,7 +6885,7 @@
         <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6884,7 +6905,7 @@
         <v>392</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6904,7 +6925,7 @@
         <v>397</v>
       </c>
       <c r="F9" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6924,7 +6945,7 @@
         <v>402</v>
       </c>
       <c r="F10" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6944,7 +6965,7 @@
         <v>407</v>
       </c>
       <c r="F11" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6964,7 +6985,7 @@
         <v>412</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6984,7 +7005,7 @@
         <v>417</v>
       </c>
       <c r="F13" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7004,7 +7025,7 @@
         <v>422</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7084,7 +7105,7 @@
         <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7104,7 +7125,7 @@
         <v>447</v>
       </c>
       <c r="F19" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7184,7 +7205,7 @@
         <v>467</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -7234,22 +7255,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="699">
   <si>
     <t>流程：</t>
   </si>
@@ -6048,8 +6048,8 @@
   <sheetPr/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6518,6 +6518,9 @@
       <c r="E23" t="s">
         <v>307</v>
       </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -6535,6 +6538,9 @@
       <c r="E24" t="s">
         <v>312</v>
       </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -6552,6 +6558,9 @@
       <c r="E25" t="s">
         <v>316</v>
       </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -6569,6 +6578,9 @@
       <c r="E26" t="s">
         <v>320</v>
       </c>
+      <c r="F26" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
@@ -6586,6 +6598,9 @@
       <c r="E27" t="s">
         <v>324</v>
       </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
@@ -6603,6 +6618,9 @@
       <c r="E28" t="s">
         <v>328</v>
       </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
@@ -6620,6 +6638,9 @@
       <c r="E29" t="s">
         <v>332</v>
       </c>
+      <c r="F29" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
@@ -6637,6 +6658,9 @@
       <c r="E30" t="s">
         <v>336</v>
       </c>
+      <c r="F30" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -6654,6 +6678,9 @@
       <c r="E31" t="s">
         <v>340</v>
       </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
@@ -6671,8 +6698,11 @@
       <c r="E32" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>345</v>
       </c>
@@ -6688,8 +6718,11 @@
       <c r="E33" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>349</v>
       </c>
@@ -6705,8 +6738,11 @@
       <c r="E34" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>353</v>
       </c>
@@ -6721,6 +6757,9 @@
       </c>
       <c r="E35" t="s">
         <v>356</v>
+      </c>
+      <c r="F35" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="701">
   <si>
     <t>流程：</t>
   </si>
@@ -621,6 +621,9 @@
     <t>诅咒类型</t>
   </si>
   <si>
+    <t>购买费用</t>
+  </si>
+  <si>
     <t>buff_id</t>
   </si>
   <si>
@@ -637,6 +640,9 @@
   </si>
   <si>
     <t>buff_type</t>
+  </si>
+  <si>
+    <t>buff_price</t>
   </si>
   <si>
     <t>slime_plus_one</t>
@@ -5570,7 +5576,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6046,13 +6052,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="34.75" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
@@ -6060,9 +6066,10 @@
     <col min="4" max="4" width="65.25" customWidth="1"/>
     <col min="5" max="5" width="60.375" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>189</v>
       </c>
@@ -6081,685 +6088,790 @@
       <c r="F1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>201</v>
+      </c>
+      <c r="G2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
         <v>224</v>
       </c>
-      <c r="C7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>249</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" t="s">
         <v>255</v>
       </c>
-      <c r="C13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E19" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>255</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E23" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>224</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D25" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D32" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B34" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D34" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E34" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>208</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E35" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6809,442 +6921,442 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D14" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C15" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D15" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E15" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D16" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E16" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B19" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C20" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C21" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D21" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E21" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B22" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C22" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D22" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E22" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D23" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7274,16 +7386,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E1" t="s">
         <v>193</v>
@@ -7294,42 +7406,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7351,73 +7463,73 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:27">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -7426,168 +7538,168 @@
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="S2" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>516</v>
-      </c>
       <c r="X2" s="11" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
       <c r="A3" s="14" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -7595,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C4" s="21">
         <v>10</v>
@@ -7651,16 +7763,16 @@
       <c r="V4" s="21"/>
       <c r="W4" s="23"/>
       <c r="X4" s="40" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Y4" s="21" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -7668,7 +7780,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C5" s="26">
         <v>10</v>
@@ -7724,16 +7836,16 @@
       <c r="V5" s="26"/>
       <c r="W5" s="28"/>
       <c r="X5" s="29" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y5" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z5" s="26" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -7741,7 +7853,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C6" s="26">
         <v>10</v>
@@ -7797,16 +7909,16 @@
       <c r="V6" s="26"/>
       <c r="W6" s="28"/>
       <c r="X6" s="29" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Y6" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z6" s="26" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -7814,7 +7926,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C7" s="26">
         <v>10</v>
@@ -7870,16 +7982,16 @@
       <c r="V7" s="26"/>
       <c r="W7" s="28"/>
       <c r="X7" s="29" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Y7" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z7" s="26" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -7887,7 +7999,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C8" s="26">
         <v>10</v>
@@ -7943,16 +8055,16 @@
       <c r="V8" s="26"/>
       <c r="W8" s="28"/>
       <c r="X8" s="29" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="Y8" s="26" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="Z8" s="26" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -7960,7 +8072,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C9" s="26">
         <v>10</v>
@@ -8016,16 +8128,16 @@
       <c r="V9" s="26"/>
       <c r="W9" s="28"/>
       <c r="X9" s="29" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Y9" s="26" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Z9" s="26" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -8033,7 +8145,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C10" s="26">
         <v>10</v>
@@ -8089,16 +8201,16 @@
       <c r="V10" s="26"/>
       <c r="W10" s="28"/>
       <c r="X10" s="29" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Y10" s="26" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Z10" s="26" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -8106,7 +8218,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C11" s="26">
         <v>10</v>
@@ -8162,16 +8274,16 @@
       <c r="V11" s="26"/>
       <c r="W11" s="28"/>
       <c r="X11" s="29" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -8179,7 +8291,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C12" s="26">
         <v>10</v>
@@ -8235,16 +8347,16 @@
       <c r="V12" s="26"/>
       <c r="W12" s="28"/>
       <c r="X12" s="29" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Z12" s="26" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -8252,7 +8364,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C13" s="26">
         <v>10</v>
@@ -8308,16 +8420,16 @@
       <c r="V13" s="26"/>
       <c r="W13" s="28"/>
       <c r="X13" s="29" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Y13" s="26" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Z13" s="26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -8325,7 +8437,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C14" s="26">
         <v>10</v>
@@ -8381,16 +8493,16 @@
       <c r="V14" s="26"/>
       <c r="W14" s="28"/>
       <c r="X14" s="29" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Y14" s="26" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Z14" s="26" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -8398,7 +8510,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C15" s="26">
         <v>10</v>
@@ -8454,16 +8566,16 @@
       <c r="V15" s="26"/>
       <c r="W15" s="28"/>
       <c r="X15" s="29" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Y15" s="26" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Z15" s="26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -8471,7 +8583,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C16" s="26">
         <v>10</v>
@@ -8527,16 +8639,16 @@
       <c r="V16" s="26"/>
       <c r="W16" s="28"/>
       <c r="X16" s="29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Y16" s="26" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Z16" s="26" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -8544,7 +8656,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C17" s="26">
         <v>10</v>
@@ -8600,16 +8712,16 @@
       <c r="V17" s="26"/>
       <c r="W17" s="28"/>
       <c r="X17" s="29" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Y17" s="26" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Z17" s="26" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -8617,7 +8729,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C18" s="26">
         <v>10</v>
@@ -8673,16 +8785,16 @@
       <c r="V18" s="26"/>
       <c r="W18" s="28"/>
       <c r="X18" s="29" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Y18" s="26" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z18" s="26" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AA18" s="28" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -8690,7 +8802,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C19" s="26">
         <v>10</v>
@@ -8746,16 +8858,16 @@
       <c r="V19" s="26"/>
       <c r="W19" s="28"/>
       <c r="X19" s="29" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Y19" s="26" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Z19" s="26" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -8763,7 +8875,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C20" s="26">
         <v>10</v>
@@ -8819,16 +8931,16 @@
       <c r="V20" s="26"/>
       <c r="W20" s="28"/>
       <c r="X20" s="29" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="Y20" s="26" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Z20" s="26" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AA20" s="28" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -8836,7 +8948,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C21" s="26">
         <v>10</v>
@@ -8892,16 +9004,16 @@
       <c r="V21" s="26"/>
       <c r="W21" s="28"/>
       <c r="X21" s="29" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Y21" s="26" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Z21" s="26" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -8909,7 +9021,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C22" s="26">
         <v>10</v>
@@ -8965,16 +9077,16 @@
       <c r="V22" s="26"/>
       <c r="W22" s="28"/>
       <c r="X22" s="29" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="Y22" s="26" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z22" s="26" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -8982,7 +9094,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C23" s="26">
         <v>10</v>
@@ -9038,16 +9150,16 @@
       <c r="V23" s="26"/>
       <c r="W23" s="28"/>
       <c r="X23" s="29" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Y23" s="26" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Z23" s="26" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -9055,7 +9167,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C24" s="26">
         <v>10</v>
@@ -9111,16 +9223,16 @@
       <c r="V24" s="26"/>
       <c r="W24" s="28"/>
       <c r="X24" s="29" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="Y24" s="26" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="Z24" s="26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AA24" s="28" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -9128,7 +9240,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C25" s="26">
         <v>10</v>
@@ -9184,16 +9296,16 @@
       <c r="V25" s="26"/>
       <c r="W25" s="28"/>
       <c r="X25" s="29" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Y25" s="26" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="Z25" s="26" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -9201,7 +9313,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C26" s="26">
         <v>10</v>
@@ -9257,16 +9369,16 @@
       <c r="V26" s="26"/>
       <c r="W26" s="28"/>
       <c r="X26" s="29" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="Y26" s="26" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="Z26" s="26" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AA26" s="28" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -9274,7 +9386,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C27" s="26">
         <v>10</v>
@@ -9330,16 +9442,16 @@
       <c r="V27" s="26"/>
       <c r="W27" s="28"/>
       <c r="X27" s="29" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="Y27" s="26" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Z27" s="26" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -9347,7 +9459,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C28" s="26">
         <v>10</v>
@@ -9403,16 +9515,16 @@
       <c r="V28" s="26"/>
       <c r="W28" s="28"/>
       <c r="X28" s="29" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="Y28" s="26" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="Z28" s="26" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AA28" s="28" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -9420,7 +9532,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C29" s="26">
         <v>10</v>
@@ -9476,16 +9588,16 @@
       <c r="V29" s="26"/>
       <c r="W29" s="28"/>
       <c r="X29" s="29" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="Y29" s="26" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="Z29" s="26" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AA29" s="28" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -9493,7 +9605,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C30" s="26">
         <v>10</v>
@@ -9549,16 +9661,16 @@
       <c r="V30" s="26"/>
       <c r="W30" s="28"/>
       <c r="X30" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Y30" s="26" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="Z30" s="26" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AA30" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -9566,7 +9678,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C31" s="26">
         <v>10</v>
@@ -9622,16 +9734,16 @@
       <c r="V31" s="26"/>
       <c r="W31" s="28"/>
       <c r="X31" s="29" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="Y31" s="26" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="Z31" s="26" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AA31" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -9639,7 +9751,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C32" s="26">
         <v>10</v>
@@ -9695,16 +9807,16 @@
       <c r="V32" s="26"/>
       <c r="W32" s="28"/>
       <c r="X32" s="29" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="Y32" s="26" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="Z32" s="26" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AA32" s="28" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -9712,7 +9824,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C33" s="26">
         <v>10</v>
@@ -9768,16 +9880,16 @@
       <c r="V33" s="26"/>
       <c r="W33" s="28"/>
       <c r="X33" s="29" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="Y33" s="26" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Z33" s="26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AA33" s="28" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -9785,7 +9897,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C34" s="26">
         <v>10</v>
@@ -9841,16 +9953,16 @@
       <c r="V34" s="26"/>
       <c r="W34" s="28"/>
       <c r="X34" s="29" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="Y34" s="26" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="Z34" s="26" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AA34" s="28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -9858,7 +9970,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C35" s="26">
         <v>10</v>
@@ -9914,16 +10026,16 @@
       <c r="V35" s="26"/>
       <c r="W35" s="28"/>
       <c r="X35" s="29" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="Y35" s="26" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="Z35" s="26" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AA35" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -9931,7 +10043,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C36" s="26">
         <v>10</v>
@@ -9987,16 +10099,16 @@
       <c r="V36" s="26"/>
       <c r="W36" s="28"/>
       <c r="X36" s="29" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Y36" s="26" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="Z36" s="26" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AA36" s="28" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -10004,7 +10116,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C37" s="26">
         <v>10</v>
@@ -10060,16 +10172,16 @@
       <c r="V37" s="26"/>
       <c r="W37" s="28"/>
       <c r="X37" s="29" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="Y37" s="26" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="Z37" s="26" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AA37" s="28" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -10077,7 +10189,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C38" s="26">
         <v>10</v>
@@ -10133,16 +10245,16 @@
       <c r="V38" s="26"/>
       <c r="W38" s="28"/>
       <c r="X38" s="29" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="Y38" s="26" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="Z38" s="26" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AA38" s="28" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -10150,7 +10262,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C39" s="26">
         <v>10</v>
@@ -10206,16 +10318,16 @@
       <c r="V39" s="26"/>
       <c r="W39" s="28"/>
       <c r="X39" s="29" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Y39" s="26" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="Z39" s="26" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AA39" s="28" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -10223,7 +10335,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C40" s="26">
         <v>10</v>
@@ -10279,16 +10391,16 @@
       <c r="V40" s="26"/>
       <c r="W40" s="28"/>
       <c r="X40" s="29" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Y40" s="26" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AA40" s="28" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
@@ -10296,7 +10408,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C41" s="31">
         <v>10</v>
@@ -10352,16 +10464,16 @@
       <c r="V41" s="31"/>
       <c r="W41" s="33"/>
       <c r="X41" s="34" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="Y41" s="31" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="Z41" s="31" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AA41" s="33" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/config/config_table.xlsx
+++ b/config/config_table.xlsx
@@ -672,7 +672,7 @@
     <t>res://images/buff_icon/slime_sum_score_increase.png</t>
   </si>
   <si>
-    <t>回合结束时，每有1个史莱姆获得10分</t>
+    <t>回合结束时，每有1个史莱姆，增加目标分数0.1%的分数</t>
   </si>
   <si>
     <t>res://scripts/buff/slime_sum_score_increase_buff.gd</t>
@@ -687,7 +687,7 @@
     <t>res://images/buff_icon/no_attack.png</t>
   </si>
   <si>
-    <t>本回合没有攻击，当前分数增加10%</t>
+    <t>本回合没有攻击，增加目标分数5%的分数</t>
   </si>
   <si>
     <t>res://scripts/buff/no_attack_buff.gd</t>
@@ -777,7 +777,7 @@
     <t>res://images/buff_icon/move_current_score_increase.png</t>
   </si>
   <si>
-    <t>每移动1格，增加2%的当前分数</t>
+    <t>每移动1格，增加目标分数1%的分数</t>
   </si>
   <si>
     <t>res://scripts/buff/move_current_score_increase_buff.gd</t>
@@ -843,7 +843,7 @@
     <t>res://images/buff_icon/attack_coin_slime_score_increase.png</t>
   </si>
   <si>
-    <t>击杀金币史莱姆，增加20%的当前分数</t>
+    <t>击杀金币史莱姆，增加目标分数10%的分数</t>
   </si>
   <si>
     <t>res://scripts/buff/attack_coin_slime_score_increase_buff.gd</t>
@@ -903,7 +903,7 @@
     <t>res://images/buff_icon/attack_power_slime_score_increase.png</t>
   </si>
   <si>
-    <t>击杀能量史莱姆，增加20%的当前分数</t>
+    <t>击杀能量史莱姆，增加目标分数10%的分数</t>
   </si>
   <si>
     <t>res://scripts/buff/attack_power_slime_score_increase_buff.gd</t>
@@ -6055,7 +6055,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
